--- a/oasis-standards.xlsx
+++ b/oasis-standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdrees/merge_cisco_back_in/sdrees_at_oasis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686633E9-CC38-1145-B0A5-56ACF867B24D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AE702-4D3B-9D42-8336-6648F2B6EE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="2684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="2696">
   <si>
     <t>AS4 Profile of ebMS 3.0 v1.0</t>
   </si>
@@ -8998,6 +8998,46 @@
   </si>
   <si>
     <t>Exchange Header Envelope (XHE) Version 1.0. Edited by G. Ken Holman. 21 March 2019. OASIS Committee Specification 01. https://docs.oasis-open.org/bdxr/xhe/v1.0/cs01/xhe-v1.0-cs01-oasis.html. Latest version: https://docs.oasis-open.org/bdxr/xhe/v1.0/xhe-v1.0-oasis.html.</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/tc_home.php?wg_abbrev=ffm</t>
+  </si>
+  <si>
+    <t>Field Force Management Integration Interface Specification Version 1.0. 05 October 2012. OASIS Committee Specification 01.
+http://docs.oasis-open.org/ffm/FFMII-SPEC/v1.0/cs01/FFMII-SPEC-v1.0-cs01.html.</t>
+  </si>
+  <si>
+    <t>JSON Profile of XACML 3.0 Version 1.1</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.html</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.doc</t>
+  </si>
+  <si>
+    <t>The aim of this profile is to define a standardized interface between a policy enforcement point and a policy decision point using JSON. The decision request and response structure is specified in the core XACML specification. This profile leverages it.</t>
+  </si>
+  <si>
+    <t>David Brossard (david.brossard@axiomatics.com), Axiomatics AB
+Steven Legg (steven.legg@viewds.com), Individual</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.zip</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/ballot.php?id=3278</t>
+  </si>
+  <si>
+    <t>[xacml-json-v1.1]</t>
+  </si>
+  <si>
+    <t>JSON Profile of XACML 3.0 Version 1.1. Edited by David Brossard and Steven Legg. 05 December 2018. OASIS Committee Specification 01.
+https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.html.
+Latest version: https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/xacml-json-http-v1.1.html.</t>
   </si>
 </sst>
 </file>
@@ -9718,10 +9758,10 @@
   <dimension ref="A1:AF1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F272" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F277" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
+      <selection pane="bottomRight" activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28071,28 +28111,289 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="275" spans="1:31">
-      <c r="C275" s="2"/>
-      <c r="D275" s="20"/>
+    <row r="275" spans="1:31" s="7" customFormat="1" ht="409.6">
+      <c r="A275" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C275" s="71" t="s">
+        <v>993</v>
+      </c>
+      <c r="D275" s="39" t="s">
+        <v>320</v>
+      </c>
       <c r="E275" s="82"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="10"/>
-    </row>
-    <row r="276" spans="1:31">
-      <c r="C276" s="4"/>
-      <c r="D276" s="22"/>
+      <c r="F275" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G275" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="H275" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="I275" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="J275" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="K275" s="70">
+        <v>41187</v>
+      </c>
+      <c r="L275" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="M275" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N275" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O275" s="8"/>
+      <c r="P275" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q275" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R275" s="8"/>
+      <c r="S275" s="8"/>
+      <c r="T275" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U275" s="8"/>
+      <c r="V275" s="8"/>
+      <c r="W275" s="8"/>
+      <c r="X275" s="8"/>
+      <c r="Y275" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Z275" s="11" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AA275" s="79">
+        <v>41187</v>
+      </c>
+      <c r="AB275" s="11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AD275" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AE275" s="8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" s="7" customFormat="1" ht="136">
+      <c r="A276" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B276" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C276" s="71" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D276" s="40"/>
       <c r="E276" s="82"/>
-      <c r="F276" s="6"/>
-    </row>
-    <row r="277" spans="1:31">
+      <c r="F276" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G276" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H276" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I276" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J276" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K276" s="70">
+        <v>39534</v>
+      </c>
+      <c r="L276" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M276" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N276" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O276" s="8"/>
+      <c r="P276" s="8"/>
+      <c r="Q276" s="8"/>
+      <c r="R276" s="8"/>
+      <c r="S276" s="8"/>
+      <c r="T276" s="8"/>
+      <c r="U276" s="8"/>
+      <c r="V276" s="8"/>
+      <c r="W276" s="8"/>
+      <c r="X276" s="8"/>
+      <c r="Y276" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Z276" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AA276" s="79">
+        <v>39533</v>
+      </c>
+      <c r="AB276" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AD276" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AE276" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A277" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B277" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C277" s="71" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="E277" s="82"/>
-      <c r="F277" s="6"/>
-    </row>
-    <row r="278" spans="1:31">
-      <c r="C278" s="2"/>
-      <c r="D278" s="20"/>
+      <c r="F277" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H277" s="10" t="s">
+        <v>2688</v>
+      </c>
+      <c r="I277" s="10" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J277" s="8"/>
+      <c r="K277" s="70">
+        <v>43439</v>
+      </c>
+      <c r="L277" s="8" t="s">
+        <v>2690</v>
+      </c>
+      <c r="M277" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N277" s="8" t="s">
+        <v>2691</v>
+      </c>
+      <c r="O277" s="8"/>
+      <c r="P277" s="8"/>
+      <c r="Q277" s="8"/>
+      <c r="R277" s="8"/>
+      <c r="S277" s="8"/>
+      <c r="T277" s="10" t="s">
+        <v>2692</v>
+      </c>
+      <c r="U277" s="8"/>
+      <c r="V277" s="8"/>
+      <c r="W277" s="8"/>
+      <c r="X277" s="8"/>
+      <c r="Y277" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z277" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA277" s="79">
+        <v>43439</v>
+      </c>
+      <c r="AB277" s="11" t="s">
+        <v>2693</v>
+      </c>
+      <c r="AD277" s="7" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AE277" s="8" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A278" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B278" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C278" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D278" s="39" t="s">
+        <v>320</v>
+      </c>
       <c r="E278" s="82"/>
-      <c r="F278" s="6"/>
+      <c r="F278" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G278" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H278" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I278" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J278" s="8"/>
+      <c r="K278" s="70">
+        <v>41984</v>
+      </c>
+      <c r="L278" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M278" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N278" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O278" s="8"/>
+      <c r="P278" s="8"/>
+      <c r="Q278" s="8"/>
+      <c r="R278" s="8"/>
+      <c r="S278" s="8"/>
+      <c r="T278" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="U278" s="8"/>
+      <c r="V278" s="8"/>
+      <c r="W278" s="8"/>
+      <c r="X278" s="8"/>
+      <c r="Y278" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z278" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AA278" s="79">
+        <v>41984</v>
+      </c>
+      <c r="AB278" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AD278" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AE278" s="8" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="279" spans="1:31">
       <c r="C279" s="4"/>
@@ -34742,24 +35043,87 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="E1492:E1498"/>
-    <mergeCell ref="E1486:E1491"/>
-    <mergeCell ref="E1475:E1477"/>
-    <mergeCell ref="E1472:E1474"/>
-    <mergeCell ref="E1469:E1471"/>
-    <mergeCell ref="E1466:E1468"/>
-    <mergeCell ref="E1413:E1415"/>
-    <mergeCell ref="E1407:E1412"/>
-    <mergeCell ref="E1404:E1406"/>
-    <mergeCell ref="E1401:E1403"/>
-    <mergeCell ref="E1398:E1400"/>
-    <mergeCell ref="E1372:E1397"/>
-    <mergeCell ref="E1463:E1465"/>
-    <mergeCell ref="E1449:E1462"/>
-    <mergeCell ref="E1439:E1448"/>
-    <mergeCell ref="E1429:E1438"/>
-    <mergeCell ref="E1419:E1428"/>
-    <mergeCell ref="E1416:E1418"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E289:E297"/>
+    <mergeCell ref="E273:E288"/>
+    <mergeCell ref="E347:E364"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="E337:E341"/>
+    <mergeCell ref="E322:E326"/>
+    <mergeCell ref="E301:E321"/>
+    <mergeCell ref="E298:E300"/>
+    <mergeCell ref="E424:E426"/>
+    <mergeCell ref="E400:E423"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="E384:E388"/>
+    <mergeCell ref="E365:E383"/>
+    <mergeCell ref="E472:E483"/>
+    <mergeCell ref="E463:E471"/>
+    <mergeCell ref="E446:E462"/>
+    <mergeCell ref="E434:E445"/>
+    <mergeCell ref="E431:E433"/>
+    <mergeCell ref="E427:E430"/>
+    <mergeCell ref="E573:E589"/>
+    <mergeCell ref="E533:E572"/>
+    <mergeCell ref="E501:E510"/>
+    <mergeCell ref="E495:E500"/>
+    <mergeCell ref="E488:E494"/>
+    <mergeCell ref="E484:E487"/>
+    <mergeCell ref="E630:E636"/>
+    <mergeCell ref="E617:E619"/>
+    <mergeCell ref="E610:E616"/>
+    <mergeCell ref="E603:E609"/>
+    <mergeCell ref="E593:E595"/>
+    <mergeCell ref="E590:E592"/>
+    <mergeCell ref="E668:E674"/>
+    <mergeCell ref="E661:E667"/>
+    <mergeCell ref="E654:E660"/>
+    <mergeCell ref="E647:E653"/>
+    <mergeCell ref="E644:E646"/>
+    <mergeCell ref="E637:E643"/>
+    <mergeCell ref="E710:E714"/>
+    <mergeCell ref="E703:E709"/>
+    <mergeCell ref="E696:E702"/>
+    <mergeCell ref="E689:E695"/>
+    <mergeCell ref="E682:E688"/>
+    <mergeCell ref="E675:E681"/>
+    <mergeCell ref="E908:E924"/>
+    <mergeCell ref="E898:E907"/>
+    <mergeCell ref="E870:E897"/>
+    <mergeCell ref="E849:E869"/>
+    <mergeCell ref="E739:E804"/>
+    <mergeCell ref="E715:E719"/>
+    <mergeCell ref="E968:E984"/>
+    <mergeCell ref="E961:E967"/>
+    <mergeCell ref="E958:E960"/>
+    <mergeCell ref="E943:E957"/>
+    <mergeCell ref="E928:E942"/>
+    <mergeCell ref="E925:E927"/>
+    <mergeCell ref="E1056:E1065"/>
+    <mergeCell ref="E1053:E1055"/>
+    <mergeCell ref="E1041:E1052"/>
+    <mergeCell ref="E1033:E1040"/>
+    <mergeCell ref="E1008:E1021"/>
+    <mergeCell ref="E985:E1007"/>
+    <mergeCell ref="E1117:E1119"/>
+    <mergeCell ref="E1112:E1116"/>
+    <mergeCell ref="E1107:E1111"/>
+    <mergeCell ref="E1095:E1099"/>
+    <mergeCell ref="E1074:E1078"/>
+    <mergeCell ref="E1066:E1073"/>
+    <mergeCell ref="E1174:E1182"/>
+    <mergeCell ref="E1169:E1173"/>
+    <mergeCell ref="E1166:E1168"/>
+    <mergeCell ref="E1149:E1160"/>
+    <mergeCell ref="E1125:E1148"/>
+    <mergeCell ref="E1120:E1124"/>
+    <mergeCell ref="E1237:E1239"/>
+    <mergeCell ref="E1234:E1236"/>
+    <mergeCell ref="E1231:E1233"/>
+    <mergeCell ref="E1228:E1230"/>
+    <mergeCell ref="E1186:E1227"/>
+    <mergeCell ref="E1183:E1185"/>
     <mergeCell ref="E1269:E1283"/>
     <mergeCell ref="E1266:E1268"/>
     <mergeCell ref="E1257:E1265"/>
@@ -34772,87 +35136,24 @@
     <mergeCell ref="E1298:E1328"/>
     <mergeCell ref="E1295:E1297"/>
     <mergeCell ref="E1284:E1294"/>
-    <mergeCell ref="E1174:E1182"/>
-    <mergeCell ref="E1169:E1173"/>
-    <mergeCell ref="E1166:E1168"/>
-    <mergeCell ref="E1149:E1160"/>
-    <mergeCell ref="E1125:E1148"/>
-    <mergeCell ref="E1120:E1124"/>
-    <mergeCell ref="E1237:E1239"/>
-    <mergeCell ref="E1234:E1236"/>
-    <mergeCell ref="E1231:E1233"/>
-    <mergeCell ref="E1228:E1230"/>
-    <mergeCell ref="E1186:E1227"/>
-    <mergeCell ref="E1183:E1185"/>
-    <mergeCell ref="E1056:E1065"/>
-    <mergeCell ref="E1053:E1055"/>
-    <mergeCell ref="E1041:E1052"/>
-    <mergeCell ref="E1033:E1040"/>
-    <mergeCell ref="E1008:E1021"/>
-    <mergeCell ref="E985:E1007"/>
-    <mergeCell ref="E1117:E1119"/>
-    <mergeCell ref="E1112:E1116"/>
-    <mergeCell ref="E1107:E1111"/>
-    <mergeCell ref="E1095:E1099"/>
-    <mergeCell ref="E1074:E1078"/>
-    <mergeCell ref="E1066:E1073"/>
-    <mergeCell ref="E908:E924"/>
-    <mergeCell ref="E898:E907"/>
-    <mergeCell ref="E870:E897"/>
-    <mergeCell ref="E849:E869"/>
-    <mergeCell ref="E739:E804"/>
-    <mergeCell ref="E715:E719"/>
-    <mergeCell ref="E968:E984"/>
-    <mergeCell ref="E961:E967"/>
-    <mergeCell ref="E958:E960"/>
-    <mergeCell ref="E943:E957"/>
-    <mergeCell ref="E928:E942"/>
-    <mergeCell ref="E925:E927"/>
-    <mergeCell ref="E668:E674"/>
-    <mergeCell ref="E661:E667"/>
-    <mergeCell ref="E654:E660"/>
-    <mergeCell ref="E647:E653"/>
-    <mergeCell ref="E644:E646"/>
-    <mergeCell ref="E637:E643"/>
-    <mergeCell ref="E710:E714"/>
-    <mergeCell ref="E703:E709"/>
-    <mergeCell ref="E696:E702"/>
-    <mergeCell ref="E689:E695"/>
-    <mergeCell ref="E682:E688"/>
-    <mergeCell ref="E675:E681"/>
-    <mergeCell ref="E573:E589"/>
-    <mergeCell ref="E533:E572"/>
-    <mergeCell ref="E501:E510"/>
-    <mergeCell ref="E495:E500"/>
-    <mergeCell ref="E488:E494"/>
-    <mergeCell ref="E484:E487"/>
-    <mergeCell ref="E630:E636"/>
-    <mergeCell ref="E617:E619"/>
-    <mergeCell ref="E610:E616"/>
-    <mergeCell ref="E603:E609"/>
-    <mergeCell ref="E593:E595"/>
-    <mergeCell ref="E590:E592"/>
-    <mergeCell ref="E424:E426"/>
-    <mergeCell ref="E400:E423"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="E384:E388"/>
-    <mergeCell ref="E365:E383"/>
-    <mergeCell ref="E472:E483"/>
-    <mergeCell ref="E463:E471"/>
-    <mergeCell ref="E446:E462"/>
-    <mergeCell ref="E434:E445"/>
-    <mergeCell ref="E431:E433"/>
-    <mergeCell ref="E427:E430"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E289:E297"/>
-    <mergeCell ref="E273:E288"/>
-    <mergeCell ref="E347:E364"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="E337:E341"/>
-    <mergeCell ref="E322:E326"/>
-    <mergeCell ref="E301:E321"/>
-    <mergeCell ref="E298:E300"/>
+    <mergeCell ref="E1401:E1403"/>
+    <mergeCell ref="E1398:E1400"/>
+    <mergeCell ref="E1372:E1397"/>
+    <mergeCell ref="E1463:E1465"/>
+    <mergeCell ref="E1449:E1462"/>
+    <mergeCell ref="E1439:E1448"/>
+    <mergeCell ref="E1429:E1438"/>
+    <mergeCell ref="E1419:E1428"/>
+    <mergeCell ref="E1416:E1418"/>
+    <mergeCell ref="E1492:E1498"/>
+    <mergeCell ref="E1486:E1491"/>
+    <mergeCell ref="E1475:E1477"/>
+    <mergeCell ref="E1472:E1474"/>
+    <mergeCell ref="E1469:E1471"/>
+    <mergeCell ref="E1466:E1468"/>
+    <mergeCell ref="E1413:E1415"/>
+    <mergeCell ref="E1407:E1412"/>
+    <mergeCell ref="E1404:E1406"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -36409,10 +36710,35 @@
     <hyperlink ref="T274" r:id="rId1552" xr:uid="{9558B4FA-29AC-454A-BC53-15DBFA5E9C48}"/>
     <hyperlink ref="Z274" r:id="rId1553" xr:uid="{A80DFF42-7AF6-9343-9EAC-ADB5ABD09E94}"/>
     <hyperlink ref="AB274" r:id="rId1554" xr:uid="{192B9D4F-78EB-D64B-894A-EBA8B0032130}"/>
+    <hyperlink ref="G275" r:id="rId1555" xr:uid="{09861106-0A37-7F47-AEB3-161BF00ABAFA}"/>
+    <hyperlink ref="H275" r:id="rId1556" xr:uid="{B4FD611F-66E4-0942-938D-74BD71324ABD}"/>
+    <hyperlink ref="I275" r:id="rId1557" xr:uid="{BCF3CCDE-B3C6-E645-9E07-C90791D743C0}"/>
+    <hyperlink ref="Q275" r:id="rId1558" xr:uid="{7C5AE095-8311-E34C-8322-123119774307}"/>
+    <hyperlink ref="P275" r:id="rId1559" xr:uid="{1B6A10FC-E41B-6840-9EF3-67A0338F1ED6}"/>
+    <hyperlink ref="T275" r:id="rId1560" xr:uid="{B12068E2-016A-7141-8652-B7CD119892F5}"/>
+    <hyperlink ref="AB275" r:id="rId1561" xr:uid="{10514B07-9EE7-9E41-9E9B-4678574B46A5}"/>
+    <hyperlink ref="Z275" r:id="rId1562" xr:uid="{E0A0BE69-CE7A-714F-95C9-0359E5A431A9}"/>
+    <hyperlink ref="G276" r:id="rId1563" xr:uid="{777B17B8-7D2D-6849-8054-F4C25DCA38F4}"/>
+    <hyperlink ref="H276" r:id="rId1564" xr:uid="{48F2B37B-C17A-C148-A7D9-50887D78E731}"/>
+    <hyperlink ref="I276" r:id="rId1565" xr:uid="{07CC0966-A7B9-3E42-B11D-0FE98BE77F0F}"/>
+    <hyperlink ref="Z276" r:id="rId1566" xr:uid="{B22C4E1C-FCB3-244A-9E66-8D236C55E1B7}"/>
+    <hyperlink ref="AB276" r:id="rId1567" xr:uid="{81B1EDE6-D74E-B841-AF96-416F2B5850EE}"/>
+    <hyperlink ref="G277" r:id="rId1568" xr:uid="{B1BA2C76-5CFB-3440-A9CD-E77DC55D105B}"/>
+    <hyperlink ref="H277" r:id="rId1569" xr:uid="{8FCAF417-DB6C-8C4E-8271-81E27816E4FB}"/>
+    <hyperlink ref="I277" r:id="rId1570" xr:uid="{A25466AF-3964-FC44-86F0-5E7D998FA095}"/>
+    <hyperlink ref="T277" r:id="rId1571" xr:uid="{9AE16A33-7D74-D240-B429-5FFCAB83FA4E}"/>
+    <hyperlink ref="Z277" r:id="rId1572" xr:uid="{06CAE5AC-4E73-DC49-B45F-F03C26A7F1A3}"/>
+    <hyperlink ref="AB277" r:id="rId1573" xr:uid="{307942ED-7230-E040-9DD5-89032CE4C08C}"/>
+    <hyperlink ref="G278" r:id="rId1574" xr:uid="{9B829720-EBA7-AE44-B8E2-597AFBBAAF49}"/>
+    <hyperlink ref="H278" r:id="rId1575" xr:uid="{AF6D3C91-C20B-6240-B74A-084CA923CEC9}"/>
+    <hyperlink ref="I278" r:id="rId1576" xr:uid="{F129E287-87D7-ED48-A9F3-73C738526800}"/>
+    <hyperlink ref="T278" r:id="rId1577" xr:uid="{CCBB52C5-F484-A946-8805-21A1E35BAD07}"/>
+    <hyperlink ref="Z278" r:id="rId1578" xr:uid="{CCBE5F2A-A3FF-0A41-8246-B1F676952ABE}"/>
+    <hyperlink ref="AB278" r:id="rId1579" xr:uid="{B6B37849-21BD-6244-A16A-84545DBAE121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1555"/>
+  <legacyDrawing r:id="rId1580"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/oasis-standards.xlsx
+++ b/oasis-standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdrees/merge_cisco_back_in/sdrees_at_oasis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209AE702-4D3B-9D42-8336-6648F2B6EE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E7AE4-A4FE-CA4F-8535-F3C6F5F10C6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="2696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="2747">
   <si>
     <t>AS4 Profile of ebMS 3.0 v1.0</t>
   </si>
@@ -9038,6 +9038,180 @@
     <t>JSON Profile of XACML 3.0 Version 1.1. Edited by David Brossard and Steven Legg. 05 December 2018. OASIS Committee Specification 01.
 https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/cs01/xacml-json-http-v1.1-cs01.html.
 Latest version: https://docs.oasis-open.org/xacml/xacml-json-http/v1.1/xacml-json-http-v1.1.html.</t>
+  </si>
+  <si>
+    <t>Key Management Interoperability Protocol Profiles Version 2.0</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/cs01/kmip-profiles-v2.0-cs01.html</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/cs01/kmip-profiles-v2.0-cs01.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/cs01/kmip-profiles-v2.0-cs01.docx</t>
+  </si>
+  <si>
+    <t>This document is intended for developers and architects who wish to design systems and applications that interoperate using the Key Management Interoperability Protocol Specification.</t>
+  </si>
+  <si>
+    <t>Tony Cox (tony.cox@cryptsoft.com), Cryptsoft Pty Ltd.
+Judith Furlong (Judith.Furlong@dell.com), Dell</t>
+  </si>
+  <si>
+    <t>Tim Hudson (tjh@cryptsoft.com), Cryptsoft Pty Ltd.
+Robert Lockhart (Robert.Lockhart@thalesesec.com), Thales e-Security</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/cs01/kmip-profiles-v2.0-cs01.zip</t>
+  </si>
+  <si>
+    <t>OASIS Key Management Interoperability Protocol (KMIP) TC</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/kmip/</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/ballot.php?id=3407</t>
+  </si>
+  <si>
+    <t>[kmip-profiles-v2.0]</t>
+  </si>
+  <si>
+    <t>Key Management Interoperability Protocol Profiles Version 2.0. Edited by Tim Hudson and Robert Lockhart. 12 June 2019. OASIS Committee Specification 01. https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/cs01/kmip-profiles-v2.0-cs01.html. Latest version: https://docs.oasis-open.org/kmip/kmip-profiles/v2.0/kmip-profiles-v2.0.html.</t>
+  </si>
+  <si>
+    <t>Key Management Interoperability Protocol Specification Version 2.0</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-spec/v2.0/cs01/kmip-spec-v2.0-cs01.html</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-spec/v2.0/cs01/kmip-spec-v2.0-cs01.pdf</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-spec/v2.0/cs01/kmip-spec-v2.0-cs01.docx</t>
+  </si>
+  <si>
+    <t>Tony Cox (tony.cox@cryptsoft.com), Cryptsoft Pty Ltd.
+Charles White (chuck@fornetix.com), Fornetix</t>
+  </si>
+  <si>
+    <t>https://docs.oasis-open.org/kmip/kmip-spec/v2.0/cs01/kmip-spec-v2.0-cs01.zip</t>
+  </si>
+  <si>
+    <t>[kmip-spec-v2.0]</t>
+  </si>
+  <si>
+    <t>Key Management Interoperability Protocol Specification Version 2.0. Edited by Tony Cox and Charles White. 12 June 2019. OASIS Committee Specification 01. https://docs.oasis-open.org/kmip/kmip-spec/v2.0/cs01/kmip-spec-v2.0-cs01.html. Latest version: https://docs.oasis-open.org/kmip/kmip-spec/v2.0/kmip-spec-v2.0.html.</t>
+  </si>
+  <si>
+    <t>LegalRuleML Core Specification Version 1.0</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/legalruleml-core-spec-v1.0-cs01.html</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/legalruleml-core-spec-v1.0-cs01.pdf</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/legalruleml-core-spec-v1.0-cs01.docx</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/ns/v1.0/
+http://docs.oasis-open.org/legalruleml/ns/mm/v1.0/</t>
+  </si>
+  <si>
+    <t>The objective of this document is to extend RuleML with formal features specific to legal norms, guidelines, policies and reasoning. It defines a specification (expressed with XML-schema and Relax NG) that is able to represent the particularities of the legal normative rules with a rich, articulated, and meaningful markup language.</t>
+  </si>
+  <si>
+    <t>Monica Palmirani (monica.palmirani@unibo.it), CIRSFID, University of Bologna
+Guido Governatori (Guido.Governatori@data61.csiro.au), Commonwealth Scientific and Industrial Research Organisation, Data61</t>
+  </si>
+  <si>
+    <t>Monica Palmirani (monica.palmirani@unibo.it), CIRSFID, University of Bologna
+Guido Governatori (Guido.Governatori@data61.csiro.au), Commonwealth Scientific and Industrial Research Organisation, Data61
+Tara Athan (taraathan@gmail.com), Individual
+Harold Boley (harold.boley@unb.ca), RuleML, Inc.
+Adrian Paschke (paschke@inf.fu-berlin.de), RuleML, Inc.
+Adam Wyner (a.z.wyner@swansea.ac.uk), Individual</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/xsd-schema/</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/relaxng/</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/xslt/</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/examples/</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/legalruleml-core-spec-v1.0-cs01.zip</t>
+  </si>
+  <si>
+    <t>OASIS LegalRuleML TC</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/legalruleml/</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/ballot.php?id=3204</t>
+  </si>
+  <si>
+    <t>[LegalRuleML-Core-v1.0]</t>
+  </si>
+  <si>
+    <t>LegalRuleML Core Specification Version 1.0. Edited by Monica Palmirani, Guido Governatori, Tara Athan, Harold Boley, Adrian Paschke, and Adam Wyner. 08 May 2018. OASIS Committee Specification 01. http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/cs01/legalruleml-core-spec-v1.0-cs01.html. Latest version: http://docs.oasis-open.org/legalruleml/legalruleml-core-spec/v1.0/legalruleml-core-spec-v1.0.html.</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs02/mqtt-v5.0-cs02.html</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs02/mqtt-v5.0-cs02.pdf</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs02/mqtt-v5.0-cs02.docx</t>
+  </si>
+  <si>
+    <t>MQTT is a Client Server publish/subscribe messaging transport protocol. It is light weight, open, simple, and designed to be easy to implement. These characteristics make it ideal for use in many situations, including constrained environments such as for communication in Machine to Machine (M2M) and Internet of Things (IoT) contexts where a small code footprint is required and/or network bandwidth is at a premium.
+The protocol runs over TCP/IP, or over other network protocols that provide ordered, lossless, bi-directional connections. Its features include:
+·         Use of the publish/subscribe message pattern which provides one-to-many message distribution and decoupling of applications.
+·         A messaging transport that is agnostic to the content of the payload.
+·         Three qualities of service for message delivery:
+o    "At most once", where messages are delivered according to the best efforts of the operating environment. Message loss can occur. This level could be used, for example, with ambient sensor data where it does not matter if an individual reading is lost as the next one will be published soon after.
+o    "At least once", where messages are assured to arrive but duplicates can occur.
+o    "Exactly once", where messages are assured to arrive exactly once. This level could be used, for example, with billing systems where duplicate or lost messages could lead to incorrect charges being applied.
+·         A small transport overhead and protocol exchanges minimized to reduce network traffic.
+·         A mechanism to notify interested parties when an abnormal disconnection occurs.</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs02/mqtt-v5.0-cs02.zip</t>
+  </si>
+  <si>
+    <t>https://www.oasis-open.org/committees/ballot.php?id=3210</t>
+  </si>
+  <si>
+    <t>MQTT Version 5.0. Edited by Andrew Banks, Ed Briggs, Ken Borgendale, and Rahul Gupta. 15 May 2018. OASIS Committee Specification 02. http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs02/mqtt-v5.0-cs02.html. Latest version: http://docs.oasis-open.org/mqtt/mqtt/v5.0/mqtt-v5.0.html.</t>
+  </si>
+  <si>
+    <t>MQTT Version 5.0. Edited by Andrew Banks, Ed Briggs, Ken Borgendale, and Rahul Gupta. 25 December 2017. OASIS Committee Specification 01. http://docs.oasis-open.org/mqtt/mqtt/v5.0/cs01/mqtt-v5.0-cs01.html. Latest version: http://docs.oasis-open.org/mqtt/mqtt/v5.0/mqtt-v5.0.html.</t>
+  </si>
+  <si>
+    <t>Integrated Collaboration Object Model (ICOM) for Interoperable Collaboration Services Version 1.0. 31 January 2013. OASIS Committee Specification 01.
+http://docs.oasis-open.org/icom/icom-ics/v1.0/cs01/icom-ics-v1.0-cs01.html.</t>
+  </si>
+  <si>
+    <t>[EBMS3-ADVANCED]</t>
+  </si>
+  <si>
+    <t>OASIS ebXML Messaging Services Version 3.0: Part 2, Advanced Features. 19 May 2011. OASIS Committee Specification 01. http://docs.oasis-open.org/ebxml-msg/ebms/v3.0/part2/201004/cs01/ebms-v3.0-part2-cs01.odt.</t>
+  </si>
+  <si>
+    <t>Juan Carlos Cruellas, Centre d'aplicacions avanades d'Internet, &lt;cruellas@ac.upc.ede&gt;
+Stefan Drees, Individual Member, &lt;stefan@drees.name&gt;</t>
   </si>
 </sst>
 </file>
@@ -9243,7 +9417,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9438,6 +9612,7 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="37">
@@ -9758,10 +9933,10 @@
   <dimension ref="A1:AF1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F277" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F289" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C279" sqref="C279"/>
+      <selection pane="bottomRight" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16678,7 +16853,7 @@
       <c r="D112" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="E112" s="82"/>
+      <c r="E112" s="83"/>
       <c r="F112" s="7" t="s">
         <v>3</v>
       </c>
@@ -16754,7 +16929,7 @@
       <c r="D113" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E113" s="82"/>
+      <c r="E113" s="83"/>
       <c r="F113" s="7" t="s">
         <v>2</v>
       </c>
@@ -16824,7 +16999,7 @@
       <c r="D114" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E114" s="82"/>
+      <c r="E114" s="83"/>
       <c r="F114" s="7" t="s">
         <v>23</v>
       </c>
@@ -28332,7 +28507,7 @@
       <c r="B278" s="62" t="s">
         <v>2453</v>
       </c>
-      <c r="C278" s="28" t="s">
+      <c r="C278" s="71" t="s">
         <v>1023</v>
       </c>
       <c r="D278" s="39" t="s">
@@ -28395,153 +28570,1034 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="279" spans="1:31">
-      <c r="C279" s="4"/>
-      <c r="D279" s="22"/>
-      <c r="E279" s="82"/>
-      <c r="F279" s="6"/>
-    </row>
-    <row r="280" spans="1:31">
-      <c r="C280" s="4"/>
-      <c r="D280" s="22"/>
-      <c r="E280" s="82"/>
-      <c r="F280" s="6"/>
-    </row>
-    <row r="281" spans="1:31">
-      <c r="C281" s="4"/>
-      <c r="D281" s="22"/>
-      <c r="E281" s="82"/>
-      <c r="F281" s="6"/>
-    </row>
-    <row r="282" spans="1:31">
-      <c r="E282" s="82"/>
-      <c r="F282" s="6"/>
-    </row>
-    <row r="283" spans="1:31">
-      <c r="C283" s="2"/>
-      <c r="D283" s="20"/>
-      <c r="E283" s="82"/>
-      <c r="F283" s="6"/>
-    </row>
-    <row r="284" spans="1:31">
-      <c r="C284" s="4"/>
-      <c r="D284" s="22"/>
-      <c r="E284" s="82"/>
-      <c r="F284" s="6"/>
-    </row>
-    <row r="285" spans="1:31">
-      <c r="C285" s="4"/>
-      <c r="D285" s="22"/>
-      <c r="E285" s="82"/>
-      <c r="F285" s="6"/>
-    </row>
-    <row r="286" spans="1:31">
-      <c r="C286" s="4"/>
-      <c r="D286" s="22"/>
-      <c r="E286" s="82"/>
-      <c r="F286" s="6"/>
-    </row>
-    <row r="287" spans="1:31">
-      <c r="E287" s="82"/>
-      <c r="F287" s="6"/>
-    </row>
-    <row r="288" spans="1:31">
-      <c r="C288" s="2"/>
-      <c r="D288" s="20"/>
-      <c r="E288" s="82"/>
-      <c r="F288" s="6"/>
-    </row>
-    <row r="289" spans="3:7">
-      <c r="C289" s="2"/>
-      <c r="D289" s="20"/>
-      <c r="E289" s="82"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="13"/>
-    </row>
-    <row r="290" spans="3:7">
-      <c r="E290" s="82"/>
-      <c r="F290" s="6"/>
-    </row>
-    <row r="291" spans="3:7">
-      <c r="C291" s="2"/>
-      <c r="D291" s="20"/>
-      <c r="E291" s="82"/>
-      <c r="F291" s="6"/>
+    <row r="279" spans="1:31" s="7" customFormat="1" ht="136">
+      <c r="A279" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B279" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C279" s="71" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D279" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G279" s="10" t="s">
+        <v>2697</v>
+      </c>
+      <c r="H279" s="10" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I279" s="10" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J279" s="8"/>
+      <c r="K279" s="70">
+        <v>43628</v>
+      </c>
+      <c r="L279" s="8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="M279" s="8" t="s">
+        <v>2701</v>
+      </c>
+      <c r="N279" s="8" t="s">
+        <v>2702</v>
+      </c>
+      <c r="O279" s="8"/>
+      <c r="P279" s="8"/>
+      <c r="Q279" s="8"/>
+      <c r="R279" s="8"/>
+      <c r="S279" s="8"/>
+      <c r="T279" s="10" t="s">
+        <v>2703</v>
+      </c>
+      <c r="U279" s="8"/>
+      <c r="V279" s="8"/>
+      <c r="W279" s="8"/>
+      <c r="X279" s="8"/>
+      <c r="Y279" s="7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="Z279" s="11" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AA279" s="79">
+        <v>43628</v>
+      </c>
+      <c r="AB279" s="11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="AD279" s="7" t="s">
+        <v>2707</v>
+      </c>
+      <c r="AE279" s="7" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" s="7" customFormat="1" ht="136">
+      <c r="A280" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B280" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C280" s="71" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D280" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G280" s="10" t="s">
+        <v>2710</v>
+      </c>
+      <c r="H280" s="10" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I280" s="10" t="s">
+        <v>2712</v>
+      </c>
+      <c r="J280" s="8"/>
+      <c r="K280" s="70">
+        <v>43628</v>
+      </c>
+      <c r="L280" s="8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="M280" s="8" t="s">
+        <v>2701</v>
+      </c>
+      <c r="N280" s="8" t="s">
+        <v>2713</v>
+      </c>
+      <c r="O280" s="8"/>
+      <c r="P280" s="8"/>
+      <c r="Q280" s="8"/>
+      <c r="R280" s="8"/>
+      <c r="S280" s="8"/>
+      <c r="T280" s="10" t="s">
+        <v>2714</v>
+      </c>
+      <c r="U280" s="8"/>
+      <c r="V280" s="8"/>
+      <c r="W280" s="8"/>
+      <c r="X280" s="8"/>
+      <c r="Y280" s="7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="Z280" s="11" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AA280" s="79">
+        <v>43628</v>
+      </c>
+      <c r="AB280" s="11" t="s">
+        <v>2706</v>
+      </c>
+      <c r="AD280" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AE280" s="8" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" s="7" customFormat="1" ht="323">
+      <c r="A281" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B281" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C281" s="71" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D281" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G281" s="10" t="s">
+        <v>2718</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="I281" s="10" t="s">
+        <v>2720</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K281" s="70">
+        <v>43228</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="M281" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="N281" s="8" t="s">
+        <v>2724</v>
+      </c>
+      <c r="O281" s="10" t="s">
+        <v>2727</v>
+      </c>
+      <c r="P281" s="8"/>
+      <c r="Q281" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="R281" s="8"/>
+      <c r="S281" s="10" t="s">
+        <v>2728</v>
+      </c>
+      <c r="T281" s="10" t="s">
+        <v>2729</v>
+      </c>
+      <c r="U281" s="8"/>
+      <c r="V281" s="8"/>
+      <c r="W281" s="10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="X281" s="8"/>
+      <c r="Y281" s="7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="Z281" s="11" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AA281" s="79">
+        <v>43228</v>
+      </c>
+      <c r="AB281" s="11" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AD281" s="7" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AE281" s="7" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" s="7" customFormat="1" ht="356">
+      <c r="A282" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B282" s="62" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C282" s="71" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D282" s="39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282" s="10" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="I282" s="10" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J282" s="8"/>
+      <c r="K282" s="70">
+        <v>43235</v>
+      </c>
+      <c r="L282" s="8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M282" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N282" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O282" s="8"/>
+      <c r="P282" s="8"/>
+      <c r="Q282" s="8"/>
+      <c r="R282" s="8"/>
+      <c r="S282" s="8"/>
+      <c r="T282" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="U282" s="8"/>
+      <c r="V282" s="8"/>
+      <c r="W282" s="8"/>
+      <c r="X282" s="8"/>
+      <c r="Y282" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z282" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA282" s="79">
+        <v>43235</v>
+      </c>
+      <c r="AB282" s="11" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AD282" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AE282" s="7" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" s="7" customFormat="1" ht="356">
+      <c r="A283" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B283" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C283" s="71" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D283" s="39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E283" s="11"/>
+      <c r="F283" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G283" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I283" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J283" s="8"/>
+      <c r="K283" s="70">
+        <v>43094</v>
+      </c>
+      <c r="L283" s="8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M283" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N283" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O283" s="8"/>
+      <c r="P283" s="8"/>
+      <c r="Q283" s="8"/>
+      <c r="R283" s="8"/>
+      <c r="S283" s="8"/>
+      <c r="T283" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="U283" s="8"/>
+      <c r="V283" s="8"/>
+      <c r="W283" s="8"/>
+      <c r="X283" s="8"/>
+      <c r="Y283" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Z283" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA283" s="79">
+        <v>43094</v>
+      </c>
+      <c r="AB283" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AD283" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AE283" s="7" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" s="7" customFormat="1" ht="409.6">
+      <c r="A284" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B284" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C284" s="71" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D284" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G284" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H284" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I284" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J284" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K284" s="70">
+        <v>41305</v>
+      </c>
+      <c r="L284" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M284" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N284" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O284" s="8"/>
+      <c r="P284" s="8"/>
+      <c r="Q284" s="8"/>
+      <c r="R284" s="8"/>
+      <c r="S284" s="8"/>
+      <c r="T284" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U284" s="8"/>
+      <c r="V284" s="8"/>
+      <c r="W284" s="8"/>
+      <c r="X284" s="8"/>
+      <c r="Y284" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA284" s="79">
+        <v>41305</v>
+      </c>
+      <c r="AB284" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD284" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AE284" s="8" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" s="7" customFormat="1" ht="153">
+      <c r="A285" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B285" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C285" s="71" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D285" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G285" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H285" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I285" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J285" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K285" s="70">
+        <v>40494</v>
+      </c>
+      <c r="L285" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M285" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N285" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O285" s="8"/>
+      <c r="P285" s="8"/>
+      <c r="Q285" s="8"/>
+      <c r="R285" s="8"/>
+      <c r="S285" s="8"/>
+      <c r="T285" s="8"/>
+      <c r="U285" s="8"/>
+      <c r="V285" s="8"/>
+      <c r="W285" s="8"/>
+      <c r="X285" s="8"/>
+      <c r="Y285" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z285" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="AA285" s="79">
+        <v>40493</v>
+      </c>
+      <c r="AB285" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AD285" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AE285" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" s="7" customFormat="1" ht="255">
+      <c r="A286" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B286" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C286" s="71" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D286" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E286" s="11"/>
+      <c r="F286" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G286" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H286" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I286" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J286" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K286" s="70">
+        <v>40449</v>
+      </c>
+      <c r="L286" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="M286" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N286" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O286" s="8"/>
+      <c r="P286" s="8"/>
+      <c r="Q286" s="8"/>
+      <c r="R286" s="8"/>
+      <c r="S286" s="8"/>
+      <c r="T286" s="8"/>
+      <c r="U286" s="8"/>
+      <c r="V286" s="8"/>
+      <c r="W286" s="8"/>
+      <c r="X286" s="8"/>
+      <c r="Y286" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z286" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA286" s="79">
+        <v>40445</v>
+      </c>
+      <c r="AB286" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AD286" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AE286" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A287" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B287" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D287" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G287" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H287" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I287" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J287" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K287" s="70">
+        <v>40682</v>
+      </c>
+      <c r="L287" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M287" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N287" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O287" s="8"/>
+      <c r="P287" s="8"/>
+      <c r="Q287" s="8"/>
+      <c r="R287" s="8"/>
+      <c r="S287" s="8"/>
+      <c r="T287" s="8"/>
+      <c r="U287" s="8"/>
+      <c r="V287" s="8"/>
+      <c r="W287" s="8"/>
+      <c r="X287" s="8"/>
+      <c r="Y287" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z287" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AA287" s="79">
+        <v>40682</v>
+      </c>
+      <c r="AB287" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AD287" s="7" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AE287" s="7" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A288" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B288" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C288" s="28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D288" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G288" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H288" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I288" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J288" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K288" s="70">
+        <v>40682</v>
+      </c>
+      <c r="L288" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M288" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N288" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O288" s="8"/>
+      <c r="P288" s="8"/>
+      <c r="Q288" s="8"/>
+      <c r="R288" s="8"/>
+      <c r="S288" s="8"/>
+      <c r="T288" s="8"/>
+      <c r="U288" s="8"/>
+      <c r="V288" s="8"/>
+      <c r="W288" s="8"/>
+      <c r="X288" s="8"/>
+      <c r="Y288" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z288" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AA288" s="79">
+        <v>40682</v>
+      </c>
+      <c r="AB288" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AD288" s="7" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AE288" s="7" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" s="7" customFormat="1" ht="153">
+      <c r="A289" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B289" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C289" s="28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D289" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G289" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H289" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I289" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J289" s="8"/>
+      <c r="K289" s="70">
+        <v>39752</v>
+      </c>
+      <c r="L289" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M289" s="8" t="s">
+        <v>2746</v>
+      </c>
+      <c r="N289" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O289" s="8"/>
+      <c r="P289" s="8"/>
+      <c r="Q289" s="8"/>
+      <c r="R289" s="8"/>
+      <c r="S289" s="8"/>
+      <c r="T289" s="8"/>
+      <c r="U289" s="8"/>
+      <c r="V289" s="8"/>
+      <c r="W289" s="8"/>
+      <c r="X289" s="8"/>
+      <c r="Y289" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="Z289" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="AA289" s="79">
+        <v>39751</v>
+      </c>
+      <c r="AB289" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AD289" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AE289" s="7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" s="7" customFormat="1" ht="119">
+      <c r="A290" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D290" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G290" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H290" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I290" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J290" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K290" s="70">
+        <v>42261</v>
+      </c>
+      <c r="L290" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M290" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="N290" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="O290" s="8"/>
+      <c r="P290" s="8"/>
+      <c r="Q290" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R290" s="8"/>
+      <c r="S290" s="8"/>
+      <c r="T290" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U290" s="8"/>
+      <c r="V290" s="8"/>
+      <c r="W290" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X290" s="8"/>
+      <c r="Y290" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z290" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA290" s="79">
+        <v>42261</v>
+      </c>
+      <c r="AB290" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="AD290" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AE290" s="7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" s="7" customFormat="1">
+      <c r="B291" s="26"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="39"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
       <c r="G291" s="10"/>
-    </row>
-    <row r="292" spans="3:7">
-      <c r="C292" s="4"/>
-      <c r="D292" s="22"/>
-      <c r="E292" s="82"/>
-      <c r="F292" s="6"/>
-    </row>
-    <row r="293" spans="3:7">
-      <c r="C293" s="4"/>
-      <c r="D293" s="22"/>
-      <c r="E293" s="82"/>
-      <c r="F293" s="6"/>
-    </row>
-    <row r="294" spans="3:7">
-      <c r="E294" s="82"/>
-      <c r="F294" s="6"/>
-    </row>
-    <row r="295" spans="3:7">
-      <c r="C295" s="2"/>
-      <c r="D295" s="20"/>
-      <c r="E295" s="82"/>
-      <c r="F295" s="6"/>
-    </row>
-    <row r="296" spans="3:7">
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+      <c r="J291" s="8"/>
+      <c r="K291" s="8"/>
+      <c r="L291" s="8"/>
+      <c r="M291" s="8"/>
+      <c r="N291" s="8"/>
+      <c r="O291" s="8"/>
+      <c r="P291" s="8"/>
+      <c r="Q291" s="8"/>
+      <c r="R291" s="8"/>
+      <c r="S291" s="8"/>
+      <c r="T291" s="8"/>
+      <c r="U291" s="8"/>
+      <c r="V291" s="8"/>
+      <c r="W291" s="8"/>
+      <c r="X291" s="8"/>
+    </row>
+    <row r="292" spans="1:31" s="7" customFormat="1">
+      <c r="B292" s="26"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="39"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+      <c r="J292" s="8"/>
+      <c r="K292" s="8"/>
+      <c r="L292" s="8"/>
+      <c r="M292" s="8"/>
+      <c r="N292" s="8"/>
+      <c r="O292" s="8"/>
+      <c r="P292" s="8"/>
+      <c r="Q292" s="8"/>
+      <c r="R292" s="8"/>
+      <c r="S292" s="8"/>
+      <c r="T292" s="8"/>
+      <c r="U292" s="8"/>
+      <c r="V292" s="8"/>
+      <c r="W292" s="8"/>
+      <c r="X292" s="8"/>
+    </row>
+    <row r="293" spans="1:31" s="7" customFormat="1">
+      <c r="B293" s="26"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="8"/>
+      <c r="I293" s="8"/>
+      <c r="J293" s="8"/>
+      <c r="K293" s="8"/>
+      <c r="L293" s="8"/>
+      <c r="M293" s="8"/>
+      <c r="N293" s="8"/>
+      <c r="O293" s="8"/>
+      <c r="P293" s="8"/>
+      <c r="Q293" s="8"/>
+      <c r="R293" s="8"/>
+      <c r="S293" s="8"/>
+      <c r="T293" s="8"/>
+      <c r="U293" s="8"/>
+      <c r="V293" s="8"/>
+      <c r="W293" s="8"/>
+      <c r="X293" s="8"/>
+    </row>
+    <row r="294" spans="1:31" s="7" customFormat="1">
+      <c r="B294" s="26"/>
+      <c r="D294" s="19"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+      <c r="J294" s="8"/>
+      <c r="K294" s="8"/>
+      <c r="L294" s="8"/>
+      <c r="M294" s="8"/>
+      <c r="N294" s="8"/>
+      <c r="O294" s="8"/>
+      <c r="P294" s="8"/>
+      <c r="Q294" s="8"/>
+      <c r="R294" s="8"/>
+      <c r="S294" s="8"/>
+      <c r="T294" s="8"/>
+      <c r="U294" s="8"/>
+      <c r="V294" s="8"/>
+      <c r="W294" s="8"/>
+      <c r="X294" s="8"/>
+    </row>
+    <row r="295" spans="1:31" s="7" customFormat="1">
+      <c r="B295" s="26"/>
+      <c r="C295" s="28"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+      <c r="J295" s="8"/>
+      <c r="K295" s="8"/>
+      <c r="L295" s="8"/>
+      <c r="M295" s="8"/>
+      <c r="N295" s="8"/>
+      <c r="O295" s="8"/>
+      <c r="P295" s="8"/>
+      <c r="Q295" s="8"/>
+      <c r="R295" s="8"/>
+      <c r="S295" s="8"/>
+      <c r="T295" s="8"/>
+      <c r="U295" s="8"/>
+      <c r="V295" s="8"/>
+      <c r="W295" s="8"/>
+      <c r="X295" s="8"/>
+    </row>
+    <row r="296" spans="1:31">
       <c r="C296" s="4"/>
       <c r="D296" s="22"/>
       <c r="E296" s="82"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="3:7">
+    <row r="297" spans="1:31">
       <c r="C297" s="4"/>
       <c r="D297" s="22"/>
       <c r="E297" s="82"/>
       <c r="F297" s="6"/>
     </row>
-    <row r="298" spans="3:7">
+    <row r="298" spans="1:31">
       <c r="C298" s="2"/>
       <c r="D298" s="20"/>
       <c r="E298" s="82"/>
       <c r="F298" s="6"/>
       <c r="G298" s="13"/>
     </row>
-    <row r="299" spans="3:7">
+    <row r="299" spans="1:31">
       <c r="C299" s="3"/>
       <c r="D299" s="23"/>
       <c r="E299" s="82"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="3:7">
+    <row r="300" spans="1:31">
       <c r="E300" s="82"/>
       <c r="F300" s="6"/>
       <c r="G300" s="10"/>
     </row>
-    <row r="301" spans="3:7">
+    <row r="301" spans="1:31">
       <c r="C301" s="2"/>
       <c r="D301" s="20"/>
       <c r="E301" s="82"/>
       <c r="F301" s="6"/>
       <c r="G301" s="13"/>
     </row>
-    <row r="302" spans="3:7">
+    <row r="302" spans="1:31">
       <c r="C302" s="2"/>
       <c r="D302" s="20"/>
       <c r="E302" s="82"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="3:7">
+    <row r="303" spans="1:31">
       <c r="C303" s="3"/>
       <c r="D303" s="23"/>
       <c r="E303" s="82"/>
       <c r="F303" s="6"/>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="3:7">
+    <row r="304" spans="1:31">
       <c r="C304" s="2"/>
       <c r="D304" s="20"/>
       <c r="E304" s="82"/>
@@ -28652,29 +29708,29 @@
     <row r="322" spans="3:7">
       <c r="C322" s="2"/>
       <c r="D322" s="20"/>
-      <c r="E322" s="82"/>
+      <c r="E322" s="83"/>
       <c r="F322" s="6"/>
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="3:7">
-      <c r="E323" s="82"/>
+      <c r="E323" s="83"/>
       <c r="F323" s="6"/>
     </row>
     <row r="324" spans="3:7">
       <c r="C324" s="4"/>
       <c r="D324" s="22"/>
-      <c r="E324" s="82"/>
+      <c r="E324" s="83"/>
       <c r="F324" s="6"/>
       <c r="G324" s="10"/>
     </row>
     <row r="325" spans="3:7">
-      <c r="E325" s="82"/>
+      <c r="E325" s="83"/>
       <c r="F325" s="6"/>
     </row>
     <row r="326" spans="3:7">
       <c r="C326" s="4"/>
       <c r="D326" s="22"/>
-      <c r="E326" s="82"/>
+      <c r="E326" s="83"/>
       <c r="F326" s="6"/>
     </row>
     <row r="327" spans="3:7">
@@ -28716,1006 +29772,1006 @@
     <row r="337" spans="3:7">
       <c r="C337" s="2"/>
       <c r="D337" s="20"/>
-      <c r="E337" s="82"/>
+      <c r="E337" s="83"/>
       <c r="F337" s="6"/>
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="3:7">
       <c r="C338" s="4"/>
       <c r="D338" s="22"/>
-      <c r="E338" s="82"/>
+      <c r="E338" s="83"/>
       <c r="F338" s="6"/>
     </row>
     <row r="339" spans="3:7">
       <c r="C339" s="4"/>
       <c r="D339" s="22"/>
-      <c r="E339" s="82"/>
+      <c r="E339" s="83"/>
       <c r="F339" s="6"/>
       <c r="G339" s="10"/>
     </row>
     <row r="340" spans="3:7">
       <c r="C340" s="4"/>
       <c r="D340" s="22"/>
-      <c r="E340" s="82"/>
+      <c r="E340" s="83"/>
       <c r="F340" s="6"/>
     </row>
     <row r="341" spans="3:7">
       <c r="C341" s="4"/>
       <c r="D341" s="22"/>
-      <c r="E341" s="82"/>
+      <c r="E341" s="83"/>
       <c r="F341" s="6"/>
     </row>
     <row r="342" spans="3:7">
       <c r="C342" s="2"/>
       <c r="D342" s="20"/>
-      <c r="E342" s="82"/>
+      <c r="E342" s="83"/>
       <c r="F342" s="6"/>
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="3:7">
-      <c r="E343" s="82"/>
+      <c r="E343" s="83"/>
       <c r="F343" s="6"/>
     </row>
     <row r="344" spans="3:7">
       <c r="C344" s="2"/>
       <c r="D344" s="20"/>
-      <c r="E344" s="82"/>
+      <c r="E344" s="83"/>
       <c r="F344" s="6"/>
       <c r="G344" s="10"/>
     </row>
     <row r="345" spans="3:7">
-      <c r="E345" s="82"/>
+      <c r="E345" s="83"/>
       <c r="F345" s="6"/>
     </row>
     <row r="346" spans="3:7">
       <c r="C346" s="2"/>
       <c r="D346" s="20"/>
-      <c r="E346" s="82"/>
+      <c r="E346" s="83"/>
       <c r="F346" s="6"/>
     </row>
     <row r="347" spans="3:7">
       <c r="C347" s="2"/>
       <c r="D347" s="20"/>
-      <c r="E347" s="82"/>
+      <c r="E347" s="83"/>
       <c r="F347" s="6"/>
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="3:7">
-      <c r="E348" s="82"/>
+      <c r="E348" s="83"/>
       <c r="F348" s="6"/>
     </row>
     <row r="349" spans="3:7">
       <c r="C349" s="4"/>
       <c r="D349" s="22"/>
-      <c r="E349" s="82"/>
+      <c r="E349" s="83"/>
       <c r="F349" s="6"/>
       <c r="G349" s="10"/>
     </row>
     <row r="350" spans="3:7">
       <c r="C350" s="3"/>
       <c r="D350" s="23"/>
-      <c r="E350" s="82"/>
+      <c r="E350" s="83"/>
       <c r="F350" s="6"/>
     </row>
     <row r="351" spans="3:7">
       <c r="C351" s="2"/>
       <c r="D351" s="20"/>
-      <c r="E351" s="82"/>
+      <c r="E351" s="83"/>
       <c r="F351" s="6"/>
     </row>
     <row r="352" spans="3:7">
       <c r="C352" s="4"/>
       <c r="D352" s="22"/>
-      <c r="E352" s="82"/>
+      <c r="E352" s="83"/>
       <c r="F352" s="6"/>
     </row>
     <row r="353" spans="3:7">
       <c r="C353" s="4"/>
       <c r="D353" s="22"/>
-      <c r="E353" s="82"/>
+      <c r="E353" s="83"/>
       <c r="F353" s="6"/>
     </row>
     <row r="354" spans="3:7">
       <c r="C354" s="4"/>
       <c r="D354" s="22"/>
-      <c r="E354" s="82"/>
+      <c r="E354" s="83"/>
       <c r="F354" s="6"/>
     </row>
     <row r="355" spans="3:7">
       <c r="C355" s="4"/>
       <c r="D355" s="22"/>
-      <c r="E355" s="82"/>
+      <c r="E355" s="83"/>
       <c r="F355" s="6"/>
     </row>
     <row r="356" spans="3:7">
       <c r="C356" s="4"/>
       <c r="D356" s="22"/>
-      <c r="E356" s="82"/>
+      <c r="E356" s="83"/>
       <c r="F356" s="6"/>
     </row>
     <row r="357" spans="3:7">
       <c r="C357" s="4"/>
       <c r="D357" s="22"/>
-      <c r="E357" s="82"/>
+      <c r="E357" s="83"/>
       <c r="F357" s="6"/>
     </row>
     <row r="358" spans="3:7">
       <c r="C358" s="4"/>
       <c r="D358" s="22"/>
-      <c r="E358" s="82"/>
+      <c r="E358" s="83"/>
       <c r="F358" s="6"/>
     </row>
     <row r="359" spans="3:7">
       <c r="C359" s="4"/>
       <c r="D359" s="22"/>
-      <c r="E359" s="82"/>
+      <c r="E359" s="83"/>
       <c r="F359" s="6"/>
     </row>
     <row r="360" spans="3:7">
       <c r="C360" s="4"/>
       <c r="D360" s="22"/>
-      <c r="E360" s="82"/>
+      <c r="E360" s="83"/>
       <c r="F360" s="6"/>
     </row>
     <row r="361" spans="3:7">
       <c r="C361" s="4"/>
       <c r="D361" s="22"/>
-      <c r="E361" s="82"/>
+      <c r="E361" s="83"/>
       <c r="F361" s="6"/>
     </row>
     <row r="362" spans="3:7">
       <c r="C362" s="4"/>
       <c r="D362" s="22"/>
-      <c r="E362" s="82"/>
+      <c r="E362" s="83"/>
       <c r="F362" s="6"/>
     </row>
     <row r="363" spans="3:7">
       <c r="C363" s="4"/>
       <c r="D363" s="22"/>
-      <c r="E363" s="82"/>
+      <c r="E363" s="83"/>
       <c r="F363" s="6"/>
     </row>
     <row r="364" spans="3:7">
       <c r="C364" s="4"/>
       <c r="D364" s="22"/>
-      <c r="E364" s="82"/>
+      <c r="E364" s="83"/>
       <c r="F364" s="6"/>
     </row>
     <row r="365" spans="3:7">
       <c r="C365" s="2"/>
       <c r="D365" s="20"/>
-      <c r="E365" s="82"/>
+      <c r="E365" s="83"/>
       <c r="F365" s="6"/>
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="3:7">
-      <c r="E366" s="82"/>
+      <c r="E366" s="83"/>
       <c r="F366" s="6"/>
     </row>
     <row r="367" spans="3:7">
       <c r="C367" s="2"/>
       <c r="D367" s="20"/>
-      <c r="E367" s="82"/>
+      <c r="E367" s="83"/>
       <c r="F367" s="6"/>
       <c r="G367" s="10"/>
     </row>
     <row r="368" spans="3:7">
       <c r="C368" s="4"/>
       <c r="D368" s="22"/>
-      <c r="E368" s="82"/>
+      <c r="E368" s="83"/>
       <c r="F368" s="6"/>
     </row>
     <row r="369" spans="3:7">
       <c r="C369" s="4"/>
       <c r="D369" s="22"/>
-      <c r="E369" s="82"/>
+      <c r="E369" s="83"/>
       <c r="F369" s="6"/>
     </row>
     <row r="370" spans="3:7">
-      <c r="E370" s="82"/>
+      <c r="E370" s="83"/>
       <c r="F370" s="6"/>
     </row>
     <row r="371" spans="3:7">
       <c r="C371" s="2"/>
       <c r="D371" s="20"/>
-      <c r="E371" s="82"/>
+      <c r="E371" s="83"/>
       <c r="F371" s="6"/>
     </row>
     <row r="372" spans="3:7">
       <c r="C372" s="4"/>
       <c r="D372" s="22"/>
-      <c r="E372" s="82"/>
+      <c r="E372" s="83"/>
       <c r="F372" s="6"/>
     </row>
     <row r="373" spans="3:7">
       <c r="C373" s="4"/>
       <c r="D373" s="22"/>
-      <c r="E373" s="82"/>
+      <c r="E373" s="83"/>
       <c r="F373" s="6"/>
     </row>
     <row r="374" spans="3:7">
-      <c r="E374" s="82"/>
+      <c r="E374" s="83"/>
       <c r="F374" s="6"/>
     </row>
     <row r="375" spans="3:7">
       <c r="C375" s="4"/>
       <c r="D375" s="22"/>
-      <c r="E375" s="82"/>
+      <c r="E375" s="83"/>
       <c r="F375" s="6"/>
     </row>
     <row r="376" spans="3:7">
-      <c r="E376" s="82"/>
+      <c r="E376" s="83"/>
       <c r="F376" s="6"/>
     </row>
     <row r="377" spans="3:7">
       <c r="C377" s="4"/>
       <c r="D377" s="22"/>
-      <c r="E377" s="82"/>
+      <c r="E377" s="83"/>
       <c r="F377" s="6"/>
     </row>
     <row r="378" spans="3:7">
-      <c r="E378" s="82"/>
+      <c r="E378" s="83"/>
       <c r="F378" s="6"/>
     </row>
     <row r="379" spans="3:7">
       <c r="C379" s="4"/>
       <c r="D379" s="22"/>
-      <c r="E379" s="82"/>
+      <c r="E379" s="83"/>
       <c r="F379" s="6"/>
     </row>
     <row r="380" spans="3:7">
-      <c r="E380" s="82"/>
+      <c r="E380" s="83"/>
       <c r="F380" s="6"/>
     </row>
     <row r="381" spans="3:7">
       <c r="C381" s="4"/>
       <c r="D381" s="22"/>
-      <c r="E381" s="82"/>
+      <c r="E381" s="83"/>
       <c r="F381" s="6"/>
     </row>
     <row r="382" spans="3:7">
-      <c r="E382" s="82"/>
+      <c r="E382" s="83"/>
       <c r="F382" s="6"/>
     </row>
     <row r="383" spans="3:7">
       <c r="C383" s="4"/>
       <c r="D383" s="22"/>
-      <c r="E383" s="82"/>
+      <c r="E383" s="83"/>
       <c r="F383" s="6"/>
     </row>
     <row r="384" spans="3:7">
       <c r="C384" s="2"/>
       <c r="D384" s="20"/>
-      <c r="E384" s="82"/>
+      <c r="E384" s="83"/>
       <c r="F384" s="6"/>
       <c r="G384" s="13"/>
     </row>
     <row r="385" spans="3:7">
-      <c r="E385" s="82"/>
+      <c r="E385" s="83"/>
       <c r="F385" s="6"/>
     </row>
     <row r="386" spans="3:7">
       <c r="C386" s="4"/>
       <c r="D386" s="22"/>
-      <c r="E386" s="82"/>
+      <c r="E386" s="83"/>
       <c r="F386" s="6"/>
       <c r="G386" s="10"/>
     </row>
     <row r="387" spans="3:7">
-      <c r="E387" s="82"/>
+      <c r="E387" s="83"/>
       <c r="F387" s="6"/>
     </row>
     <row r="388" spans="3:7">
-      <c r="E388" s="82"/>
+      <c r="E388" s="83"/>
       <c r="F388" s="6"/>
       <c r="G388" s="10"/>
     </row>
     <row r="389" spans="3:7">
       <c r="C389" s="2"/>
       <c r="D389" s="20"/>
-      <c r="E389" s="82"/>
+      <c r="E389" s="83"/>
       <c r="F389" s="6"/>
       <c r="G389" s="13"/>
     </row>
     <row r="390" spans="3:7">
-      <c r="E390" s="82"/>
+      <c r="E390" s="83"/>
       <c r="F390" s="6"/>
     </row>
     <row r="391" spans="3:7">
       <c r="C391" s="4"/>
       <c r="D391" s="22"/>
-      <c r="E391" s="82"/>
+      <c r="E391" s="83"/>
       <c r="F391" s="6"/>
       <c r="G391" s="10"/>
     </row>
     <row r="392" spans="3:7">
       <c r="C392" s="4"/>
       <c r="D392" s="22"/>
-      <c r="E392" s="82"/>
+      <c r="E392" s="83"/>
       <c r="F392" s="6"/>
     </row>
     <row r="393" spans="3:7">
       <c r="C393" s="4"/>
       <c r="D393" s="22"/>
-      <c r="E393" s="82"/>
+      <c r="E393" s="83"/>
       <c r="F393" s="6"/>
     </row>
     <row r="394" spans="3:7">
       <c r="C394" s="4"/>
       <c r="D394" s="22"/>
-      <c r="E394" s="82"/>
+      <c r="E394" s="83"/>
       <c r="F394" s="6"/>
     </row>
     <row r="395" spans="3:7">
       <c r="C395" s="2"/>
       <c r="D395" s="20"/>
-      <c r="E395" s="82"/>
+      <c r="E395" s="83"/>
       <c r="F395" s="6"/>
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="3:7">
-      <c r="E396" s="82"/>
+      <c r="E396" s="83"/>
       <c r="F396" s="6"/>
     </row>
     <row r="397" spans="3:7">
       <c r="C397" s="4"/>
       <c r="D397" s="22"/>
-      <c r="E397" s="82"/>
+      <c r="E397" s="83"/>
       <c r="F397" s="6"/>
       <c r="G397" s="10"/>
     </row>
     <row r="398" spans="3:7">
-      <c r="E398" s="82"/>
+      <c r="E398" s="83"/>
       <c r="F398" s="6"/>
     </row>
     <row r="399" spans="3:7">
       <c r="C399" s="4"/>
       <c r="D399" s="22"/>
-      <c r="E399" s="82"/>
+      <c r="E399" s="83"/>
       <c r="F399" s="6"/>
     </row>
     <row r="400" spans="3:7">
       <c r="C400" s="2"/>
       <c r="D400" s="20"/>
-      <c r="E400" s="82"/>
+      <c r="E400" s="83"/>
       <c r="F400" s="6"/>
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="3:7">
-      <c r="E401" s="82"/>
+      <c r="E401" s="83"/>
       <c r="F401" s="6"/>
     </row>
     <row r="402" spans="3:7">
       <c r="C402" s="2"/>
       <c r="D402" s="20"/>
-      <c r="E402" s="82"/>
+      <c r="E402" s="83"/>
       <c r="F402" s="6"/>
       <c r="G402" s="10"/>
     </row>
     <row r="403" spans="3:7">
-      <c r="E403" s="82"/>
+      <c r="E403" s="83"/>
       <c r="F403" s="6"/>
     </row>
     <row r="404" spans="3:7">
       <c r="C404" s="2"/>
       <c r="D404" s="20"/>
-      <c r="E404" s="82"/>
+      <c r="E404" s="83"/>
       <c r="F404" s="6"/>
     </row>
     <row r="405" spans="3:7">
       <c r="C405" s="4"/>
       <c r="D405" s="22"/>
-      <c r="E405" s="82"/>
+      <c r="E405" s="83"/>
       <c r="F405" s="6"/>
     </row>
     <row r="406" spans="3:7">
       <c r="C406" s="4"/>
       <c r="D406" s="22"/>
-      <c r="E406" s="82"/>
+      <c r="E406" s="83"/>
       <c r="F406" s="6"/>
     </row>
     <row r="407" spans="3:7">
       <c r="C407" s="4"/>
       <c r="D407" s="22"/>
-      <c r="E407" s="82"/>
+      <c r="E407" s="83"/>
       <c r="F407" s="6"/>
     </row>
     <row r="408" spans="3:7">
-      <c r="E408" s="82"/>
+      <c r="E408" s="83"/>
       <c r="F408" s="6"/>
     </row>
     <row r="409" spans="3:7">
       <c r="C409" s="2"/>
       <c r="D409" s="20"/>
-      <c r="E409" s="82"/>
+      <c r="E409" s="83"/>
       <c r="F409" s="6"/>
     </row>
     <row r="410" spans="3:7">
       <c r="C410" s="4"/>
       <c r="D410" s="22"/>
-      <c r="E410" s="82"/>
+      <c r="E410" s="83"/>
       <c r="F410" s="6"/>
     </row>
     <row r="411" spans="3:7">
       <c r="C411" s="4"/>
       <c r="D411" s="22"/>
-      <c r="E411" s="82"/>
+      <c r="E411" s="83"/>
       <c r="F411" s="6"/>
     </row>
     <row r="412" spans="3:7">
       <c r="C412" s="4"/>
       <c r="D412" s="22"/>
-      <c r="E412" s="82"/>
+      <c r="E412" s="83"/>
       <c r="F412" s="6"/>
     </row>
     <row r="413" spans="3:7">
-      <c r="E413" s="82"/>
+      <c r="E413" s="83"/>
       <c r="F413" s="6"/>
     </row>
     <row r="414" spans="3:7">
       <c r="C414" s="2"/>
       <c r="D414" s="20"/>
-      <c r="E414" s="82"/>
+      <c r="E414" s="83"/>
       <c r="F414" s="6"/>
     </row>
     <row r="415" spans="3:7">
       <c r="C415" s="4"/>
       <c r="D415" s="22"/>
-      <c r="E415" s="82"/>
+      <c r="E415" s="83"/>
       <c r="F415" s="6"/>
     </row>
     <row r="416" spans="3:7">
       <c r="C416" s="4"/>
       <c r="D416" s="22"/>
-      <c r="E416" s="82"/>
+      <c r="E416" s="83"/>
       <c r="F416" s="6"/>
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="4"/>
       <c r="D417" s="22"/>
-      <c r="E417" s="82"/>
+      <c r="E417" s="83"/>
       <c r="F417" s="6"/>
     </row>
     <row r="418" spans="3:7">
-      <c r="E418" s="82"/>
+      <c r="E418" s="83"/>
       <c r="F418" s="6"/>
     </row>
     <row r="419" spans="3:7">
       <c r="C419" s="4"/>
       <c r="D419" s="22"/>
-      <c r="E419" s="82"/>
+      <c r="E419" s="83"/>
       <c r="F419" s="6"/>
     </row>
     <row r="420" spans="3:7">
       <c r="C420" s="4"/>
       <c r="D420" s="22"/>
-      <c r="E420" s="82"/>
+      <c r="E420" s="83"/>
       <c r="F420" s="6"/>
     </row>
     <row r="421" spans="3:7">
       <c r="C421" s="4"/>
       <c r="D421" s="22"/>
-      <c r="E421" s="82"/>
+      <c r="E421" s="83"/>
       <c r="F421" s="6"/>
     </row>
     <row r="422" spans="3:7">
       <c r="C422" s="4"/>
       <c r="D422" s="22"/>
-      <c r="E422" s="82"/>
+      <c r="E422" s="83"/>
       <c r="F422" s="6"/>
     </row>
     <row r="423" spans="3:7">
-      <c r="E423" s="82"/>
+      <c r="E423" s="83"/>
       <c r="F423" s="6"/>
     </row>
     <row r="424" spans="3:7">
       <c r="C424" s="2"/>
       <c r="D424" s="20"/>
-      <c r="E424" s="82"/>
+      <c r="E424" s="83"/>
       <c r="F424" s="6"/>
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="3:7">
-      <c r="E425" s="82"/>
+      <c r="E425" s="83"/>
       <c r="F425" s="6"/>
     </row>
     <row r="426" spans="3:7">
       <c r="C426" s="4"/>
       <c r="D426" s="22"/>
-      <c r="E426" s="82"/>
+      <c r="E426" s="83"/>
       <c r="F426" s="6"/>
       <c r="G426" s="10"/>
     </row>
     <row r="427" spans="3:7">
       <c r="C427" s="2"/>
       <c r="D427" s="20"/>
-      <c r="E427" s="82"/>
+      <c r="E427" s="83"/>
       <c r="F427" s="6"/>
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="3:7">
-      <c r="E428" s="82"/>
+      <c r="E428" s="83"/>
       <c r="F428" s="6"/>
     </row>
     <row r="429" spans="3:7">
       <c r="C429" s="4"/>
       <c r="D429" s="22"/>
-      <c r="E429" s="82"/>
+      <c r="E429" s="83"/>
       <c r="F429" s="6"/>
       <c r="G429" s="10"/>
     </row>
     <row r="430" spans="3:7">
       <c r="C430" s="4"/>
       <c r="D430" s="22"/>
-      <c r="E430" s="82"/>
+      <c r="E430" s="83"/>
       <c r="F430" s="6"/>
     </row>
     <row r="431" spans="3:7">
       <c r="C431" s="2"/>
       <c r="D431" s="20"/>
-      <c r="E431" s="82"/>
+      <c r="E431" s="83"/>
       <c r="F431" s="6"/>
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="3:7">
-      <c r="E432" s="82"/>
+      <c r="E432" s="83"/>
       <c r="F432" s="6"/>
     </row>
     <row r="433" spans="3:7">
       <c r="C433" s="4"/>
       <c r="D433" s="22"/>
-      <c r="E433" s="82"/>
+      <c r="E433" s="83"/>
       <c r="F433" s="6"/>
       <c r="G433" s="10"/>
     </row>
     <row r="434" spans="3:7">
       <c r="C434" s="2"/>
       <c r="D434" s="20"/>
-      <c r="E434" s="82"/>
+      <c r="E434" s="83"/>
       <c r="F434" s="6"/>
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="3:7">
-      <c r="E435" s="82"/>
+      <c r="E435" s="83"/>
       <c r="F435" s="6"/>
     </row>
     <row r="436" spans="3:7">
       <c r="C436" s="4"/>
       <c r="D436" s="22"/>
-      <c r="E436" s="82"/>
+      <c r="E436" s="83"/>
       <c r="F436" s="6"/>
       <c r="G436" s="10"/>
     </row>
     <row r="437" spans="3:7">
-      <c r="E437" s="82"/>
+      <c r="E437" s="83"/>
       <c r="F437" s="6"/>
     </row>
     <row r="438" spans="3:7">
       <c r="C438" s="2"/>
       <c r="D438" s="20"/>
-      <c r="E438" s="82"/>
+      <c r="E438" s="83"/>
       <c r="F438" s="6"/>
     </row>
     <row r="439" spans="3:7">
       <c r="C439" s="4"/>
       <c r="D439" s="22"/>
-      <c r="E439" s="82"/>
+      <c r="E439" s="83"/>
       <c r="F439" s="6"/>
     </row>
     <row r="440" spans="3:7">
       <c r="C440" s="4"/>
       <c r="D440" s="22"/>
-      <c r="E440" s="82"/>
+      <c r="E440" s="83"/>
       <c r="F440" s="6"/>
     </row>
     <row r="441" spans="3:7">
       <c r="C441" s="4"/>
       <c r="D441" s="22"/>
-      <c r="E441" s="82"/>
+      <c r="E441" s="83"/>
       <c r="F441" s="6"/>
     </row>
     <row r="442" spans="3:7">
       <c r="C442" s="4"/>
       <c r="D442" s="22"/>
-      <c r="E442" s="82"/>
+      <c r="E442" s="83"/>
       <c r="F442" s="6"/>
     </row>
     <row r="443" spans="3:7">
       <c r="C443" s="4"/>
       <c r="D443" s="22"/>
-      <c r="E443" s="82"/>
+      <c r="E443" s="83"/>
       <c r="F443" s="6"/>
     </row>
     <row r="444" spans="3:7">
       <c r="C444" s="4"/>
       <c r="D444" s="22"/>
-      <c r="E444" s="82"/>
+      <c r="E444" s="83"/>
       <c r="F444" s="6"/>
     </row>
     <row r="445" spans="3:7">
       <c r="C445" s="4"/>
       <c r="D445" s="22"/>
-      <c r="E445" s="82"/>
+      <c r="E445" s="83"/>
       <c r="F445" s="6"/>
     </row>
     <row r="446" spans="3:7">
       <c r="C446" s="2"/>
       <c r="D446" s="20"/>
-      <c r="E446" s="82"/>
+      <c r="E446" s="83"/>
       <c r="F446" s="6"/>
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="3:7">
-      <c r="E447" s="82"/>
+      <c r="E447" s="83"/>
       <c r="F447" s="6"/>
     </row>
     <row r="448" spans="3:7">
       <c r="C448" s="2"/>
       <c r="D448" s="20"/>
-      <c r="E448" s="82"/>
+      <c r="E448" s="83"/>
       <c r="F448" s="6"/>
       <c r="G448" s="10"/>
     </row>
     <row r="449" spans="3:7">
       <c r="C449" s="4"/>
       <c r="D449" s="22"/>
-      <c r="E449" s="82"/>
+      <c r="E449" s="83"/>
       <c r="F449" s="6"/>
     </row>
     <row r="450" spans="3:7">
       <c r="C450" s="4"/>
       <c r="D450" s="22"/>
-      <c r="E450" s="82"/>
+      <c r="E450" s="83"/>
       <c r="F450" s="6"/>
     </row>
     <row r="451" spans="3:7">
       <c r="C451" s="4"/>
       <c r="D451" s="22"/>
-      <c r="E451" s="82"/>
+      <c r="E451" s="83"/>
       <c r="F451" s="6"/>
     </row>
     <row r="452" spans="3:7">
       <c r="C452" s="2"/>
       <c r="D452" s="20"/>
-      <c r="E452" s="82"/>
+      <c r="E452" s="83"/>
       <c r="F452" s="6"/>
     </row>
     <row r="453" spans="3:7">
       <c r="C453" s="4"/>
       <c r="D453" s="22"/>
-      <c r="E453" s="82"/>
+      <c r="E453" s="83"/>
       <c r="F453" s="6"/>
     </row>
     <row r="454" spans="3:7">
       <c r="C454" s="4"/>
       <c r="D454" s="22"/>
-      <c r="E454" s="82"/>
+      <c r="E454" s="83"/>
       <c r="F454" s="6"/>
     </row>
     <row r="455" spans="3:7">
       <c r="C455" s="4"/>
       <c r="D455" s="22"/>
-      <c r="E455" s="82"/>
+      <c r="E455" s="83"/>
       <c r="F455" s="6"/>
     </row>
     <row r="456" spans="3:7">
       <c r="C456" s="2"/>
       <c r="D456" s="20"/>
-      <c r="E456" s="82"/>
+      <c r="E456" s="83"/>
       <c r="F456" s="6"/>
     </row>
     <row r="457" spans="3:7">
       <c r="C457" s="4"/>
       <c r="D457" s="22"/>
-      <c r="E457" s="82"/>
+      <c r="E457" s="83"/>
       <c r="F457" s="6"/>
     </row>
     <row r="458" spans="3:7">
       <c r="C458" s="4"/>
       <c r="D458" s="22"/>
-      <c r="E458" s="82"/>
+      <c r="E458" s="83"/>
       <c r="F458" s="6"/>
     </row>
     <row r="459" spans="3:7">
       <c r="C459" s="2"/>
       <c r="D459" s="20"/>
-      <c r="E459" s="82"/>
+      <c r="E459" s="83"/>
       <c r="F459" s="6"/>
     </row>
     <row r="460" spans="3:7">
       <c r="C460" s="4"/>
       <c r="D460" s="22"/>
-      <c r="E460" s="82"/>
+      <c r="E460" s="83"/>
       <c r="F460" s="6"/>
     </row>
     <row r="461" spans="3:7">
       <c r="C461" s="4"/>
       <c r="D461" s="22"/>
-      <c r="E461" s="82"/>
+      <c r="E461" s="83"/>
       <c r="F461" s="6"/>
     </row>
     <row r="462" spans="3:7">
       <c r="C462" s="2"/>
       <c r="D462" s="20"/>
-      <c r="E462" s="82"/>
+      <c r="E462" s="83"/>
       <c r="F462" s="6"/>
     </row>
     <row r="463" spans="3:7">
       <c r="C463" s="2"/>
       <c r="D463" s="20"/>
-      <c r="E463" s="82"/>
+      <c r="E463" s="83"/>
       <c r="F463" s="6"/>
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="3:7">
-      <c r="E464" s="82"/>
+      <c r="E464" s="83"/>
       <c r="F464" s="6"/>
     </row>
     <row r="465" spans="3:7">
       <c r="C465" s="2"/>
       <c r="D465" s="20"/>
-      <c r="E465" s="82"/>
+      <c r="E465" s="83"/>
       <c r="F465" s="6"/>
       <c r="G465" s="10"/>
     </row>
     <row r="466" spans="3:7">
       <c r="C466" s="4"/>
       <c r="D466" s="22"/>
-      <c r="E466" s="82"/>
+      <c r="E466" s="83"/>
       <c r="F466" s="6"/>
     </row>
     <row r="467" spans="3:7">
-      <c r="E467" s="82"/>
+      <c r="E467" s="83"/>
       <c r="F467" s="6"/>
     </row>
     <row r="468" spans="3:7">
       <c r="C468" s="2"/>
       <c r="D468" s="20"/>
-      <c r="E468" s="82"/>
+      <c r="E468" s="83"/>
       <c r="F468" s="6"/>
     </row>
     <row r="469" spans="3:7">
       <c r="C469" s="2"/>
       <c r="D469" s="20"/>
-      <c r="E469" s="82"/>
+      <c r="E469" s="83"/>
       <c r="F469" s="6"/>
     </row>
     <row r="470" spans="3:7">
       <c r="C470" s="2"/>
       <c r="D470" s="20"/>
-      <c r="E470" s="82"/>
+      <c r="E470" s="83"/>
       <c r="F470" s="6"/>
     </row>
     <row r="471" spans="3:7">
-      <c r="E471" s="82"/>
+      <c r="E471" s="83"/>
       <c r="F471" s="6"/>
     </row>
     <row r="472" spans="3:7">
       <c r="C472" s="2"/>
       <c r="D472" s="20"/>
-      <c r="E472" s="82"/>
+      <c r="E472" s="83"/>
       <c r="F472" s="6"/>
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="3:7">
       <c r="C473" s="3"/>
       <c r="D473" s="23"/>
-      <c r="E473" s="82"/>
+      <c r="E473" s="83"/>
       <c r="F473" s="6"/>
     </row>
     <row r="474" spans="3:7">
-      <c r="E474" s="82"/>
+      <c r="E474" s="83"/>
       <c r="F474" s="6"/>
       <c r="G474" s="10"/>
     </row>
     <row r="475" spans="3:7">
       <c r="C475" s="2"/>
       <c r="D475" s="20"/>
-      <c r="E475" s="82"/>
+      <c r="E475" s="83"/>
       <c r="F475" s="6"/>
     </row>
     <row r="476" spans="3:7">
       <c r="C476" s="4"/>
       <c r="D476" s="22"/>
-      <c r="E476" s="82"/>
+      <c r="E476" s="83"/>
       <c r="F476" s="6"/>
     </row>
     <row r="477" spans="3:7">
       <c r="C477" s="4"/>
       <c r="D477" s="22"/>
-      <c r="E477" s="82"/>
+      <c r="E477" s="83"/>
       <c r="F477" s="6"/>
     </row>
     <row r="478" spans="3:7">
       <c r="C478" s="4"/>
       <c r="D478" s="22"/>
-      <c r="E478" s="82"/>
+      <c r="E478" s="83"/>
       <c r="F478" s="6"/>
     </row>
     <row r="479" spans="3:7">
-      <c r="E479" s="82"/>
+      <c r="E479" s="83"/>
       <c r="F479" s="6"/>
     </row>
     <row r="480" spans="3:7">
       <c r="C480" s="2"/>
       <c r="D480" s="20"/>
-      <c r="E480" s="82"/>
+      <c r="E480" s="83"/>
       <c r="F480" s="6"/>
     </row>
     <row r="481" spans="3:7">
       <c r="C481" s="4"/>
       <c r="D481" s="22"/>
-      <c r="E481" s="82"/>
+      <c r="E481" s="83"/>
       <c r="F481" s="6"/>
     </row>
     <row r="482" spans="3:7">
       <c r="C482" s="4"/>
       <c r="D482" s="22"/>
-      <c r="E482" s="82"/>
+      <c r="E482" s="83"/>
       <c r="F482" s="6"/>
     </row>
     <row r="483" spans="3:7">
       <c r="C483" s="4"/>
       <c r="D483" s="22"/>
-      <c r="E483" s="82"/>
+      <c r="E483" s="83"/>
       <c r="F483" s="6"/>
     </row>
     <row r="484" spans="3:7">
       <c r="C484" s="2"/>
       <c r="D484" s="20"/>
-      <c r="E484" s="82"/>
+      <c r="E484" s="83"/>
       <c r="F484" s="6"/>
       <c r="G484" s="13"/>
     </row>
     <row r="485" spans="3:7">
-      <c r="E485" s="82"/>
+      <c r="E485" s="83"/>
       <c r="F485" s="6"/>
     </row>
     <row r="486" spans="3:7">
       <c r="C486" s="4"/>
       <c r="D486" s="22"/>
-      <c r="E486" s="82"/>
+      <c r="E486" s="83"/>
       <c r="F486" s="6"/>
       <c r="G486" s="10"/>
     </row>
     <row r="487" spans="3:7">
       <c r="C487" s="4"/>
       <c r="D487" s="22"/>
-      <c r="E487" s="82"/>
+      <c r="E487" s="83"/>
       <c r="F487" s="6"/>
     </row>
     <row r="488" spans="3:7">
       <c r="C488" s="2"/>
       <c r="D488" s="20"/>
-      <c r="E488" s="82"/>
+      <c r="E488" s="83"/>
       <c r="F488" s="6"/>
       <c r="G488" s="13"/>
     </row>
     <row r="489" spans="3:7">
       <c r="C489" s="2"/>
       <c r="D489" s="20"/>
-      <c r="E489" s="82"/>
+      <c r="E489" s="83"/>
       <c r="F489" s="6"/>
     </row>
     <row r="490" spans="3:7">
-      <c r="E490" s="82"/>
+      <c r="E490" s="83"/>
       <c r="F490" s="6"/>
       <c r="G490" s="10"/>
     </row>
     <row r="491" spans="3:7">
       <c r="C491" s="4"/>
       <c r="D491" s="22"/>
-      <c r="E491" s="82"/>
+      <c r="E491" s="83"/>
       <c r="F491" s="6"/>
     </row>
     <row r="492" spans="3:7">
       <c r="C492" s="4"/>
       <c r="D492" s="22"/>
-      <c r="E492" s="82"/>
+      <c r="E492" s="83"/>
       <c r="F492" s="6"/>
     </row>
     <row r="493" spans="3:7">
       <c r="C493" s="4"/>
       <c r="D493" s="22"/>
-      <c r="E493" s="82"/>
+      <c r="E493" s="83"/>
       <c r="F493" s="6"/>
     </row>
     <row r="494" spans="3:7">
       <c r="C494" s="4"/>
       <c r="D494" s="22"/>
-      <c r="E494" s="82"/>
+      <c r="E494" s="83"/>
       <c r="F494" s="6"/>
     </row>
     <row r="495" spans="3:7">
       <c r="C495" s="2"/>
       <c r="D495" s="20"/>
-      <c r="E495" s="82"/>
+      <c r="E495" s="83"/>
       <c r="F495" s="6"/>
       <c r="G495" s="13"/>
     </row>
     <row r="496" spans="3:7">
-      <c r="E496" s="82"/>
+      <c r="E496" s="83"/>
       <c r="F496" s="6"/>
     </row>
     <row r="497" spans="3:7">
       <c r="C497" s="4"/>
       <c r="D497" s="22"/>
-      <c r="E497" s="82"/>
+      <c r="E497" s="83"/>
       <c r="F497" s="6"/>
       <c r="G497" s="10"/>
     </row>
     <row r="498" spans="3:7">
       <c r="C498" s="4"/>
       <c r="D498" s="22"/>
-      <c r="E498" s="82"/>
+      <c r="E498" s="83"/>
       <c r="F498" s="6"/>
     </row>
     <row r="499" spans="3:7">
       <c r="C499" s="4"/>
       <c r="D499" s="22"/>
-      <c r="E499" s="82"/>
+      <c r="E499" s="83"/>
       <c r="F499" s="6"/>
     </row>
     <row r="500" spans="3:7">
       <c r="C500" s="4"/>
       <c r="D500" s="22"/>
-      <c r="E500" s="82"/>
+      <c r="E500" s="83"/>
       <c r="F500" s="6"/>
     </row>
     <row r="501" spans="3:7">
       <c r="C501" s="2"/>
       <c r="D501" s="20"/>
-      <c r="E501" s="82"/>
+      <c r="E501" s="83"/>
       <c r="F501" s="6"/>
       <c r="G501" s="13"/>
     </row>
     <row r="502" spans="3:7">
-      <c r="E502" s="82"/>
+      <c r="E502" s="83"/>
       <c r="F502" s="6"/>
     </row>
     <row r="503" spans="3:7">
       <c r="C503" s="4"/>
       <c r="D503" s="22"/>
-      <c r="E503" s="82"/>
+      <c r="E503" s="83"/>
       <c r="F503" s="6"/>
       <c r="G503" s="10"/>
     </row>
     <row r="504" spans="3:7">
       <c r="C504" s="4"/>
       <c r="D504" s="22"/>
-      <c r="E504" s="82"/>
+      <c r="E504" s="83"/>
       <c r="F504" s="6"/>
     </row>
     <row r="505" spans="3:7">
       <c r="C505" s="4"/>
       <c r="D505" s="22"/>
-      <c r="E505" s="82"/>
+      <c r="E505" s="83"/>
       <c r="F505" s="6"/>
     </row>
     <row r="506" spans="3:7">
-      <c r="E506" s="82"/>
+      <c r="E506" s="83"/>
       <c r="F506" s="6"/>
     </row>
     <row r="507" spans="3:7">
       <c r="C507" s="4"/>
       <c r="D507" s="22"/>
-      <c r="E507" s="82"/>
+      <c r="E507" s="83"/>
       <c r="F507" s="6"/>
     </row>
     <row r="508" spans="3:7">
       <c r="C508" s="4"/>
       <c r="D508" s="22"/>
-      <c r="E508" s="82"/>
+      <c r="E508" s="83"/>
       <c r="F508" s="6"/>
     </row>
     <row r="509" spans="3:7">
-      <c r="E509" s="82"/>
+      <c r="E509" s="83"/>
       <c r="F509" s="6"/>
     </row>
     <row r="510" spans="3:7">
       <c r="C510" s="4"/>
       <c r="D510" s="22"/>
-      <c r="E510" s="82"/>
+      <c r="E510" s="83"/>
       <c r="F510" s="6"/>
     </row>
     <row r="511" spans="3:7">
@@ -29837,342 +30893,342 @@
     <row r="533" spans="3:7">
       <c r="C533" s="2"/>
       <c r="D533" s="20"/>
-      <c r="E533" s="82"/>
+      <c r="E533" s="83"/>
       <c r="F533" s="6"/>
       <c r="G533" s="13"/>
     </row>
     <row r="534" spans="3:7">
-      <c r="E534" s="82"/>
+      <c r="E534" s="83"/>
       <c r="F534" s="6"/>
     </row>
     <row r="535" spans="3:7">
       <c r="C535" s="2"/>
       <c r="D535" s="20"/>
-      <c r="E535" s="82"/>
+      <c r="E535" s="83"/>
       <c r="F535" s="6"/>
       <c r="G535" s="10"/>
     </row>
     <row r="536" spans="3:7">
       <c r="C536" s="4"/>
       <c r="D536" s="22"/>
-      <c r="E536" s="82"/>
+      <c r="E536" s="83"/>
       <c r="F536" s="6"/>
     </row>
     <row r="537" spans="3:7">
-      <c r="E537" s="82"/>
+      <c r="E537" s="83"/>
       <c r="F537" s="6"/>
     </row>
     <row r="538" spans="3:7">
       <c r="C538" s="2"/>
       <c r="D538" s="20"/>
-      <c r="E538" s="82"/>
+      <c r="E538" s="83"/>
       <c r="F538" s="6"/>
     </row>
     <row r="539" spans="3:7">
       <c r="C539" s="4"/>
       <c r="D539" s="22"/>
-      <c r="E539" s="82"/>
+      <c r="E539" s="83"/>
       <c r="F539" s="6"/>
     </row>
     <row r="540" spans="3:7">
-      <c r="E540" s="82"/>
+      <c r="E540" s="83"/>
       <c r="F540" s="6"/>
     </row>
     <row r="541" spans="3:7">
       <c r="C541" s="2"/>
       <c r="D541" s="20"/>
-      <c r="E541" s="82"/>
+      <c r="E541" s="83"/>
       <c r="F541" s="6"/>
     </row>
     <row r="542" spans="3:7">
-      <c r="E542" s="82"/>
+      <c r="E542" s="83"/>
       <c r="F542" s="6"/>
     </row>
     <row r="543" spans="3:7">
       <c r="C543" s="2"/>
       <c r="D543" s="20"/>
-      <c r="E543" s="82"/>
+      <c r="E543" s="83"/>
       <c r="F543" s="6"/>
     </row>
     <row r="544" spans="3:7">
-      <c r="E544" s="82"/>
+      <c r="E544" s="83"/>
       <c r="F544" s="6"/>
     </row>
     <row r="545" spans="3:6">
       <c r="C545" s="4"/>
       <c r="D545" s="22"/>
-      <c r="E545" s="82"/>
+      <c r="E545" s="83"/>
       <c r="F545" s="6"/>
     </row>
     <row r="546" spans="3:6">
       <c r="C546" s="4"/>
       <c r="D546" s="22"/>
-      <c r="E546" s="82"/>
+      <c r="E546" s="83"/>
       <c r="F546" s="6"/>
     </row>
     <row r="547" spans="3:6">
       <c r="C547" s="4"/>
       <c r="D547" s="22"/>
-      <c r="E547" s="82"/>
+      <c r="E547" s="83"/>
       <c r="F547" s="6"/>
     </row>
     <row r="548" spans="3:6">
-      <c r="E548" s="82"/>
+      <c r="E548" s="83"/>
       <c r="F548" s="6"/>
     </row>
     <row r="549" spans="3:6">
       <c r="C549" s="2"/>
       <c r="D549" s="20"/>
-      <c r="E549" s="82"/>
+      <c r="E549" s="83"/>
       <c r="F549" s="6"/>
     </row>
     <row r="550" spans="3:6">
-      <c r="E550" s="82"/>
+      <c r="E550" s="83"/>
       <c r="F550" s="6"/>
     </row>
     <row r="551" spans="3:6">
       <c r="C551" s="4"/>
       <c r="D551" s="22"/>
-      <c r="E551" s="82"/>
+      <c r="E551" s="83"/>
       <c r="F551" s="6"/>
     </row>
     <row r="552" spans="3:6">
       <c r="C552" s="4"/>
       <c r="D552" s="22"/>
-      <c r="E552" s="82"/>
+      <c r="E552" s="83"/>
       <c r="F552" s="6"/>
     </row>
     <row r="553" spans="3:6">
-      <c r="E553" s="82"/>
+      <c r="E553" s="83"/>
       <c r="F553" s="6"/>
     </row>
     <row r="554" spans="3:6">
       <c r="C554" s="4"/>
       <c r="D554" s="22"/>
-      <c r="E554" s="82"/>
+      <c r="E554" s="83"/>
       <c r="F554" s="6"/>
     </row>
     <row r="555" spans="3:6">
       <c r="C555" s="4"/>
       <c r="D555" s="22"/>
-      <c r="E555" s="82"/>
+      <c r="E555" s="83"/>
       <c r="F555" s="6"/>
     </row>
     <row r="556" spans="3:6">
       <c r="C556" s="4"/>
       <c r="D556" s="22"/>
-      <c r="E556" s="82"/>
+      <c r="E556" s="83"/>
       <c r="F556" s="6"/>
     </row>
     <row r="557" spans="3:6">
       <c r="C557" s="4"/>
       <c r="D557" s="22"/>
-      <c r="E557" s="82"/>
+      <c r="E557" s="83"/>
       <c r="F557" s="6"/>
     </row>
     <row r="558" spans="3:6">
       <c r="C558" s="4"/>
       <c r="D558" s="22"/>
-      <c r="E558" s="82"/>
+      <c r="E558" s="83"/>
       <c r="F558" s="6"/>
     </row>
     <row r="559" spans="3:6">
       <c r="C559" s="4"/>
       <c r="D559" s="22"/>
-      <c r="E559" s="82"/>
+      <c r="E559" s="83"/>
       <c r="F559" s="6"/>
     </row>
     <row r="560" spans="3:6">
       <c r="C560" s="4"/>
       <c r="D560" s="22"/>
-      <c r="E560" s="82"/>
+      <c r="E560" s="83"/>
       <c r="F560" s="6"/>
     </row>
     <row r="561" spans="3:7">
       <c r="C561" s="4"/>
       <c r="D561" s="22"/>
-      <c r="E561" s="82"/>
+      <c r="E561" s="83"/>
       <c r="F561" s="6"/>
     </row>
     <row r="562" spans="3:7">
-      <c r="E562" s="82"/>
+      <c r="E562" s="83"/>
       <c r="F562" s="6"/>
     </row>
     <row r="563" spans="3:7">
       <c r="C563" s="2"/>
       <c r="D563" s="20"/>
-      <c r="E563" s="82"/>
+      <c r="E563" s="83"/>
       <c r="F563" s="6"/>
     </row>
     <row r="564" spans="3:7">
-      <c r="E564" s="82"/>
+      <c r="E564" s="83"/>
       <c r="F564" s="6"/>
     </row>
     <row r="565" spans="3:7">
       <c r="C565" s="2"/>
       <c r="D565" s="20"/>
-      <c r="E565" s="82"/>
+      <c r="E565" s="83"/>
       <c r="F565" s="6"/>
     </row>
     <row r="566" spans="3:7">
-      <c r="E566" s="82"/>
+      <c r="E566" s="83"/>
       <c r="F566" s="6"/>
     </row>
     <row r="567" spans="3:7">
       <c r="C567" s="2"/>
       <c r="D567" s="20"/>
-      <c r="E567" s="82"/>
+      <c r="E567" s="83"/>
       <c r="F567" s="6"/>
     </row>
     <row r="568" spans="3:7">
-      <c r="E568" s="82"/>
+      <c r="E568" s="83"/>
       <c r="F568" s="6"/>
     </row>
     <row r="569" spans="3:7">
       <c r="C569" s="4"/>
       <c r="D569" s="22"/>
-      <c r="E569" s="82"/>
+      <c r="E569" s="83"/>
       <c r="F569" s="6"/>
     </row>
     <row r="570" spans="3:7">
       <c r="C570" s="4"/>
       <c r="D570" s="22"/>
-      <c r="E570" s="82"/>
+      <c r="E570" s="83"/>
       <c r="F570" s="6"/>
     </row>
     <row r="571" spans="3:7">
-      <c r="E571" s="82"/>
+      <c r="E571" s="83"/>
       <c r="F571" s="6"/>
     </row>
     <row r="572" spans="3:7">
       <c r="C572" s="4"/>
       <c r="D572" s="22"/>
-      <c r="E572" s="82"/>
+      <c r="E572" s="83"/>
       <c r="F572" s="6"/>
     </row>
     <row r="573" spans="3:7">
       <c r="C573" s="2"/>
       <c r="D573" s="20"/>
-      <c r="E573" s="82"/>
+      <c r="E573" s="83"/>
       <c r="F573" s="6"/>
       <c r="G573" s="13"/>
     </row>
     <row r="574" spans="3:7">
-      <c r="E574" s="82"/>
+      <c r="E574" s="83"/>
       <c r="F574" s="6"/>
     </row>
     <row r="575" spans="3:7">
       <c r="C575" s="2"/>
       <c r="D575" s="20"/>
-      <c r="E575" s="82"/>
+      <c r="E575" s="83"/>
       <c r="F575" s="6"/>
       <c r="G575" s="10"/>
     </row>
     <row r="576" spans="3:7">
-      <c r="E576" s="82"/>
+      <c r="E576" s="83"/>
       <c r="F576" s="6"/>
     </row>
     <row r="577" spans="3:7">
       <c r="C577" s="4"/>
       <c r="D577" s="22"/>
-      <c r="E577" s="82"/>
+      <c r="E577" s="83"/>
       <c r="F577" s="6"/>
     </row>
     <row r="578" spans="3:7">
       <c r="C578" s="4"/>
       <c r="D578" s="22"/>
-      <c r="E578" s="82"/>
+      <c r="E578" s="83"/>
       <c r="F578" s="6"/>
     </row>
     <row r="579" spans="3:7">
       <c r="C579" s="4"/>
       <c r="D579" s="22"/>
-      <c r="E579" s="82"/>
+      <c r="E579" s="83"/>
       <c r="F579" s="6"/>
     </row>
     <row r="580" spans="3:7">
-      <c r="E580" s="82"/>
+      <c r="E580" s="83"/>
       <c r="F580" s="6"/>
     </row>
     <row r="581" spans="3:7">
       <c r="C581" s="2"/>
       <c r="D581" s="20"/>
-      <c r="E581" s="82"/>
+      <c r="E581" s="83"/>
       <c r="F581" s="6"/>
     </row>
     <row r="582" spans="3:7">
-      <c r="E582" s="82"/>
+      <c r="E582" s="83"/>
       <c r="F582" s="6"/>
     </row>
     <row r="583" spans="3:7">
       <c r="C583" s="4"/>
       <c r="D583" s="22"/>
-      <c r="E583" s="82"/>
+      <c r="E583" s="83"/>
       <c r="F583" s="6"/>
     </row>
     <row r="584" spans="3:7">
       <c r="C584" s="4"/>
       <c r="D584" s="22"/>
-      <c r="E584" s="82"/>
+      <c r="E584" s="83"/>
       <c r="F584" s="6"/>
     </row>
     <row r="585" spans="3:7">
-      <c r="E585" s="82"/>
+      <c r="E585" s="83"/>
       <c r="F585" s="6"/>
     </row>
     <row r="586" spans="3:7">
       <c r="C586" s="2"/>
       <c r="D586" s="20"/>
-      <c r="E586" s="82"/>
+      <c r="E586" s="83"/>
       <c r="F586" s="6"/>
     </row>
     <row r="587" spans="3:7">
-      <c r="E587" s="82"/>
+      <c r="E587" s="83"/>
       <c r="F587" s="6"/>
     </row>
     <row r="588" spans="3:7">
       <c r="C588" s="4"/>
       <c r="D588" s="22"/>
-      <c r="E588" s="82"/>
+      <c r="E588" s="83"/>
       <c r="F588" s="6"/>
     </row>
     <row r="589" spans="3:7">
-      <c r="E589" s="82"/>
+      <c r="E589" s="83"/>
       <c r="F589" s="6"/>
     </row>
     <row r="590" spans="3:7">
       <c r="C590" s="2"/>
       <c r="D590" s="20"/>
-      <c r="E590" s="82"/>
+      <c r="E590" s="83"/>
       <c r="F590" s="6"/>
       <c r="G590" s="13"/>
     </row>
     <row r="591" spans="3:7">
       <c r="C591" s="3"/>
       <c r="D591" s="23"/>
-      <c r="E591" s="82"/>
+      <c r="E591" s="83"/>
       <c r="F591" s="6"/>
     </row>
     <row r="592" spans="3:7">
-      <c r="E592" s="82"/>
+      <c r="E592" s="83"/>
       <c r="F592" s="6"/>
       <c r="G592" s="10"/>
     </row>
     <row r="593" spans="3:7">
       <c r="C593" s="2"/>
       <c r="D593" s="20"/>
-      <c r="E593" s="82"/>
+      <c r="E593" s="83"/>
       <c r="F593" s="6"/>
       <c r="G593" s="13"/>
     </row>
     <row r="594" spans="3:7">
       <c r="C594" s="3"/>
       <c r="D594" s="23"/>
-      <c r="E594" s="82"/>
+      <c r="E594" s="83"/>
       <c r="F594" s="6"/>
     </row>
     <row r="595" spans="3:7">
-      <c r="E595" s="82"/>
+      <c r="E595" s="83"/>
       <c r="F595" s="6"/>
       <c r="G595" s="10"/>
     </row>
@@ -30209,98 +31265,98 @@
     <row r="603" spans="3:7">
       <c r="C603" s="2"/>
       <c r="D603" s="20"/>
-      <c r="E603" s="82"/>
+      <c r="E603" s="83"/>
       <c r="F603" s="6"/>
       <c r="G603" s="13"/>
     </row>
     <row r="604" spans="3:7">
-      <c r="E604" s="82"/>
+      <c r="E604" s="83"/>
       <c r="F604" s="6"/>
     </row>
     <row r="605" spans="3:7">
       <c r="C605" s="4"/>
       <c r="D605" s="22"/>
-      <c r="E605" s="82"/>
+      <c r="E605" s="83"/>
       <c r="F605" s="6"/>
       <c r="G605" s="10"/>
     </row>
     <row r="606" spans="3:7">
       <c r="C606" s="4"/>
       <c r="D606" s="22"/>
-      <c r="E606" s="82"/>
+      <c r="E606" s="83"/>
       <c r="F606" s="6"/>
     </row>
     <row r="607" spans="3:7">
       <c r="C607" s="4"/>
       <c r="D607" s="22"/>
-      <c r="E607" s="82"/>
+      <c r="E607" s="83"/>
       <c r="F607" s="6"/>
     </row>
     <row r="608" spans="3:7">
-      <c r="E608" s="82"/>
+      <c r="E608" s="83"/>
       <c r="F608" s="6"/>
     </row>
     <row r="609" spans="3:7">
       <c r="C609" s="4"/>
       <c r="D609" s="22"/>
-      <c r="E609" s="82"/>
+      <c r="E609" s="83"/>
       <c r="F609" s="6"/>
     </row>
     <row r="610" spans="3:7">
       <c r="C610" s="2"/>
       <c r="D610" s="20"/>
-      <c r="E610" s="82"/>
+      <c r="E610" s="83"/>
       <c r="F610" s="6"/>
       <c r="G610" s="13"/>
     </row>
     <row r="611" spans="3:7">
-      <c r="E611" s="82"/>
+      <c r="E611" s="83"/>
       <c r="F611" s="6"/>
     </row>
     <row r="612" spans="3:7">
       <c r="C612" s="4"/>
       <c r="D612" s="22"/>
-      <c r="E612" s="82"/>
+      <c r="E612" s="83"/>
       <c r="F612" s="6"/>
       <c r="G612" s="10"/>
     </row>
     <row r="613" spans="3:7">
       <c r="C613" s="4"/>
       <c r="D613" s="22"/>
-      <c r="E613" s="82"/>
+      <c r="E613" s="83"/>
       <c r="F613" s="6"/>
     </row>
     <row r="614" spans="3:7">
       <c r="C614" s="4"/>
       <c r="D614" s="22"/>
-      <c r="E614" s="82"/>
+      <c r="E614" s="83"/>
       <c r="F614" s="6"/>
     </row>
     <row r="615" spans="3:7">
-      <c r="E615" s="82"/>
+      <c r="E615" s="83"/>
       <c r="F615" s="6"/>
     </row>
     <row r="616" spans="3:7">
       <c r="C616" s="4"/>
       <c r="D616" s="22"/>
-      <c r="E616" s="82"/>
+      <c r="E616" s="83"/>
       <c r="F616" s="6"/>
     </row>
     <row r="617" spans="3:7">
       <c r="C617" s="2"/>
       <c r="D617" s="20"/>
-      <c r="E617" s="82"/>
+      <c r="E617" s="83"/>
       <c r="F617" s="6"/>
       <c r="G617" s="13"/>
     </row>
     <row r="618" spans="3:7">
       <c r="C618" s="3"/>
       <c r="D618" s="23"/>
-      <c r="E618" s="82"/>
+      <c r="E618" s="83"/>
       <c r="F618" s="6"/>
     </row>
     <row r="619" spans="3:7">
-      <c r="E619" s="82"/>
+      <c r="E619" s="83"/>
       <c r="F619" s="6"/>
       <c r="G619" s="10"/>
     </row>
@@ -30345,519 +31401,519 @@
     <row r="630" spans="3:7">
       <c r="C630" s="2"/>
       <c r="D630" s="20"/>
-      <c r="E630" s="82"/>
+      <c r="E630" s="83"/>
       <c r="F630" s="6"/>
       <c r="G630" s="13"/>
     </row>
     <row r="631" spans="3:7">
-      <c r="E631" s="82"/>
+      <c r="E631" s="83"/>
       <c r="F631" s="6"/>
     </row>
     <row r="632" spans="3:7">
       <c r="C632" s="4"/>
       <c r="D632" s="22"/>
-      <c r="E632" s="82"/>
+      <c r="E632" s="83"/>
       <c r="F632" s="6"/>
       <c r="G632" s="10"/>
     </row>
     <row r="633" spans="3:7">
       <c r="C633" s="4"/>
       <c r="D633" s="22"/>
-      <c r="E633" s="82"/>
+      <c r="E633" s="83"/>
       <c r="F633" s="6"/>
     </row>
     <row r="634" spans="3:7">
       <c r="C634" s="4"/>
       <c r="D634" s="22"/>
-      <c r="E634" s="82"/>
+      <c r="E634" s="83"/>
       <c r="F634" s="6"/>
     </row>
     <row r="635" spans="3:7">
-      <c r="E635" s="82"/>
+      <c r="E635" s="83"/>
       <c r="F635" s="6"/>
     </row>
     <row r="636" spans="3:7">
       <c r="C636" s="4"/>
       <c r="D636" s="22"/>
-      <c r="E636" s="82"/>
+      <c r="E636" s="83"/>
       <c r="F636" s="6"/>
     </row>
     <row r="637" spans="3:7">
       <c r="C637" s="2"/>
       <c r="D637" s="20"/>
-      <c r="E637" s="82"/>
+      <c r="E637" s="83"/>
       <c r="F637" s="6"/>
       <c r="G637" s="13"/>
     </row>
     <row r="638" spans="3:7">
-      <c r="E638" s="82"/>
+      <c r="E638" s="83"/>
       <c r="F638" s="6"/>
     </row>
     <row r="639" spans="3:7">
       <c r="C639" s="4"/>
       <c r="D639" s="22"/>
-      <c r="E639" s="82"/>
+      <c r="E639" s="83"/>
       <c r="F639" s="6"/>
       <c r="G639" s="10"/>
     </row>
     <row r="640" spans="3:7">
       <c r="C640" s="4"/>
       <c r="D640" s="22"/>
-      <c r="E640" s="82"/>
+      <c r="E640" s="83"/>
       <c r="F640" s="6"/>
     </row>
     <row r="641" spans="3:7">
       <c r="C641" s="4"/>
       <c r="D641" s="22"/>
-      <c r="E641" s="82"/>
+      <c r="E641" s="83"/>
       <c r="F641" s="6"/>
     </row>
     <row r="642" spans="3:7">
-      <c r="E642" s="82"/>
+      <c r="E642" s="83"/>
       <c r="F642" s="6"/>
     </row>
     <row r="643" spans="3:7">
       <c r="C643" s="4"/>
       <c r="D643" s="22"/>
-      <c r="E643" s="82"/>
+      <c r="E643" s="83"/>
       <c r="F643" s="6"/>
     </row>
     <row r="644" spans="3:7">
       <c r="C644" s="2"/>
       <c r="D644" s="20"/>
-      <c r="E644" s="82"/>
+      <c r="E644" s="83"/>
       <c r="F644" s="6"/>
       <c r="G644" s="13"/>
     </row>
     <row r="645" spans="3:7">
       <c r="C645" s="3"/>
       <c r="D645" s="23"/>
-      <c r="E645" s="82"/>
+      <c r="E645" s="83"/>
       <c r="F645" s="6"/>
     </row>
     <row r="646" spans="3:7">
-      <c r="E646" s="82"/>
+      <c r="E646" s="83"/>
       <c r="F646" s="6"/>
       <c r="G646" s="10"/>
     </row>
     <row r="647" spans="3:7">
       <c r="C647" s="2"/>
       <c r="D647" s="20"/>
-      <c r="E647" s="82"/>
+      <c r="E647" s="83"/>
       <c r="F647" s="6"/>
       <c r="G647" s="13"/>
     </row>
     <row r="648" spans="3:7">
-      <c r="E648" s="82"/>
+      <c r="E648" s="83"/>
       <c r="F648" s="6"/>
     </row>
     <row r="649" spans="3:7">
       <c r="C649" s="4"/>
       <c r="D649" s="22"/>
-      <c r="E649" s="82"/>
+      <c r="E649" s="83"/>
       <c r="F649" s="6"/>
       <c r="G649" s="10"/>
     </row>
     <row r="650" spans="3:7">
       <c r="C650" s="4"/>
       <c r="D650" s="22"/>
-      <c r="E650" s="82"/>
+      <c r="E650" s="83"/>
       <c r="F650" s="6"/>
     </row>
     <row r="651" spans="3:7">
       <c r="C651" s="4"/>
       <c r="D651" s="22"/>
-      <c r="E651" s="82"/>
+      <c r="E651" s="83"/>
       <c r="F651" s="6"/>
     </row>
     <row r="652" spans="3:7">
-      <c r="E652" s="82"/>
+      <c r="E652" s="83"/>
       <c r="F652" s="6"/>
     </row>
     <row r="653" spans="3:7">
       <c r="C653" s="4"/>
       <c r="D653" s="22"/>
-      <c r="E653" s="82"/>
+      <c r="E653" s="83"/>
       <c r="F653" s="6"/>
     </row>
     <row r="654" spans="3:7">
       <c r="C654" s="2"/>
       <c r="D654" s="20"/>
-      <c r="E654" s="82"/>
+      <c r="E654" s="83"/>
       <c r="F654" s="6"/>
       <c r="G654" s="13"/>
     </row>
     <row r="655" spans="3:7">
-      <c r="E655" s="82"/>
+      <c r="E655" s="83"/>
       <c r="F655" s="6"/>
     </row>
     <row r="656" spans="3:7">
       <c r="C656" s="4"/>
       <c r="D656" s="22"/>
-      <c r="E656" s="82"/>
+      <c r="E656" s="83"/>
       <c r="F656" s="6"/>
       <c r="G656" s="10"/>
     </row>
     <row r="657" spans="3:7">
       <c r="C657" s="4"/>
       <c r="D657" s="22"/>
-      <c r="E657" s="82"/>
+      <c r="E657" s="83"/>
       <c r="F657" s="6"/>
     </row>
     <row r="658" spans="3:7">
       <c r="C658" s="4"/>
       <c r="D658" s="22"/>
-      <c r="E658" s="82"/>
+      <c r="E658" s="83"/>
       <c r="F658" s="6"/>
     </row>
     <row r="659" spans="3:7">
-      <c r="E659" s="82"/>
+      <c r="E659" s="83"/>
       <c r="F659" s="6"/>
     </row>
     <row r="660" spans="3:7">
       <c r="C660" s="4"/>
       <c r="D660" s="22"/>
-      <c r="E660" s="82"/>
+      <c r="E660" s="83"/>
       <c r="F660" s="6"/>
     </row>
     <row r="661" spans="3:7">
       <c r="C661" s="2"/>
       <c r="D661" s="20"/>
-      <c r="E661" s="82"/>
+      <c r="E661" s="83"/>
       <c r="F661" s="6"/>
       <c r="G661" s="13"/>
     </row>
     <row r="662" spans="3:7">
-      <c r="E662" s="82"/>
+      <c r="E662" s="83"/>
       <c r="F662" s="6"/>
     </row>
     <row r="663" spans="3:7">
       <c r="C663" s="4"/>
       <c r="D663" s="22"/>
-      <c r="E663" s="82"/>
+      <c r="E663" s="83"/>
       <c r="F663" s="6"/>
       <c r="G663" s="10"/>
     </row>
     <row r="664" spans="3:7">
       <c r="C664" s="4"/>
       <c r="D664" s="22"/>
-      <c r="E664" s="82"/>
+      <c r="E664" s="83"/>
       <c r="F664" s="6"/>
     </row>
     <row r="665" spans="3:7">
       <c r="C665" s="4"/>
       <c r="D665" s="22"/>
-      <c r="E665" s="82"/>
+      <c r="E665" s="83"/>
       <c r="F665" s="6"/>
     </row>
     <row r="666" spans="3:7">
-      <c r="E666" s="82"/>
+      <c r="E666" s="83"/>
       <c r="F666" s="6"/>
     </row>
     <row r="667" spans="3:7">
       <c r="C667" s="4"/>
       <c r="D667" s="22"/>
-      <c r="E667" s="82"/>
+      <c r="E667" s="83"/>
       <c r="F667" s="6"/>
     </row>
     <row r="668" spans="3:7">
       <c r="C668" s="2"/>
       <c r="D668" s="20"/>
-      <c r="E668" s="82"/>
+      <c r="E668" s="83"/>
       <c r="F668" s="6"/>
       <c r="G668" s="13"/>
     </row>
     <row r="669" spans="3:7">
-      <c r="E669" s="82"/>
+      <c r="E669" s="83"/>
       <c r="F669" s="6"/>
     </row>
     <row r="670" spans="3:7">
       <c r="C670" s="4"/>
       <c r="D670" s="22"/>
-      <c r="E670" s="82"/>
+      <c r="E670" s="83"/>
       <c r="F670" s="6"/>
       <c r="G670" s="10"/>
     </row>
     <row r="671" spans="3:7">
       <c r="C671" s="4"/>
       <c r="D671" s="22"/>
-      <c r="E671" s="82"/>
+      <c r="E671" s="83"/>
       <c r="F671" s="6"/>
     </row>
     <row r="672" spans="3:7">
       <c r="C672" s="4"/>
       <c r="D672" s="22"/>
-      <c r="E672" s="82"/>
+      <c r="E672" s="83"/>
       <c r="F672" s="6"/>
     </row>
     <row r="673" spans="3:7">
-      <c r="E673" s="82"/>
+      <c r="E673" s="83"/>
       <c r="F673" s="6"/>
     </row>
     <row r="674" spans="3:7">
       <c r="C674" s="4"/>
       <c r="D674" s="22"/>
-      <c r="E674" s="82"/>
+      <c r="E674" s="83"/>
       <c r="F674" s="6"/>
     </row>
     <row r="675" spans="3:7">
       <c r="C675" s="2"/>
       <c r="D675" s="20"/>
-      <c r="E675" s="82"/>
+      <c r="E675" s="83"/>
       <c r="F675" s="6"/>
       <c r="G675" s="13"/>
     </row>
     <row r="676" spans="3:7">
-      <c r="E676" s="82"/>
+      <c r="E676" s="83"/>
       <c r="F676" s="6"/>
     </row>
     <row r="677" spans="3:7">
       <c r="C677" s="4"/>
       <c r="D677" s="22"/>
-      <c r="E677" s="82"/>
+      <c r="E677" s="83"/>
       <c r="F677" s="6"/>
       <c r="G677" s="10"/>
     </row>
     <row r="678" spans="3:7">
       <c r="C678" s="4"/>
       <c r="D678" s="22"/>
-      <c r="E678" s="82"/>
+      <c r="E678" s="83"/>
       <c r="F678" s="6"/>
     </row>
     <row r="679" spans="3:7">
       <c r="C679" s="4"/>
       <c r="D679" s="22"/>
-      <c r="E679" s="82"/>
+      <c r="E679" s="83"/>
       <c r="F679" s="6"/>
     </row>
     <row r="680" spans="3:7">
-      <c r="E680" s="82"/>
+      <c r="E680" s="83"/>
       <c r="F680" s="6"/>
     </row>
     <row r="681" spans="3:7">
       <c r="C681" s="4"/>
       <c r="D681" s="22"/>
-      <c r="E681" s="82"/>
+      <c r="E681" s="83"/>
       <c r="F681" s="6"/>
     </row>
     <row r="682" spans="3:7">
       <c r="C682" s="2"/>
       <c r="D682" s="20"/>
-      <c r="E682" s="82"/>
+      <c r="E682" s="83"/>
       <c r="F682" s="6"/>
       <c r="G682" s="13"/>
     </row>
     <row r="683" spans="3:7">
-      <c r="E683" s="82"/>
+      <c r="E683" s="83"/>
       <c r="F683" s="6"/>
     </row>
     <row r="684" spans="3:7">
       <c r="C684" s="4"/>
       <c r="D684" s="22"/>
-      <c r="E684" s="82"/>
+      <c r="E684" s="83"/>
       <c r="F684" s="6"/>
       <c r="G684" s="10"/>
     </row>
     <row r="685" spans="3:7">
       <c r="C685" s="4"/>
       <c r="D685" s="22"/>
-      <c r="E685" s="82"/>
+      <c r="E685" s="83"/>
       <c r="F685" s="6"/>
     </row>
     <row r="686" spans="3:7">
       <c r="C686" s="4"/>
       <c r="D686" s="22"/>
-      <c r="E686" s="82"/>
+      <c r="E686" s="83"/>
       <c r="F686" s="6"/>
     </row>
     <row r="687" spans="3:7">
-      <c r="E687" s="82"/>
+      <c r="E687" s="83"/>
       <c r="F687" s="6"/>
     </row>
     <row r="688" spans="3:7">
       <c r="C688" s="4"/>
       <c r="D688" s="22"/>
-      <c r="E688" s="82"/>
+      <c r="E688" s="83"/>
       <c r="F688" s="6"/>
     </row>
     <row r="689" spans="3:7">
       <c r="C689" s="2"/>
       <c r="D689" s="20"/>
-      <c r="E689" s="82"/>
+      <c r="E689" s="83"/>
       <c r="F689" s="6"/>
       <c r="G689" s="13"/>
     </row>
     <row r="690" spans="3:7">
-      <c r="E690" s="82"/>
+      <c r="E690" s="83"/>
       <c r="F690" s="6"/>
     </row>
     <row r="691" spans="3:7">
       <c r="C691" s="4"/>
       <c r="D691" s="22"/>
-      <c r="E691" s="82"/>
+      <c r="E691" s="83"/>
       <c r="F691" s="6"/>
       <c r="G691" s="10"/>
     </row>
     <row r="692" spans="3:7">
       <c r="C692" s="4"/>
       <c r="D692" s="22"/>
-      <c r="E692" s="82"/>
+      <c r="E692" s="83"/>
       <c r="F692" s="6"/>
     </row>
     <row r="693" spans="3:7">
       <c r="C693" s="4"/>
       <c r="D693" s="22"/>
-      <c r="E693" s="82"/>
+      <c r="E693" s="83"/>
       <c r="F693" s="6"/>
     </row>
     <row r="694" spans="3:7">
-      <c r="E694" s="82"/>
+      <c r="E694" s="83"/>
       <c r="F694" s="6"/>
     </row>
     <row r="695" spans="3:7">
       <c r="C695" s="4"/>
       <c r="D695" s="22"/>
-      <c r="E695" s="82"/>
+      <c r="E695" s="83"/>
       <c r="F695" s="6"/>
     </row>
     <row r="696" spans="3:7">
       <c r="C696" s="2"/>
       <c r="D696" s="20"/>
-      <c r="E696" s="82"/>
+      <c r="E696" s="83"/>
       <c r="F696" s="6"/>
       <c r="G696" s="13"/>
     </row>
     <row r="697" spans="3:7">
-      <c r="E697" s="82"/>
+      <c r="E697" s="83"/>
       <c r="F697" s="6"/>
     </row>
     <row r="698" spans="3:7">
       <c r="C698" s="4"/>
       <c r="D698" s="22"/>
-      <c r="E698" s="82"/>
+      <c r="E698" s="83"/>
       <c r="F698" s="6"/>
       <c r="G698" s="10"/>
     </row>
     <row r="699" spans="3:7">
       <c r="C699" s="4"/>
       <c r="D699" s="22"/>
-      <c r="E699" s="82"/>
+      <c r="E699" s="83"/>
       <c r="F699" s="6"/>
     </row>
     <row r="700" spans="3:7">
       <c r="C700" s="4"/>
       <c r="D700" s="22"/>
-      <c r="E700" s="82"/>
+      <c r="E700" s="83"/>
       <c r="F700" s="6"/>
     </row>
     <row r="701" spans="3:7">
-      <c r="E701" s="82"/>
+      <c r="E701" s="83"/>
       <c r="F701" s="6"/>
     </row>
     <row r="702" spans="3:7">
       <c r="C702" s="4"/>
       <c r="D702" s="22"/>
-      <c r="E702" s="82"/>
+      <c r="E702" s="83"/>
       <c r="F702" s="6"/>
     </row>
     <row r="703" spans="3:7">
       <c r="C703" s="2"/>
       <c r="D703" s="20"/>
-      <c r="E703" s="82"/>
+      <c r="E703" s="83"/>
       <c r="F703" s="6"/>
       <c r="G703" s="13"/>
     </row>
     <row r="704" spans="3:7">
-      <c r="E704" s="82"/>
+      <c r="E704" s="83"/>
       <c r="F704" s="6"/>
     </row>
     <row r="705" spans="3:7">
       <c r="C705" s="4"/>
       <c r="D705" s="22"/>
-      <c r="E705" s="82"/>
+      <c r="E705" s="83"/>
       <c r="F705" s="6"/>
       <c r="G705" s="10"/>
     </row>
     <row r="706" spans="3:7">
       <c r="C706" s="4"/>
       <c r="D706" s="22"/>
-      <c r="E706" s="82"/>
+      <c r="E706" s="83"/>
       <c r="F706" s="6"/>
     </row>
     <row r="707" spans="3:7">
       <c r="C707" s="4"/>
       <c r="D707" s="22"/>
-      <c r="E707" s="82"/>
+      <c r="E707" s="83"/>
       <c r="F707" s="6"/>
     </row>
     <row r="708" spans="3:7">
-      <c r="E708" s="82"/>
+      <c r="E708" s="83"/>
       <c r="F708" s="6"/>
     </row>
     <row r="709" spans="3:7">
       <c r="C709" s="4"/>
       <c r="D709" s="22"/>
-      <c r="E709" s="82"/>
+      <c r="E709" s="83"/>
       <c r="F709" s="6"/>
     </row>
     <row r="710" spans="3:7">
       <c r="C710" s="2"/>
       <c r="D710" s="20"/>
-      <c r="E710" s="82"/>
+      <c r="E710" s="83"/>
       <c r="F710" s="6"/>
       <c r="G710" s="13"/>
     </row>
     <row r="711" spans="3:7">
-      <c r="E711" s="82"/>
+      <c r="E711" s="83"/>
       <c r="F711" s="6"/>
     </row>
     <row r="712" spans="3:7">
       <c r="C712" s="4"/>
       <c r="D712" s="22"/>
-      <c r="E712" s="82"/>
+      <c r="E712" s="83"/>
       <c r="F712" s="6"/>
       <c r="G712" s="10"/>
     </row>
     <row r="713" spans="3:7">
       <c r="C713" s="4"/>
       <c r="D713" s="22"/>
-      <c r="E713" s="82"/>
+      <c r="E713" s="83"/>
       <c r="F713" s="6"/>
     </row>
     <row r="714" spans="3:7">
       <c r="C714" s="4"/>
       <c r="D714" s="22"/>
-      <c r="E714" s="82"/>
+      <c r="E714" s="83"/>
       <c r="F714" s="6"/>
     </row>
     <row r="715" spans="3:7">
       <c r="C715" s="2"/>
       <c r="D715" s="20"/>
-      <c r="E715" s="82"/>
+      <c r="E715" s="83"/>
       <c r="F715" s="6"/>
       <c r="G715" s="13"/>
     </row>
     <row r="716" spans="3:7">
-      <c r="E716" s="82"/>
+      <c r="E716" s="83"/>
       <c r="F716" s="6"/>
     </row>
     <row r="717" spans="3:7">
       <c r="C717" s="4"/>
       <c r="D717" s="22"/>
-      <c r="E717" s="82"/>
+      <c r="E717" s="83"/>
       <c r="F717" s="6"/>
       <c r="G717" s="10"/>
     </row>
     <row r="718" spans="3:7">
       <c r="C718" s="4"/>
       <c r="D718" s="22"/>
-      <c r="E718" s="82"/>
+      <c r="E718" s="83"/>
       <c r="F718" s="6"/>
     </row>
     <row r="719" spans="3:7">
       <c r="C719" s="4"/>
       <c r="D719" s="22"/>
-      <c r="E719" s="82"/>
+      <c r="E719" s="83"/>
       <c r="F719" s="6"/>
     </row>
     <row r="720" spans="3:7">
@@ -30935,369 +31991,369 @@
     <row r="739" spans="3:7">
       <c r="C739" s="2"/>
       <c r="D739" s="20"/>
-      <c r="E739" s="82"/>
+      <c r="E739" s="83"/>
       <c r="F739" s="6"/>
       <c r="G739" s="10"/>
     </row>
     <row r="740" spans="3:7">
-      <c r="E740" s="82"/>
+      <c r="E740" s="83"/>
       <c r="F740" s="6"/>
     </row>
     <row r="741" spans="3:7">
       <c r="C741" s="2"/>
       <c r="D741" s="20"/>
-      <c r="E741" s="82"/>
+      <c r="E741" s="83"/>
       <c r="F741" s="6"/>
       <c r="G741" s="10"/>
     </row>
     <row r="742" spans="3:7">
       <c r="C742" s="4"/>
       <c r="D742" s="22"/>
-      <c r="E742" s="82"/>
+      <c r="E742" s="83"/>
       <c r="F742" s="6"/>
     </row>
     <row r="743" spans="3:7">
       <c r="C743" s="4"/>
       <c r="D743" s="22"/>
-      <c r="E743" s="82"/>
+      <c r="E743" s="83"/>
       <c r="F743" s="6"/>
       <c r="G743" s="10"/>
     </row>
     <row r="744" spans="3:7">
       <c r="C744" s="4"/>
       <c r="D744" s="22"/>
-      <c r="E744" s="82"/>
+      <c r="E744" s="83"/>
       <c r="F744" s="6"/>
     </row>
     <row r="745" spans="3:7">
-      <c r="E745" s="82"/>
+      <c r="E745" s="83"/>
       <c r="F745" s="6"/>
       <c r="G745" s="10"/>
     </row>
     <row r="746" spans="3:7">
       <c r="C746" s="4"/>
       <c r="D746" s="22"/>
-      <c r="E746" s="82"/>
+      <c r="E746" s="83"/>
       <c r="F746" s="6"/>
     </row>
     <row r="747" spans="3:7">
       <c r="C747" s="4"/>
       <c r="D747" s="22"/>
-      <c r="E747" s="82"/>
+      <c r="E747" s="83"/>
       <c r="F747" s="6"/>
       <c r="G747" s="14"/>
     </row>
     <row r="748" spans="3:7">
       <c r="C748" s="4"/>
       <c r="D748" s="22"/>
-      <c r="E748" s="82"/>
+      <c r="E748" s="83"/>
       <c r="F748" s="6"/>
     </row>
     <row r="749" spans="3:7">
       <c r="C749" s="4"/>
       <c r="D749" s="22"/>
-      <c r="E749" s="82"/>
+      <c r="E749" s="83"/>
       <c r="F749" s="6"/>
       <c r="G749" s="10"/>
     </row>
     <row r="750" spans="3:7">
-      <c r="E750" s="82"/>
+      <c r="E750" s="83"/>
       <c r="F750" s="6"/>
     </row>
     <row r="751" spans="3:7">
       <c r="C751" s="4"/>
       <c r="D751" s="22"/>
-      <c r="E751" s="82"/>
+      <c r="E751" s="83"/>
       <c r="F751" s="6"/>
     </row>
     <row r="752" spans="3:7">
-      <c r="E752" s="82"/>
+      <c r="E752" s="83"/>
       <c r="F752" s="6"/>
     </row>
     <row r="753" spans="3:6">
       <c r="C753" s="2"/>
       <c r="D753" s="20"/>
-      <c r="E753" s="82"/>
+      <c r="E753" s="83"/>
       <c r="F753" s="6"/>
     </row>
     <row r="754" spans="3:6">
-      <c r="E754" s="82"/>
+      <c r="E754" s="83"/>
       <c r="F754" s="6"/>
     </row>
     <row r="755" spans="3:6">
       <c r="C755" s="4"/>
       <c r="D755" s="22"/>
-      <c r="E755" s="82"/>
+      <c r="E755" s="83"/>
       <c r="F755" s="6"/>
     </row>
     <row r="756" spans="3:6">
       <c r="C756" s="4"/>
       <c r="D756" s="22"/>
-      <c r="E756" s="82"/>
+      <c r="E756" s="83"/>
       <c r="F756" s="6"/>
     </row>
     <row r="757" spans="3:6">
       <c r="C757" s="4"/>
       <c r="D757" s="22"/>
-      <c r="E757" s="82"/>
+      <c r="E757" s="83"/>
       <c r="F757" s="6"/>
     </row>
     <row r="758" spans="3:6">
-      <c r="E758" s="82"/>
+      <c r="E758" s="83"/>
       <c r="F758" s="6"/>
     </row>
     <row r="759" spans="3:6">
       <c r="C759" s="2"/>
       <c r="D759" s="20"/>
-      <c r="E759" s="82"/>
+      <c r="E759" s="83"/>
       <c r="F759" s="6"/>
     </row>
     <row r="760" spans="3:6">
       <c r="C760" s="4"/>
       <c r="D760" s="22"/>
-      <c r="E760" s="82"/>
+      <c r="E760" s="83"/>
       <c r="F760" s="6"/>
     </row>
     <row r="761" spans="3:6">
       <c r="C761" s="4"/>
       <c r="D761" s="22"/>
-      <c r="E761" s="82"/>
+      <c r="E761" s="83"/>
       <c r="F761" s="6"/>
     </row>
     <row r="762" spans="3:6">
       <c r="C762" s="4"/>
       <c r="D762" s="22"/>
-      <c r="E762" s="82"/>
+      <c r="E762" s="83"/>
       <c r="F762" s="6"/>
     </row>
     <row r="763" spans="3:6">
-      <c r="E763" s="82"/>
+      <c r="E763" s="83"/>
       <c r="F763" s="6"/>
     </row>
     <row r="764" spans="3:6">
       <c r="C764" s="4"/>
       <c r="D764" s="22"/>
-      <c r="E764" s="82"/>
+      <c r="E764" s="83"/>
       <c r="F764" s="6"/>
     </row>
     <row r="765" spans="3:6">
       <c r="C765" s="4"/>
       <c r="D765" s="22"/>
-      <c r="E765" s="82"/>
+      <c r="E765" s="83"/>
       <c r="F765" s="6"/>
     </row>
     <row r="766" spans="3:6">
       <c r="C766" s="4"/>
       <c r="D766" s="22"/>
-      <c r="E766" s="82"/>
+      <c r="E766" s="83"/>
       <c r="F766" s="6"/>
     </row>
     <row r="767" spans="3:6">
       <c r="C767" s="4"/>
       <c r="D767" s="22"/>
-      <c r="E767" s="82"/>
+      <c r="E767" s="83"/>
       <c r="F767" s="6"/>
     </row>
     <row r="768" spans="3:6">
-      <c r="E768" s="82"/>
+      <c r="E768" s="83"/>
       <c r="F768" s="6"/>
     </row>
     <row r="769" spans="3:6">
       <c r="C769" s="4"/>
       <c r="D769" s="22"/>
-      <c r="E769" s="82"/>
+      <c r="E769" s="83"/>
       <c r="F769" s="6"/>
     </row>
     <row r="770" spans="3:6">
-      <c r="E770" s="82"/>
+      <c r="E770" s="83"/>
       <c r="F770" s="6"/>
     </row>
     <row r="771" spans="3:6">
       <c r="C771" s="2"/>
       <c r="D771" s="20"/>
-      <c r="E771" s="82"/>
+      <c r="E771" s="83"/>
       <c r="F771" s="6"/>
     </row>
     <row r="772" spans="3:6">
       <c r="C772" s="4"/>
       <c r="D772" s="22"/>
-      <c r="E772" s="82"/>
+      <c r="E772" s="83"/>
       <c r="F772" s="6"/>
     </row>
     <row r="773" spans="3:6">
       <c r="C773" s="4"/>
       <c r="D773" s="22"/>
-      <c r="E773" s="82"/>
+      <c r="E773" s="83"/>
       <c r="F773" s="6"/>
     </row>
     <row r="774" spans="3:6">
       <c r="C774" s="4"/>
       <c r="D774" s="22"/>
-      <c r="E774" s="82"/>
+      <c r="E774" s="83"/>
       <c r="F774" s="6"/>
     </row>
     <row r="775" spans="3:6">
-      <c r="E775" s="82"/>
+      <c r="E775" s="83"/>
       <c r="F775" s="6"/>
     </row>
     <row r="776" spans="3:6">
       <c r="C776" s="2"/>
       <c r="D776" s="20"/>
-      <c r="E776" s="82"/>
+      <c r="E776" s="83"/>
       <c r="F776" s="6"/>
     </row>
     <row r="777" spans="3:6">
       <c r="C777" s="4"/>
       <c r="D777" s="22"/>
-      <c r="E777" s="82"/>
+      <c r="E777" s="83"/>
       <c r="F777" s="6"/>
     </row>
     <row r="778" spans="3:6">
       <c r="C778" s="4"/>
       <c r="D778" s="22"/>
-      <c r="E778" s="82"/>
+      <c r="E778" s="83"/>
       <c r="F778" s="6"/>
     </row>
     <row r="779" spans="3:6">
       <c r="C779" s="4"/>
       <c r="D779" s="22"/>
-      <c r="E779" s="82"/>
+      <c r="E779" s="83"/>
       <c r="F779" s="6"/>
     </row>
     <row r="780" spans="3:6">
-      <c r="E780" s="82"/>
+      <c r="E780" s="83"/>
       <c r="F780" s="6"/>
     </row>
     <row r="781" spans="3:6">
       <c r="C781" s="4"/>
       <c r="D781" s="22"/>
-      <c r="E781" s="82"/>
+      <c r="E781" s="83"/>
       <c r="F781" s="6"/>
     </row>
     <row r="782" spans="3:6">
       <c r="C782" s="4"/>
       <c r="D782" s="22"/>
-      <c r="E782" s="82"/>
+      <c r="E782" s="83"/>
       <c r="F782" s="6"/>
     </row>
     <row r="783" spans="3:6">
       <c r="C783" s="4"/>
       <c r="D783" s="22"/>
-      <c r="E783" s="82"/>
+      <c r="E783" s="83"/>
       <c r="F783" s="6"/>
     </row>
     <row r="784" spans="3:6">
       <c r="C784" s="4"/>
       <c r="D784" s="22"/>
-      <c r="E784" s="82"/>
+      <c r="E784" s="83"/>
       <c r="F784" s="6"/>
     </row>
     <row r="785" spans="3:6">
-      <c r="E785" s="82"/>
+      <c r="E785" s="83"/>
       <c r="F785" s="6"/>
     </row>
     <row r="786" spans="3:6">
       <c r="C786" s="4"/>
       <c r="D786" s="22"/>
-      <c r="E786" s="82"/>
+      <c r="E786" s="83"/>
       <c r="F786" s="6"/>
     </row>
     <row r="787" spans="3:6">
-      <c r="E787" s="82"/>
+      <c r="E787" s="83"/>
       <c r="F787" s="6"/>
     </row>
     <row r="788" spans="3:6">
       <c r="C788" s="2"/>
       <c r="D788" s="20"/>
-      <c r="E788" s="82"/>
+      <c r="E788" s="83"/>
       <c r="F788" s="6"/>
     </row>
     <row r="789" spans="3:6">
-      <c r="E789" s="82"/>
+      <c r="E789" s="83"/>
       <c r="F789" s="6"/>
     </row>
     <row r="790" spans="3:6">
       <c r="C790" s="4"/>
       <c r="D790" s="22"/>
-      <c r="E790" s="82"/>
+      <c r="E790" s="83"/>
       <c r="F790" s="6"/>
     </row>
     <row r="791" spans="3:6">
       <c r="C791" s="4"/>
       <c r="D791" s="22"/>
-      <c r="E791" s="82"/>
+      <c r="E791" s="83"/>
       <c r="F791" s="6"/>
     </row>
     <row r="792" spans="3:6">
       <c r="C792" s="4"/>
       <c r="D792" s="22"/>
-      <c r="E792" s="82"/>
+      <c r="E792" s="83"/>
       <c r="F792" s="6"/>
     </row>
     <row r="793" spans="3:6">
-      <c r="E793" s="82"/>
+      <c r="E793" s="83"/>
       <c r="F793" s="6"/>
     </row>
     <row r="794" spans="3:6">
       <c r="C794" s="2"/>
       <c r="D794" s="20"/>
-      <c r="E794" s="82"/>
+      <c r="E794" s="83"/>
       <c r="F794" s="6"/>
     </row>
     <row r="795" spans="3:6">
       <c r="C795" s="4"/>
       <c r="D795" s="22"/>
-      <c r="E795" s="82"/>
+      <c r="E795" s="83"/>
       <c r="F795" s="6"/>
     </row>
     <row r="796" spans="3:6">
       <c r="C796" s="4"/>
       <c r="D796" s="22"/>
-      <c r="E796" s="82"/>
+      <c r="E796" s="83"/>
       <c r="F796" s="6"/>
     </row>
     <row r="797" spans="3:6">
       <c r="C797" s="4"/>
       <c r="D797" s="22"/>
-      <c r="E797" s="82"/>
+      <c r="E797" s="83"/>
       <c r="F797" s="6"/>
     </row>
     <row r="798" spans="3:6">
-      <c r="E798" s="82"/>
+      <c r="E798" s="83"/>
       <c r="F798" s="6"/>
     </row>
     <row r="799" spans="3:6">
       <c r="C799" s="4"/>
       <c r="D799" s="22"/>
-      <c r="E799" s="82"/>
+      <c r="E799" s="83"/>
       <c r="F799" s="6"/>
     </row>
     <row r="800" spans="3:6">
       <c r="C800" s="4"/>
       <c r="D800" s="22"/>
-      <c r="E800" s="82"/>
+      <c r="E800" s="83"/>
       <c r="F800" s="6"/>
     </row>
     <row r="801" spans="3:7">
       <c r="C801" s="4"/>
       <c r="D801" s="22"/>
-      <c r="E801" s="82"/>
+      <c r="E801" s="83"/>
       <c r="F801" s="6"/>
     </row>
     <row r="802" spans="3:7">
       <c r="C802" s="4"/>
       <c r="D802" s="22"/>
-      <c r="E802" s="82"/>
+      <c r="E802" s="83"/>
       <c r="F802" s="6"/>
     </row>
     <row r="803" spans="3:7">
-      <c r="E803" s="82"/>
+      <c r="E803" s="83"/>
       <c r="F803" s="6"/>
     </row>
     <row r="804" spans="3:7">
       <c r="C804" s="4"/>
       <c r="D804" s="22"/>
-      <c r="E804" s="82"/>
+      <c r="E804" s="83"/>
       <c r="F804" s="6"/>
     </row>
     <row r="805" spans="3:7">
@@ -31461,968 +32517,968 @@
     <row r="849" spans="3:7">
       <c r="C849" s="2"/>
       <c r="D849" s="20"/>
-      <c r="E849" s="82"/>
+      <c r="E849" s="83"/>
       <c r="F849" s="6"/>
       <c r="G849" s="14"/>
     </row>
     <row r="850" spans="3:7">
       <c r="C850" s="4"/>
       <c r="D850" s="22"/>
-      <c r="E850" s="82"/>
+      <c r="E850" s="83"/>
       <c r="F850" s="6"/>
     </row>
     <row r="851" spans="3:7">
-      <c r="E851" s="82"/>
+      <c r="E851" s="83"/>
       <c r="F851" s="6"/>
       <c r="G851" s="15"/>
     </row>
     <row r="852" spans="3:7">
       <c r="C852" s="2"/>
       <c r="D852" s="20"/>
-      <c r="E852" s="82"/>
+      <c r="E852" s="83"/>
       <c r="F852" s="6"/>
     </row>
     <row r="853" spans="3:7">
       <c r="C853" s="3"/>
       <c r="D853" s="23"/>
-      <c r="E853" s="82"/>
+      <c r="E853" s="83"/>
       <c r="F853" s="6"/>
       <c r="G853" s="14"/>
     </row>
     <row r="854" spans="3:7">
-      <c r="E854" s="82"/>
+      <c r="E854" s="83"/>
       <c r="F854" s="6"/>
     </row>
     <row r="855" spans="3:7">
       <c r="C855" s="2"/>
       <c r="D855" s="20"/>
-      <c r="E855" s="82"/>
+      <c r="E855" s="83"/>
       <c r="F855" s="6"/>
       <c r="G855" s="10"/>
     </row>
     <row r="856" spans="3:7">
       <c r="C856" s="3"/>
       <c r="D856" s="23"/>
-      <c r="E856" s="82"/>
+      <c r="E856" s="83"/>
       <c r="F856" s="6"/>
     </row>
     <row r="857" spans="3:7">
-      <c r="E857" s="82"/>
+      <c r="E857" s="83"/>
       <c r="F857" s="6"/>
       <c r="G857" s="10"/>
     </row>
     <row r="858" spans="3:7">
       <c r="C858" s="2"/>
       <c r="D858" s="20"/>
-      <c r="E858" s="82"/>
+      <c r="E858" s="83"/>
       <c r="F858" s="6"/>
     </row>
     <row r="859" spans="3:7">
       <c r="C859" s="3"/>
       <c r="D859" s="23"/>
-      <c r="E859" s="82"/>
+      <c r="E859" s="83"/>
       <c r="F859" s="6"/>
       <c r="G859" s="10"/>
     </row>
     <row r="860" spans="3:7">
-      <c r="E860" s="82"/>
+      <c r="E860" s="83"/>
       <c r="F860" s="6"/>
     </row>
     <row r="861" spans="3:7">
       <c r="C861" s="2"/>
       <c r="D861" s="20"/>
-      <c r="E861" s="82"/>
+      <c r="E861" s="83"/>
       <c r="F861" s="6"/>
     </row>
     <row r="862" spans="3:7">
       <c r="C862" s="3"/>
       <c r="D862" s="23"/>
-      <c r="E862" s="82"/>
+      <c r="E862" s="83"/>
       <c r="F862" s="6"/>
     </row>
     <row r="863" spans="3:7">
-      <c r="E863" s="82"/>
+      <c r="E863" s="83"/>
       <c r="F863" s="6"/>
     </row>
     <row r="864" spans="3:7">
       <c r="C864" s="2"/>
       <c r="D864" s="20"/>
-      <c r="E864" s="82"/>
+      <c r="E864" s="83"/>
       <c r="F864" s="6"/>
     </row>
     <row r="865" spans="3:7">
       <c r="C865" s="4"/>
       <c r="D865" s="22"/>
-      <c r="E865" s="82"/>
+      <c r="E865" s="83"/>
       <c r="F865" s="6"/>
     </row>
     <row r="866" spans="3:7">
       <c r="C866" s="4"/>
       <c r="D866" s="22"/>
-      <c r="E866" s="82"/>
+      <c r="E866" s="83"/>
       <c r="F866" s="6"/>
     </row>
     <row r="867" spans="3:7">
       <c r="C867" s="4"/>
       <c r="D867" s="22"/>
-      <c r="E867" s="82"/>
+      <c r="E867" s="83"/>
       <c r="F867" s="6"/>
     </row>
     <row r="868" spans="3:7">
       <c r="C868" s="4"/>
       <c r="D868" s="22"/>
-      <c r="E868" s="82"/>
+      <c r="E868" s="83"/>
       <c r="F868" s="6"/>
     </row>
     <row r="869" spans="3:7">
       <c r="C869" s="4"/>
       <c r="D869" s="22"/>
-      <c r="E869" s="82"/>
+      <c r="E869" s="83"/>
       <c r="F869" s="6"/>
     </row>
     <row r="870" spans="3:7">
       <c r="C870" s="2"/>
       <c r="D870" s="20"/>
-      <c r="E870" s="82"/>
+      <c r="E870" s="83"/>
       <c r="F870" s="6"/>
       <c r="G870" s="10"/>
     </row>
     <row r="871" spans="3:7">
       <c r="C871" s="4"/>
       <c r="D871" s="22"/>
-      <c r="E871" s="82"/>
+      <c r="E871" s="83"/>
       <c r="F871" s="6"/>
     </row>
     <row r="872" spans="3:7">
       <c r="C872" s="4"/>
       <c r="D872" s="22"/>
-      <c r="E872" s="82"/>
+      <c r="E872" s="83"/>
       <c r="F872" s="6"/>
       <c r="G872" s="10"/>
     </row>
     <row r="873" spans="3:7">
       <c r="C873" s="4"/>
       <c r="D873" s="22"/>
-      <c r="E873" s="82"/>
+      <c r="E873" s="83"/>
       <c r="F873" s="6"/>
     </row>
     <row r="874" spans="3:7">
-      <c r="E874" s="82"/>
+      <c r="E874" s="83"/>
       <c r="F874" s="6"/>
     </row>
     <row r="875" spans="3:7">
       <c r="C875" s="4"/>
       <c r="D875" s="22"/>
-      <c r="E875" s="82"/>
+      <c r="E875" s="83"/>
       <c r="F875" s="6"/>
     </row>
     <row r="876" spans="3:7">
-      <c r="E876" s="82"/>
+      <c r="E876" s="83"/>
       <c r="F876" s="6"/>
     </row>
     <row r="877" spans="3:7">
       <c r="C877" s="2"/>
       <c r="D877" s="20"/>
-      <c r="E877" s="82"/>
+      <c r="E877" s="83"/>
       <c r="F877" s="6"/>
     </row>
     <row r="878" spans="3:7">
       <c r="C878" s="4"/>
       <c r="D878" s="22"/>
-      <c r="E878" s="82"/>
+      <c r="E878" s="83"/>
       <c r="F878" s="6"/>
     </row>
     <row r="879" spans="3:7">
       <c r="C879" s="4"/>
       <c r="D879" s="22"/>
-      <c r="E879" s="82"/>
+      <c r="E879" s="83"/>
       <c r="F879" s="6"/>
     </row>
     <row r="880" spans="3:7">
       <c r="C880" s="4"/>
       <c r="D880" s="22"/>
-      <c r="E880" s="82"/>
+      <c r="E880" s="83"/>
       <c r="F880" s="6"/>
     </row>
     <row r="881" spans="3:6">
-      <c r="E881" s="82"/>
+      <c r="E881" s="83"/>
       <c r="F881" s="6"/>
     </row>
     <row r="882" spans="3:6">
       <c r="C882" s="2"/>
       <c r="D882" s="20"/>
-      <c r="E882" s="82"/>
+      <c r="E882" s="83"/>
       <c r="F882" s="6"/>
     </row>
     <row r="883" spans="3:6">
       <c r="C883" s="4"/>
       <c r="D883" s="22"/>
-      <c r="E883" s="82"/>
+      <c r="E883" s="83"/>
       <c r="F883" s="6"/>
     </row>
     <row r="884" spans="3:6">
       <c r="C884" s="4"/>
       <c r="D884" s="22"/>
-      <c r="E884" s="82"/>
+      <c r="E884" s="83"/>
       <c r="F884" s="6"/>
     </row>
     <row r="885" spans="3:6">
       <c r="C885" s="4"/>
       <c r="D885" s="22"/>
-      <c r="E885" s="82"/>
+      <c r="E885" s="83"/>
       <c r="F885" s="6"/>
     </row>
     <row r="886" spans="3:6">
-      <c r="E886" s="82"/>
+      <c r="E886" s="83"/>
       <c r="F886" s="6"/>
     </row>
     <row r="887" spans="3:6">
       <c r="C887" s="2"/>
       <c r="D887" s="20"/>
-      <c r="E887" s="82"/>
+      <c r="E887" s="83"/>
       <c r="F887" s="6"/>
     </row>
     <row r="888" spans="3:6">
       <c r="C888" s="4"/>
       <c r="D888" s="22"/>
-      <c r="E888" s="82"/>
+      <c r="E888" s="83"/>
       <c r="F888" s="6"/>
     </row>
     <row r="889" spans="3:6">
       <c r="C889" s="4"/>
       <c r="D889" s="22"/>
-      <c r="E889" s="82"/>
+      <c r="E889" s="83"/>
       <c r="F889" s="6"/>
     </row>
     <row r="890" spans="3:6">
       <c r="C890" s="4"/>
       <c r="D890" s="22"/>
-      <c r="E890" s="82"/>
+      <c r="E890" s="83"/>
       <c r="F890" s="6"/>
     </row>
     <row r="891" spans="3:6">
-      <c r="E891" s="82"/>
+      <c r="E891" s="83"/>
       <c r="F891" s="6"/>
     </row>
     <row r="892" spans="3:6">
       <c r="C892" s="2"/>
       <c r="D892" s="20"/>
-      <c r="E892" s="82"/>
+      <c r="E892" s="83"/>
       <c r="F892" s="6"/>
     </row>
     <row r="893" spans="3:6">
       <c r="C893" s="4"/>
       <c r="D893" s="22"/>
-      <c r="E893" s="82"/>
+      <c r="E893" s="83"/>
       <c r="F893" s="6"/>
     </row>
     <row r="894" spans="3:6">
       <c r="C894" s="4"/>
       <c r="D894" s="22"/>
-      <c r="E894" s="82"/>
+      <c r="E894" s="83"/>
       <c r="F894" s="6"/>
     </row>
     <row r="895" spans="3:6">
       <c r="C895" s="4"/>
       <c r="D895" s="22"/>
-      <c r="E895" s="82"/>
+      <c r="E895" s="83"/>
       <c r="F895" s="6"/>
     </row>
     <row r="896" spans="3:6">
-      <c r="E896" s="82"/>
+      <c r="E896" s="83"/>
       <c r="F896" s="6"/>
     </row>
     <row r="897" spans="3:7">
       <c r="C897" s="4"/>
       <c r="D897" s="22"/>
-      <c r="E897" s="82"/>
+      <c r="E897" s="83"/>
       <c r="F897" s="6"/>
     </row>
     <row r="898" spans="3:7">
-      <c r="E898" s="82"/>
+      <c r="E898" s="83"/>
       <c r="F898" s="6"/>
       <c r="G898" s="13"/>
     </row>
     <row r="899" spans="3:7">
       <c r="C899" s="4"/>
       <c r="D899" s="22"/>
-      <c r="E899" s="82"/>
+      <c r="E899" s="83"/>
       <c r="F899" s="6"/>
     </row>
     <row r="900" spans="3:7">
-      <c r="E900" s="82"/>
+      <c r="E900" s="83"/>
       <c r="F900" s="6"/>
       <c r="G900" s="10"/>
     </row>
     <row r="901" spans="3:7">
       <c r="C901" s="2"/>
       <c r="D901" s="20"/>
-      <c r="E901" s="82"/>
+      <c r="E901" s="83"/>
       <c r="F901" s="6"/>
     </row>
     <row r="902" spans="3:7">
       <c r="C902" s="3"/>
       <c r="D902" s="23"/>
-      <c r="E902" s="82"/>
+      <c r="E902" s="83"/>
       <c r="F902" s="6"/>
       <c r="G902" s="14"/>
     </row>
     <row r="903" spans="3:7">
-      <c r="E903" s="82"/>
+      <c r="E903" s="83"/>
       <c r="F903" s="6"/>
     </row>
     <row r="904" spans="3:7">
       <c r="C904" s="2"/>
       <c r="D904" s="20"/>
-      <c r="E904" s="82"/>
+      <c r="E904" s="83"/>
       <c r="F904" s="6"/>
       <c r="G904" s="10"/>
     </row>
     <row r="905" spans="3:7">
       <c r="C905" s="4"/>
       <c r="D905" s="22"/>
-      <c r="E905" s="82"/>
+      <c r="E905" s="83"/>
       <c r="F905" s="6"/>
     </row>
     <row r="906" spans="3:7">
       <c r="C906" s="4"/>
       <c r="D906" s="22"/>
-      <c r="E906" s="82"/>
+      <c r="E906" s="83"/>
       <c r="F906" s="6"/>
     </row>
     <row r="907" spans="3:7">
       <c r="C907" s="4"/>
       <c r="D907" s="22"/>
-      <c r="E907" s="82"/>
+      <c r="E907" s="83"/>
       <c r="F907" s="6"/>
     </row>
     <row r="908" spans="3:7">
       <c r="C908" s="2"/>
       <c r="D908" s="20"/>
-      <c r="E908" s="82"/>
+      <c r="E908" s="83"/>
       <c r="F908" s="6"/>
       <c r="G908" s="10"/>
     </row>
     <row r="909" spans="3:7">
-      <c r="E909" s="82"/>
+      <c r="E909" s="83"/>
       <c r="F909" s="6"/>
     </row>
     <row r="910" spans="3:7">
       <c r="C910" s="3"/>
       <c r="D910" s="23"/>
-      <c r="E910" s="82"/>
+      <c r="E910" s="83"/>
       <c r="F910" s="6"/>
       <c r="G910" s="10"/>
     </row>
     <row r="911" spans="3:7">
-      <c r="E911" s="82"/>
+      <c r="E911" s="83"/>
       <c r="F911" s="6"/>
     </row>
     <row r="912" spans="3:7">
       <c r="C912" s="2"/>
       <c r="D912" s="20"/>
-      <c r="E912" s="82"/>
+      <c r="E912" s="83"/>
       <c r="F912" s="6"/>
     </row>
     <row r="913" spans="3:7">
-      <c r="E913" s="82"/>
+      <c r="E913" s="83"/>
       <c r="F913" s="6"/>
     </row>
     <row r="914" spans="3:7">
       <c r="C914" s="4"/>
       <c r="D914" s="22"/>
-      <c r="E914" s="82"/>
+      <c r="E914" s="83"/>
       <c r="F914" s="6"/>
     </row>
     <row r="915" spans="3:7">
       <c r="C915" s="4"/>
       <c r="D915" s="22"/>
-      <c r="E915" s="82"/>
+      <c r="E915" s="83"/>
       <c r="F915" s="6"/>
     </row>
     <row r="916" spans="3:7">
       <c r="C916" s="4"/>
       <c r="D916" s="22"/>
-      <c r="E916" s="82"/>
+      <c r="E916" s="83"/>
       <c r="F916" s="6"/>
     </row>
     <row r="917" spans="3:7">
-      <c r="E917" s="82"/>
+      <c r="E917" s="83"/>
       <c r="F917" s="6"/>
     </row>
     <row r="918" spans="3:7">
       <c r="C918" s="2"/>
       <c r="D918" s="20"/>
-      <c r="E918" s="82"/>
+      <c r="E918" s="83"/>
       <c r="F918" s="6"/>
     </row>
     <row r="919" spans="3:7">
-      <c r="E919" s="82"/>
+      <c r="E919" s="83"/>
       <c r="F919" s="6"/>
     </row>
     <row r="920" spans="3:7">
       <c r="C920" s="4"/>
       <c r="D920" s="22"/>
-      <c r="E920" s="82"/>
+      <c r="E920" s="83"/>
       <c r="F920" s="6"/>
     </row>
     <row r="921" spans="3:7">
       <c r="C921" s="4"/>
       <c r="D921" s="22"/>
-      <c r="E921" s="82"/>
+      <c r="E921" s="83"/>
       <c r="F921" s="6"/>
     </row>
     <row r="922" spans="3:7">
       <c r="C922" s="4"/>
       <c r="D922" s="22"/>
-      <c r="E922" s="82"/>
+      <c r="E922" s="83"/>
       <c r="F922" s="6"/>
     </row>
     <row r="923" spans="3:7">
-      <c r="E923" s="82"/>
+      <c r="E923" s="83"/>
       <c r="F923" s="6"/>
     </row>
     <row r="924" spans="3:7">
       <c r="C924" s="4"/>
       <c r="D924" s="22"/>
-      <c r="E924" s="82"/>
+      <c r="E924" s="83"/>
       <c r="F924" s="6"/>
     </row>
     <row r="925" spans="3:7">
       <c r="C925" s="2"/>
       <c r="D925" s="20"/>
-      <c r="E925" s="82"/>
+      <c r="E925" s="83"/>
       <c r="F925" s="6"/>
       <c r="G925" s="13"/>
     </row>
     <row r="926" spans="3:7">
-      <c r="E926" s="82"/>
+      <c r="E926" s="83"/>
       <c r="F926" s="6"/>
     </row>
     <row r="927" spans="3:7">
       <c r="C927" s="3"/>
       <c r="D927" s="23"/>
-      <c r="E927" s="82"/>
+      <c r="E927" s="83"/>
       <c r="F927" s="6"/>
       <c r="G927" s="10"/>
     </row>
     <row r="928" spans="3:7">
       <c r="C928" s="2"/>
       <c r="D928" s="20"/>
-      <c r="E928" s="82"/>
+      <c r="E928" s="83"/>
       <c r="F928" s="6"/>
       <c r="G928" s="10"/>
     </row>
     <row r="929" spans="3:7">
-      <c r="E929" s="82"/>
+      <c r="E929" s="83"/>
       <c r="F929" s="6"/>
     </row>
     <row r="930" spans="3:7">
       <c r="C930" s="3"/>
       <c r="D930" s="23"/>
-      <c r="E930" s="82"/>
+      <c r="E930" s="83"/>
       <c r="F930" s="6"/>
       <c r="G930" s="10"/>
     </row>
     <row r="931" spans="3:7">
-      <c r="E931" s="82"/>
+      <c r="E931" s="83"/>
       <c r="F931" s="6"/>
     </row>
     <row r="932" spans="3:7">
       <c r="C932" s="2"/>
       <c r="D932" s="20"/>
-      <c r="E932" s="82"/>
+      <c r="E932" s="83"/>
       <c r="F932" s="6"/>
     </row>
     <row r="933" spans="3:7">
-      <c r="E933" s="82"/>
+      <c r="E933" s="83"/>
       <c r="F933" s="6"/>
     </row>
     <row r="934" spans="3:7">
       <c r="C934" s="4"/>
       <c r="D934" s="22"/>
-      <c r="E934" s="82"/>
+      <c r="E934" s="83"/>
       <c r="F934" s="6"/>
     </row>
     <row r="935" spans="3:7">
       <c r="C935" s="4"/>
       <c r="D935" s="22"/>
-      <c r="E935" s="82"/>
+      <c r="E935" s="83"/>
       <c r="F935" s="6"/>
     </row>
     <row r="936" spans="3:7">
       <c r="C936" s="4"/>
       <c r="D936" s="22"/>
-      <c r="E936" s="82"/>
+      <c r="E936" s="83"/>
       <c r="F936" s="6"/>
     </row>
     <row r="937" spans="3:7">
-      <c r="E937" s="82"/>
+      <c r="E937" s="83"/>
       <c r="F937" s="6"/>
     </row>
     <row r="938" spans="3:7">
       <c r="C938" s="2"/>
       <c r="D938" s="20"/>
-      <c r="E938" s="82"/>
+      <c r="E938" s="83"/>
       <c r="F938" s="6"/>
     </row>
     <row r="939" spans="3:7">
-      <c r="E939" s="82"/>
+      <c r="E939" s="83"/>
       <c r="F939" s="6"/>
     </row>
     <row r="940" spans="3:7">
       <c r="C940" s="4"/>
       <c r="D940" s="22"/>
-      <c r="E940" s="82"/>
+      <c r="E940" s="83"/>
       <c r="F940" s="6"/>
     </row>
     <row r="941" spans="3:7">
       <c r="C941" s="4"/>
       <c r="D941" s="22"/>
-      <c r="E941" s="82"/>
+      <c r="E941" s="83"/>
       <c r="F941" s="6"/>
     </row>
     <row r="942" spans="3:7">
       <c r="C942" s="4"/>
       <c r="D942" s="22"/>
-      <c r="E942" s="82"/>
+      <c r="E942" s="83"/>
       <c r="F942" s="6"/>
     </row>
     <row r="943" spans="3:7">
       <c r="C943" s="2"/>
       <c r="D943" s="20"/>
-      <c r="E943" s="82"/>
+      <c r="E943" s="83"/>
       <c r="F943" s="6"/>
       <c r="G943" s="10"/>
     </row>
     <row r="944" spans="3:7">
-      <c r="E944" s="82"/>
+      <c r="E944" s="83"/>
       <c r="F944" s="6"/>
     </row>
     <row r="945" spans="3:7">
       <c r="C945" s="3"/>
       <c r="D945" s="23"/>
-      <c r="E945" s="82"/>
+      <c r="E945" s="83"/>
       <c r="F945" s="6"/>
       <c r="G945" s="10"/>
     </row>
     <row r="946" spans="3:7">
-      <c r="E946" s="82"/>
+      <c r="E946" s="83"/>
       <c r="F946" s="6"/>
     </row>
     <row r="947" spans="3:7">
       <c r="C947" s="2"/>
       <c r="D947" s="20"/>
-      <c r="E947" s="82"/>
+      <c r="E947" s="83"/>
       <c r="F947" s="6"/>
     </row>
     <row r="948" spans="3:7">
-      <c r="E948" s="82"/>
+      <c r="E948" s="83"/>
       <c r="F948" s="6"/>
     </row>
     <row r="949" spans="3:7">
       <c r="C949" s="4"/>
       <c r="D949" s="22"/>
-      <c r="E949" s="82"/>
+      <c r="E949" s="83"/>
       <c r="F949" s="6"/>
     </row>
     <row r="950" spans="3:7">
       <c r="C950" s="4"/>
       <c r="D950" s="22"/>
-      <c r="E950" s="82"/>
+      <c r="E950" s="83"/>
       <c r="F950" s="6"/>
     </row>
     <row r="951" spans="3:7">
       <c r="C951" s="4"/>
       <c r="D951" s="22"/>
-      <c r="E951" s="82"/>
+      <c r="E951" s="83"/>
       <c r="F951" s="6"/>
     </row>
     <row r="952" spans="3:7">
-      <c r="E952" s="82"/>
+      <c r="E952" s="83"/>
       <c r="F952" s="6"/>
     </row>
     <row r="953" spans="3:7">
       <c r="C953" s="2"/>
       <c r="D953" s="20"/>
-      <c r="E953" s="82"/>
+      <c r="E953" s="83"/>
       <c r="F953" s="6"/>
     </row>
     <row r="954" spans="3:7">
-      <c r="E954" s="82"/>
+      <c r="E954" s="83"/>
       <c r="F954" s="6"/>
     </row>
     <row r="955" spans="3:7">
       <c r="C955" s="4"/>
       <c r="D955" s="22"/>
-      <c r="E955" s="82"/>
+      <c r="E955" s="83"/>
       <c r="F955" s="6"/>
     </row>
     <row r="956" spans="3:7">
       <c r="C956" s="4"/>
       <c r="D956" s="22"/>
-      <c r="E956" s="82"/>
+      <c r="E956" s="83"/>
       <c r="F956" s="6"/>
     </row>
     <row r="957" spans="3:7">
       <c r="C957" s="4"/>
       <c r="D957" s="22"/>
-      <c r="E957" s="82"/>
+      <c r="E957" s="83"/>
       <c r="F957" s="6"/>
     </row>
     <row r="958" spans="3:7">
       <c r="C958" s="2"/>
       <c r="D958" s="20"/>
-      <c r="E958" s="82"/>
+      <c r="E958" s="83"/>
       <c r="F958" s="6"/>
       <c r="G958" s="13"/>
     </row>
     <row r="959" spans="3:7">
-      <c r="E959" s="82"/>
+      <c r="E959" s="83"/>
       <c r="F959" s="6"/>
     </row>
     <row r="960" spans="3:7">
       <c r="C960" s="3"/>
       <c r="D960" s="23"/>
-      <c r="E960" s="82"/>
+      <c r="E960" s="83"/>
       <c r="F960" s="6"/>
       <c r="G960" s="10"/>
     </row>
     <row r="961" spans="3:7">
-      <c r="E961" s="82"/>
+      <c r="E961" s="83"/>
       <c r="F961" s="6"/>
       <c r="G961" s="13"/>
     </row>
     <row r="962" spans="3:7">
       <c r="C962" s="2"/>
       <c r="D962" s="20"/>
-      <c r="E962" s="82"/>
+      <c r="E962" s="83"/>
       <c r="F962" s="6"/>
     </row>
     <row r="963" spans="3:7">
-      <c r="E963" s="82"/>
+      <c r="E963" s="83"/>
       <c r="F963" s="6"/>
       <c r="G963" s="10"/>
     </row>
     <row r="964" spans="3:7">
       <c r="C964" s="4"/>
       <c r="D964" s="22"/>
-      <c r="E964" s="82"/>
+      <c r="E964" s="83"/>
       <c r="F964" s="6"/>
     </row>
     <row r="965" spans="3:7">
       <c r="C965" s="4"/>
       <c r="D965" s="22"/>
-      <c r="E965" s="82"/>
+      <c r="E965" s="83"/>
       <c r="F965" s="6"/>
     </row>
     <row r="966" spans="3:7">
       <c r="C966" s="4"/>
       <c r="D966" s="22"/>
-      <c r="E966" s="82"/>
+      <c r="E966" s="83"/>
       <c r="F966" s="6"/>
     </row>
     <row r="967" spans="3:7">
       <c r="C967" s="4"/>
       <c r="D967" s="22"/>
-      <c r="E967" s="82"/>
+      <c r="E967" s="83"/>
       <c r="F967" s="6"/>
     </row>
     <row r="968" spans="3:7">
       <c r="C968" s="2"/>
       <c r="D968" s="20"/>
-      <c r="E968" s="82"/>
+      <c r="E968" s="83"/>
       <c r="F968" s="6"/>
       <c r="G968" s="13"/>
     </row>
     <row r="969" spans="3:7">
-      <c r="E969" s="82"/>
+      <c r="E969" s="83"/>
       <c r="F969" s="6"/>
     </row>
     <row r="970" spans="3:7">
       <c r="C970" s="4"/>
       <c r="D970" s="22"/>
-      <c r="E970" s="82"/>
+      <c r="E970" s="83"/>
       <c r="F970" s="6"/>
       <c r="G970" s="10"/>
     </row>
     <row r="971" spans="3:7">
-      <c r="E971" s="82"/>
+      <c r="E971" s="83"/>
       <c r="F971" s="6"/>
     </row>
     <row r="972" spans="3:7">
       <c r="C972" s="2"/>
       <c r="D972" s="20"/>
-      <c r="E972" s="82"/>
+      <c r="E972" s="83"/>
       <c r="F972" s="6"/>
     </row>
     <row r="973" spans="3:7">
-      <c r="E973" s="82"/>
+      <c r="E973" s="83"/>
       <c r="F973" s="6"/>
     </row>
     <row r="974" spans="3:7">
       <c r="C974" s="4"/>
       <c r="D974" s="22"/>
-      <c r="E974" s="82"/>
+      <c r="E974" s="83"/>
       <c r="F974" s="6"/>
     </row>
     <row r="975" spans="3:7">
       <c r="C975" s="4"/>
       <c r="D975" s="22"/>
-      <c r="E975" s="82"/>
+      <c r="E975" s="83"/>
       <c r="F975" s="6"/>
     </row>
     <row r="976" spans="3:7">
       <c r="C976" s="4"/>
       <c r="D976" s="22"/>
-      <c r="E976" s="82"/>
+      <c r="E976" s="83"/>
       <c r="F976" s="6"/>
     </row>
     <row r="977" spans="3:7">
       <c r="C977" s="4"/>
       <c r="D977" s="22"/>
-      <c r="E977" s="82"/>
+      <c r="E977" s="83"/>
       <c r="F977" s="6"/>
     </row>
     <row r="978" spans="3:7">
       <c r="C978" s="4"/>
       <c r="D978" s="22"/>
-      <c r="E978" s="82"/>
+      <c r="E978" s="83"/>
       <c r="F978" s="6"/>
     </row>
     <row r="979" spans="3:7">
       <c r="C979" s="4"/>
       <c r="D979" s="22"/>
-      <c r="E979" s="82"/>
+      <c r="E979" s="83"/>
       <c r="F979" s="6"/>
     </row>
     <row r="980" spans="3:7">
       <c r="C980" s="4"/>
       <c r="D980" s="22"/>
-      <c r="E980" s="82"/>
+      <c r="E980" s="83"/>
       <c r="F980" s="6"/>
     </row>
     <row r="981" spans="3:7">
       <c r="C981" s="4"/>
       <c r="D981" s="22"/>
-      <c r="E981" s="82"/>
+      <c r="E981" s="83"/>
       <c r="F981" s="6"/>
     </row>
     <row r="982" spans="3:7">
-      <c r="E982" s="82"/>
+      <c r="E982" s="83"/>
       <c r="F982" s="6"/>
     </row>
     <row r="983" spans="3:7">
       <c r="C983" s="2"/>
       <c r="D983" s="20"/>
-      <c r="E983" s="82"/>
+      <c r="E983" s="83"/>
       <c r="F983" s="6"/>
     </row>
     <row r="984" spans="3:7">
       <c r="C984" s="3"/>
       <c r="D984" s="23"/>
-      <c r="E984" s="82"/>
+      <c r="E984" s="83"/>
       <c r="F984" s="6"/>
     </row>
     <row r="985" spans="3:7">
       <c r="C985" s="2"/>
       <c r="D985" s="20"/>
-      <c r="E985" s="82"/>
+      <c r="E985" s="83"/>
       <c r="F985" s="6"/>
       <c r="G985" s="13"/>
     </row>
     <row r="986" spans="3:7">
-      <c r="E986" s="82"/>
+      <c r="E986" s="83"/>
       <c r="F986" s="6"/>
     </row>
     <row r="987" spans="3:7">
       <c r="C987" s="4"/>
       <c r="D987" s="22"/>
-      <c r="E987" s="82"/>
+      <c r="E987" s="83"/>
       <c r="F987" s="6"/>
       <c r="G987" s="10"/>
     </row>
     <row r="988" spans="3:7">
-      <c r="E988" s="82"/>
+      <c r="E988" s="83"/>
       <c r="F988" s="6"/>
     </row>
     <row r="989" spans="3:7">
       <c r="C989" s="2"/>
       <c r="D989" s="20"/>
-      <c r="E989" s="82"/>
+      <c r="E989" s="83"/>
       <c r="F989" s="6"/>
     </row>
     <row r="990" spans="3:7">
-      <c r="E990" s="82"/>
+      <c r="E990" s="83"/>
       <c r="F990" s="6"/>
     </row>
     <row r="991" spans="3:7">
       <c r="C991" s="4"/>
       <c r="D991" s="22"/>
-      <c r="E991" s="82"/>
+      <c r="E991" s="83"/>
       <c r="F991" s="6"/>
     </row>
     <row r="992" spans="3:7">
       <c r="C992" s="4"/>
       <c r="D992" s="22"/>
-      <c r="E992" s="82"/>
+      <c r="E992" s="83"/>
       <c r="F992" s="6"/>
     </row>
     <row r="993" spans="3:7">
       <c r="C993" s="4"/>
       <c r="D993" s="22"/>
-      <c r="E993" s="82"/>
+      <c r="E993" s="83"/>
       <c r="F993" s="6"/>
     </row>
     <row r="994" spans="3:7">
       <c r="C994" s="4"/>
       <c r="D994" s="22"/>
-      <c r="E994" s="82"/>
+      <c r="E994" s="83"/>
       <c r="F994" s="6"/>
     </row>
     <row r="995" spans="3:7">
-      <c r="E995" s="82"/>
+      <c r="E995" s="83"/>
       <c r="F995" s="6"/>
     </row>
     <row r="996" spans="3:7">
       <c r="C996" s="2"/>
       <c r="D996" s="20"/>
-      <c r="E996" s="82"/>
+      <c r="E996" s="83"/>
       <c r="F996" s="6"/>
     </row>
     <row r="997" spans="3:7">
-      <c r="E997" s="82"/>
+      <c r="E997" s="83"/>
       <c r="F997" s="6"/>
     </row>
     <row r="998" spans="3:7">
       <c r="C998" s="4"/>
       <c r="D998" s="22"/>
-      <c r="E998" s="82"/>
+      <c r="E998" s="83"/>
       <c r="F998" s="6"/>
     </row>
     <row r="999" spans="3:7">
       <c r="C999" s="4"/>
       <c r="D999" s="22"/>
-      <c r="E999" s="82"/>
+      <c r="E999" s="83"/>
       <c r="F999" s="6"/>
     </row>
     <row r="1000" spans="3:7">
-      <c r="E1000" s="82"/>
+      <c r="E1000" s="83"/>
       <c r="F1000" s="6"/>
     </row>
     <row r="1001" spans="3:7">
       <c r="C1001" s="2"/>
       <c r="D1001" s="20"/>
-      <c r="E1001" s="82"/>
+      <c r="E1001" s="83"/>
       <c r="F1001" s="6"/>
     </row>
     <row r="1002" spans="3:7">
-      <c r="E1002" s="82"/>
+      <c r="E1002" s="83"/>
       <c r="F1002" s="6"/>
     </row>
     <row r="1003" spans="3:7">
       <c r="C1003" s="4"/>
       <c r="D1003" s="22"/>
-      <c r="E1003" s="82"/>
+      <c r="E1003" s="83"/>
       <c r="F1003" s="6"/>
     </row>
     <row r="1004" spans="3:7">
       <c r="C1004" s="4"/>
       <c r="D1004" s="22"/>
-      <c r="E1004" s="82"/>
+      <c r="E1004" s="83"/>
       <c r="F1004" s="6"/>
     </row>
     <row r="1005" spans="3:7">
       <c r="C1005" s="4"/>
       <c r="D1005" s="22"/>
-      <c r="E1005" s="82"/>
+      <c r="E1005" s="83"/>
       <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="3:7">
       <c r="C1006" s="4"/>
       <c r="D1006" s="22"/>
-      <c r="E1006" s="82"/>
+      <c r="E1006" s="83"/>
       <c r="F1006" s="6"/>
     </row>
     <row r="1007" spans="3:7">
-      <c r="E1007" s="82"/>
+      <c r="E1007" s="83"/>
       <c r="F1007" s="6"/>
     </row>
     <row r="1008" spans="3:7">
       <c r="C1008" s="2"/>
       <c r="D1008" s="20"/>
-      <c r="E1008" s="82"/>
+      <c r="E1008" s="83"/>
       <c r="F1008" s="6"/>
       <c r="G1008" s="13"/>
     </row>
     <row r="1009" spans="3:7">
-      <c r="E1009" s="82"/>
+      <c r="E1009" s="83"/>
       <c r="F1009" s="6"/>
     </row>
     <row r="1010" spans="3:7">
       <c r="C1010" s="4"/>
       <c r="D1010" s="22"/>
-      <c r="E1010" s="82"/>
+      <c r="E1010" s="83"/>
       <c r="F1010" s="6"/>
       <c r="G1010" s="10"/>
     </row>
     <row r="1011" spans="3:7">
-      <c r="E1011" s="82"/>
+      <c r="E1011" s="83"/>
       <c r="F1011" s="6"/>
     </row>
     <row r="1012" spans="3:7">
       <c r="C1012" s="4"/>
       <c r="D1012" s="22"/>
-      <c r="E1012" s="82"/>
+      <c r="E1012" s="83"/>
       <c r="F1012" s="6"/>
       <c r="G1012" s="10"/>
     </row>
     <row r="1013" spans="3:7">
       <c r="C1013" s="4"/>
       <c r="D1013" s="22"/>
-      <c r="E1013" s="82"/>
+      <c r="E1013" s="83"/>
       <c r="F1013" s="6"/>
     </row>
     <row r="1014" spans="3:7">
-      <c r="E1014" s="82"/>
+      <c r="E1014" s="83"/>
       <c r="F1014" s="6"/>
     </row>
     <row r="1015" spans="3:7">
       <c r="C1015" s="2"/>
       <c r="D1015" s="20"/>
-      <c r="E1015" s="82"/>
+      <c r="E1015" s="83"/>
       <c r="F1015" s="6"/>
     </row>
     <row r="1016" spans="3:7">
-      <c r="E1016" s="82"/>
+      <c r="E1016" s="83"/>
       <c r="F1016" s="6"/>
     </row>
     <row r="1017" spans="3:7">
       <c r="C1017" s="4"/>
       <c r="D1017" s="22"/>
-      <c r="E1017" s="82"/>
+      <c r="E1017" s="83"/>
       <c r="F1017" s="6"/>
     </row>
     <row r="1018" spans="3:7">
       <c r="C1018" s="4"/>
       <c r="D1018" s="22"/>
-      <c r="E1018" s="82"/>
+      <c r="E1018" s="83"/>
       <c r="F1018" s="6"/>
     </row>
     <row r="1019" spans="3:7">
       <c r="C1019" s="4"/>
       <c r="D1019" s="22"/>
-      <c r="E1019" s="82"/>
+      <c r="E1019" s="83"/>
       <c r="F1019" s="6"/>
     </row>
     <row r="1020" spans="3:7">
       <c r="C1020" s="4"/>
       <c r="D1020" s="22"/>
-      <c r="E1020" s="82"/>
+      <c r="E1020" s="83"/>
       <c r="F1020" s="6"/>
     </row>
     <row r="1021" spans="3:7">
-      <c r="E1021" s="82"/>
+      <c r="E1021" s="83"/>
       <c r="F1021" s="6"/>
     </row>
     <row r="1022" spans="3:7">
@@ -32466,255 +33522,255 @@
     <row r="1033" spans="3:7">
       <c r="C1033" s="2"/>
       <c r="D1033" s="20"/>
-      <c r="E1033" s="82"/>
+      <c r="E1033" s="83"/>
       <c r="F1033" s="6"/>
       <c r="G1033" s="13"/>
     </row>
     <row r="1034" spans="3:7">
-      <c r="E1034" s="82"/>
+      <c r="E1034" s="83"/>
       <c r="F1034" s="6"/>
     </row>
     <row r="1035" spans="3:7">
       <c r="C1035" s="4"/>
       <c r="D1035" s="22"/>
-      <c r="E1035" s="82"/>
+      <c r="E1035" s="83"/>
       <c r="F1035" s="6"/>
       <c r="G1035" s="10"/>
     </row>
     <row r="1036" spans="3:7">
-      <c r="E1036" s="82"/>
+      <c r="E1036" s="83"/>
       <c r="F1036" s="6"/>
     </row>
     <row r="1037" spans="3:7">
       <c r="C1037" s="2"/>
       <c r="D1037" s="20"/>
-      <c r="E1037" s="82"/>
+      <c r="E1037" s="83"/>
       <c r="F1037" s="6"/>
     </row>
     <row r="1038" spans="3:7">
       <c r="C1038" s="2"/>
       <c r="D1038" s="20"/>
-      <c r="E1038" s="82"/>
+      <c r="E1038" s="83"/>
       <c r="F1038" s="6"/>
     </row>
     <row r="1039" spans="3:7">
       <c r="C1039" s="2"/>
       <c r="D1039" s="20"/>
-      <c r="E1039" s="82"/>
+      <c r="E1039" s="83"/>
       <c r="F1039" s="6"/>
     </row>
     <row r="1040" spans="3:7">
-      <c r="E1040" s="82"/>
+      <c r="E1040" s="83"/>
       <c r="F1040" s="6"/>
     </row>
     <row r="1041" spans="3:7">
       <c r="C1041" s="2"/>
       <c r="D1041" s="20"/>
-      <c r="E1041" s="82"/>
+      <c r="E1041" s="83"/>
       <c r="F1041" s="6"/>
       <c r="G1041" s="13"/>
     </row>
     <row r="1042" spans="3:7">
-      <c r="E1042" s="82"/>
+      <c r="E1042" s="83"/>
       <c r="F1042" s="6"/>
     </row>
     <row r="1043" spans="3:7">
       <c r="C1043" s="2"/>
       <c r="D1043" s="20"/>
-      <c r="E1043" s="82"/>
+      <c r="E1043" s="83"/>
       <c r="F1043" s="6"/>
       <c r="G1043" s="10"/>
     </row>
     <row r="1044" spans="3:7">
-      <c r="E1044" s="82"/>
+      <c r="E1044" s="83"/>
       <c r="F1044" s="6"/>
     </row>
     <row r="1045" spans="3:7">
       <c r="C1045" s="4"/>
       <c r="D1045" s="22"/>
-      <c r="E1045" s="82"/>
+      <c r="E1045" s="83"/>
       <c r="F1045" s="6"/>
     </row>
     <row r="1046" spans="3:7">
       <c r="C1046" s="2"/>
       <c r="D1046" s="20"/>
-      <c r="E1046" s="82"/>
+      <c r="E1046" s="83"/>
       <c r="F1046" s="6"/>
     </row>
     <row r="1047" spans="3:7">
-      <c r="E1047" s="82"/>
+      <c r="E1047" s="83"/>
       <c r="F1047" s="6"/>
     </row>
     <row r="1048" spans="3:7">
       <c r="C1048" s="4"/>
       <c r="D1048" s="22"/>
-      <c r="E1048" s="82"/>
+      <c r="E1048" s="83"/>
       <c r="F1048" s="6"/>
     </row>
     <row r="1049" spans="3:7">
       <c r="C1049" s="2"/>
       <c r="D1049" s="20"/>
-      <c r="E1049" s="82"/>
+      <c r="E1049" s="83"/>
       <c r="F1049" s="6"/>
     </row>
     <row r="1050" spans="3:7">
-      <c r="E1050" s="82"/>
+      <c r="E1050" s="83"/>
       <c r="F1050" s="6"/>
     </row>
     <row r="1051" spans="3:7">
       <c r="C1051" s="4"/>
       <c r="D1051" s="22"/>
-      <c r="E1051" s="82"/>
+      <c r="E1051" s="83"/>
       <c r="F1051" s="6"/>
     </row>
     <row r="1052" spans="3:7">
-      <c r="E1052" s="82"/>
+      <c r="E1052" s="83"/>
       <c r="F1052" s="6"/>
     </row>
     <row r="1053" spans="3:7">
       <c r="C1053" s="2"/>
       <c r="D1053" s="20"/>
-      <c r="E1053" s="82"/>
+      <c r="E1053" s="83"/>
       <c r="F1053" s="6"/>
       <c r="G1053" s="13"/>
     </row>
     <row r="1054" spans="3:7">
       <c r="C1054" s="3"/>
       <c r="D1054" s="23"/>
-      <c r="E1054" s="82"/>
+      <c r="E1054" s="83"/>
       <c r="F1054" s="6"/>
     </row>
     <row r="1055" spans="3:7">
-      <c r="E1055" s="82"/>
+      <c r="E1055" s="83"/>
       <c r="F1055" s="6"/>
       <c r="G1055" s="10"/>
     </row>
     <row r="1056" spans="3:7">
       <c r="C1056" s="2"/>
       <c r="D1056" s="20"/>
-      <c r="E1056" s="82"/>
+      <c r="E1056" s="83"/>
       <c r="F1056" s="6"/>
       <c r="G1056" s="13"/>
     </row>
     <row r="1057" spans="3:7">
       <c r="C1057" s="3"/>
       <c r="D1057" s="23"/>
-      <c r="E1057" s="82"/>
+      <c r="E1057" s="83"/>
       <c r="F1057" s="6"/>
     </row>
     <row r="1058" spans="3:7">
-      <c r="E1058" s="82"/>
+      <c r="E1058" s="83"/>
       <c r="F1058" s="6"/>
       <c r="G1058" s="10"/>
     </row>
     <row r="1059" spans="3:7">
       <c r="C1059" s="2"/>
       <c r="D1059" s="20"/>
-      <c r="E1059" s="82"/>
+      <c r="E1059" s="83"/>
       <c r="F1059" s="6"/>
     </row>
     <row r="1060" spans="3:7">
-      <c r="E1060" s="82"/>
+      <c r="E1060" s="83"/>
       <c r="F1060" s="6"/>
     </row>
     <row r="1061" spans="3:7">
       <c r="C1061" s="4"/>
       <c r="D1061" s="22"/>
-      <c r="E1061" s="82"/>
+      <c r="E1061" s="83"/>
       <c r="F1061" s="6"/>
     </row>
     <row r="1062" spans="3:7">
-      <c r="E1062" s="82"/>
+      <c r="E1062" s="83"/>
       <c r="F1062" s="6"/>
     </row>
     <row r="1063" spans="3:7">
       <c r="C1063" s="4"/>
       <c r="D1063" s="22"/>
-      <c r="E1063" s="82"/>
+      <c r="E1063" s="83"/>
       <c r="F1063" s="6"/>
     </row>
     <row r="1064" spans="3:7">
-      <c r="E1064" s="82"/>
+      <c r="E1064" s="83"/>
       <c r="F1064" s="6"/>
     </row>
     <row r="1065" spans="3:7">
       <c r="C1065" s="4"/>
       <c r="D1065" s="22"/>
-      <c r="E1065" s="82"/>
+      <c r="E1065" s="83"/>
       <c r="F1065" s="6"/>
     </row>
     <row r="1066" spans="3:7">
-      <c r="E1066" s="82"/>
+      <c r="E1066" s="83"/>
       <c r="F1066" s="6"/>
       <c r="G1066" s="13"/>
     </row>
     <row r="1067" spans="3:7">
       <c r="C1067" s="2"/>
       <c r="D1067" s="20"/>
-      <c r="E1067" s="82"/>
+      <c r="E1067" s="83"/>
       <c r="F1067" s="6"/>
     </row>
     <row r="1068" spans="3:7">
-      <c r="E1068" s="82"/>
+      <c r="E1068" s="83"/>
       <c r="F1068" s="6"/>
       <c r="G1068" s="10"/>
     </row>
     <row r="1069" spans="3:7">
       <c r="C1069" s="4"/>
       <c r="D1069" s="22"/>
-      <c r="E1069" s="82"/>
+      <c r="E1069" s="83"/>
       <c r="F1069" s="6"/>
     </row>
     <row r="1070" spans="3:7">
       <c r="C1070" s="4"/>
       <c r="D1070" s="22"/>
-      <c r="E1070" s="82"/>
+      <c r="E1070" s="83"/>
       <c r="F1070" s="6"/>
     </row>
     <row r="1071" spans="3:7">
       <c r="C1071" s="4"/>
       <c r="D1071" s="22"/>
-      <c r="E1071" s="82"/>
+      <c r="E1071" s="83"/>
       <c r="F1071" s="6"/>
     </row>
     <row r="1072" spans="3:7">
-      <c r="E1072" s="82"/>
+      <c r="E1072" s="83"/>
       <c r="F1072" s="6"/>
     </row>
     <row r="1073" spans="3:7">
       <c r="C1073" s="4"/>
       <c r="D1073" s="22"/>
-      <c r="E1073" s="82"/>
+      <c r="E1073" s="83"/>
       <c r="F1073" s="6"/>
     </row>
     <row r="1074" spans="3:7">
       <c r="C1074" s="2"/>
       <c r="D1074" s="20"/>
-      <c r="E1074" s="82"/>
+      <c r="E1074" s="83"/>
       <c r="F1074" s="6"/>
       <c r="G1074" s="13"/>
     </row>
     <row r="1075" spans="3:7">
-      <c r="E1075" s="82"/>
+      <c r="E1075" s="83"/>
       <c r="F1075" s="6"/>
     </row>
     <row r="1076" spans="3:7">
       <c r="C1076" s="4"/>
       <c r="D1076" s="22"/>
-      <c r="E1076" s="82"/>
+      <c r="E1076" s="83"/>
       <c r="F1076" s="6"/>
       <c r="G1076" s="10"/>
     </row>
     <row r="1077" spans="3:7">
       <c r="C1077" s="4"/>
       <c r="D1077" s="22"/>
-      <c r="E1077" s="82"/>
+      <c r="E1077" s="83"/>
       <c r="F1077" s="6"/>
     </row>
     <row r="1078" spans="3:7">
       <c r="C1078" s="4"/>
       <c r="D1078" s="22"/>
-      <c r="E1078" s="82"/>
+      <c r="E1078" s="83"/>
       <c r="F1078" s="6"/>
     </row>
     <row r="1079" spans="3:7">
@@ -32784,31 +33840,31 @@
     <row r="1095" spans="3:7">
       <c r="C1095" s="2"/>
       <c r="D1095" s="20"/>
-      <c r="E1095" s="82"/>
+      <c r="E1095" s="83"/>
       <c r="F1095" s="6"/>
       <c r="G1095" s="13"/>
     </row>
     <row r="1096" spans="3:7">
-      <c r="E1096" s="82"/>
+      <c r="E1096" s="83"/>
       <c r="F1096" s="6"/>
     </row>
     <row r="1097" spans="3:7">
       <c r="C1097" s="4"/>
       <c r="D1097" s="22"/>
-      <c r="E1097" s="82"/>
+      <c r="E1097" s="83"/>
       <c r="F1097" s="6"/>
       <c r="G1097" s="10"/>
     </row>
     <row r="1098" spans="3:7">
       <c r="C1098" s="4"/>
       <c r="D1098" s="22"/>
-      <c r="E1098" s="82"/>
+      <c r="E1098" s="83"/>
       <c r="F1098" s="6"/>
     </row>
     <row r="1099" spans="3:7">
       <c r="C1099" s="4"/>
       <c r="D1099" s="22"/>
-      <c r="E1099" s="82"/>
+      <c r="E1099" s="83"/>
       <c r="F1099" s="6"/>
     </row>
     <row r="1100" spans="3:7">
@@ -32840,305 +33896,305 @@
     <row r="1107" spans="3:7">
       <c r="C1107" s="2"/>
       <c r="D1107" s="20"/>
-      <c r="E1107" s="82"/>
+      <c r="E1107" s="83"/>
       <c r="F1107" s="6"/>
       <c r="G1107" s="13"/>
     </row>
     <row r="1108" spans="3:7">
       <c r="C1108" s="3"/>
       <c r="D1108" s="23"/>
-      <c r="E1108" s="82"/>
+      <c r="E1108" s="83"/>
       <c r="F1108" s="6"/>
     </row>
     <row r="1109" spans="3:7">
-      <c r="E1109" s="82"/>
+      <c r="E1109" s="83"/>
       <c r="F1109" s="6"/>
       <c r="G1109" s="10"/>
     </row>
     <row r="1110" spans="3:7">
       <c r="C1110" s="2"/>
       <c r="D1110" s="20"/>
-      <c r="E1110" s="82"/>
+      <c r="E1110" s="83"/>
       <c r="F1110" s="6"/>
     </row>
     <row r="1111" spans="3:7">
       <c r="C1111" s="3"/>
       <c r="D1111" s="23"/>
-      <c r="E1111" s="82"/>
+      <c r="E1111" s="83"/>
       <c r="F1111" s="6"/>
     </row>
     <row r="1112" spans="3:7">
       <c r="C1112" s="2"/>
       <c r="D1112" s="20"/>
-      <c r="E1112" s="82"/>
+      <c r="E1112" s="83"/>
       <c r="F1112" s="6"/>
       <c r="G1112" s="13"/>
     </row>
     <row r="1113" spans="3:7">
-      <c r="E1113" s="82"/>
+      <c r="E1113" s="83"/>
       <c r="F1113" s="6"/>
     </row>
     <row r="1114" spans="3:7">
       <c r="C1114" s="4"/>
       <c r="D1114" s="22"/>
-      <c r="E1114" s="82"/>
+      <c r="E1114" s="83"/>
       <c r="F1114" s="6"/>
       <c r="G1114" s="10"/>
     </row>
     <row r="1115" spans="3:7">
-      <c r="E1115" s="82"/>
+      <c r="E1115" s="83"/>
       <c r="F1115" s="6"/>
     </row>
     <row r="1116" spans="3:7">
       <c r="C1116" s="4"/>
       <c r="D1116" s="22"/>
-      <c r="E1116" s="82"/>
+      <c r="E1116" s="83"/>
       <c r="F1116" s="6"/>
     </row>
     <row r="1117" spans="3:7">
       <c r="C1117" s="2"/>
       <c r="D1117" s="20"/>
-      <c r="E1117" s="82"/>
+      <c r="E1117" s="83"/>
       <c r="F1117" s="6"/>
       <c r="G1117" s="13"/>
     </row>
     <row r="1118" spans="3:7">
-      <c r="E1118" s="82"/>
+      <c r="E1118" s="83"/>
       <c r="F1118" s="6"/>
     </row>
     <row r="1119" spans="3:7">
       <c r="C1119" s="4"/>
       <c r="D1119" s="22"/>
-      <c r="E1119" s="82"/>
+      <c r="E1119" s="83"/>
       <c r="F1119" s="6"/>
       <c r="G1119" s="10"/>
     </row>
     <row r="1120" spans="3:7">
       <c r="C1120" s="2"/>
       <c r="D1120" s="20"/>
-      <c r="E1120" s="82"/>
+      <c r="E1120" s="83"/>
       <c r="F1120" s="6"/>
       <c r="G1120" s="13"/>
     </row>
     <row r="1121" spans="3:7">
-      <c r="E1121" s="82"/>
+      <c r="E1121" s="83"/>
       <c r="F1121" s="6"/>
     </row>
     <row r="1122" spans="3:7">
       <c r="C1122" s="4"/>
       <c r="D1122" s="22"/>
-      <c r="E1122" s="82"/>
+      <c r="E1122" s="83"/>
       <c r="F1122" s="6"/>
       <c r="G1122" s="10"/>
     </row>
     <row r="1123" spans="3:7">
-      <c r="E1123" s="82"/>
+      <c r="E1123" s="83"/>
       <c r="F1123" s="6"/>
     </row>
     <row r="1124" spans="3:7">
       <c r="C1124" s="4"/>
       <c r="D1124" s="22"/>
-      <c r="E1124" s="82"/>
+      <c r="E1124" s="83"/>
       <c r="F1124" s="6"/>
     </row>
     <row r="1125" spans="3:7">
       <c r="C1125" s="2"/>
       <c r="D1125" s="20"/>
-      <c r="E1125" s="82"/>
+      <c r="E1125" s="83"/>
       <c r="F1125" s="6"/>
       <c r="G1125" s="13"/>
     </row>
     <row r="1126" spans="3:7">
-      <c r="E1126" s="82"/>
+      <c r="E1126" s="83"/>
       <c r="F1126" s="6"/>
     </row>
     <row r="1127" spans="3:7">
       <c r="C1127" s="2"/>
       <c r="D1127" s="20"/>
-      <c r="E1127" s="82"/>
+      <c r="E1127" s="83"/>
       <c r="F1127" s="6"/>
       <c r="G1127" s="10"/>
     </row>
     <row r="1128" spans="3:7">
-      <c r="E1128" s="82"/>
+      <c r="E1128" s="83"/>
       <c r="F1128" s="6"/>
     </row>
     <row r="1129" spans="3:7">
       <c r="C1129" s="2"/>
       <c r="D1129" s="20"/>
-      <c r="E1129" s="82"/>
+      <c r="E1129" s="83"/>
       <c r="F1129" s="6"/>
     </row>
     <row r="1130" spans="3:7">
       <c r="C1130" s="2"/>
       <c r="D1130" s="20"/>
-      <c r="E1130" s="82"/>
+      <c r="E1130" s="83"/>
       <c r="F1130" s="6"/>
     </row>
     <row r="1131" spans="3:7">
-      <c r="E1131" s="82"/>
+      <c r="E1131" s="83"/>
       <c r="F1131" s="6"/>
     </row>
     <row r="1132" spans="3:7">
       <c r="C1132" s="2"/>
       <c r="D1132" s="20"/>
-      <c r="E1132" s="82"/>
+      <c r="E1132" s="83"/>
       <c r="F1132" s="6"/>
     </row>
     <row r="1133" spans="3:7">
       <c r="C1133" s="2"/>
       <c r="D1133" s="20"/>
-      <c r="E1133" s="82"/>
+      <c r="E1133" s="83"/>
       <c r="F1133" s="6"/>
     </row>
     <row r="1134" spans="3:7">
-      <c r="E1134" s="82"/>
+      <c r="E1134" s="83"/>
       <c r="F1134" s="6"/>
     </row>
     <row r="1135" spans="3:7">
       <c r="C1135" s="4"/>
       <c r="D1135" s="22"/>
-      <c r="E1135" s="82"/>
+      <c r="E1135" s="83"/>
       <c r="F1135" s="6"/>
     </row>
     <row r="1136" spans="3:7">
       <c r="C1136" s="4"/>
       <c r="D1136" s="22"/>
-      <c r="E1136" s="82"/>
+      <c r="E1136" s="83"/>
       <c r="F1136" s="6"/>
     </row>
     <row r="1137" spans="3:7">
       <c r="C1137" s="4"/>
       <c r="D1137" s="22"/>
-      <c r="E1137" s="82"/>
+      <c r="E1137" s="83"/>
       <c r="F1137" s="6"/>
     </row>
     <row r="1138" spans="3:7">
       <c r="C1138" s="4"/>
       <c r="D1138" s="22"/>
-      <c r="E1138" s="82"/>
+      <c r="E1138" s="83"/>
       <c r="F1138" s="6"/>
     </row>
     <row r="1139" spans="3:7">
       <c r="C1139" s="4"/>
       <c r="D1139" s="22"/>
-      <c r="E1139" s="82"/>
+      <c r="E1139" s="83"/>
       <c r="F1139" s="6"/>
     </row>
     <row r="1140" spans="3:7">
       <c r="C1140" s="2"/>
       <c r="D1140" s="20"/>
-      <c r="E1140" s="82"/>
+      <c r="E1140" s="83"/>
       <c r="F1140" s="6"/>
     </row>
     <row r="1141" spans="3:7">
       <c r="C1141" s="2"/>
       <c r="D1141" s="20"/>
-      <c r="E1141" s="82"/>
+      <c r="E1141" s="83"/>
       <c r="F1141" s="6"/>
     </row>
     <row r="1142" spans="3:7">
       <c r="C1142" s="2"/>
       <c r="D1142" s="20"/>
-      <c r="E1142" s="82"/>
+      <c r="E1142" s="83"/>
       <c r="F1142" s="6"/>
     </row>
     <row r="1143" spans="3:7">
       <c r="C1143" s="2"/>
       <c r="D1143" s="20"/>
-      <c r="E1143" s="82"/>
+      <c r="E1143" s="83"/>
       <c r="F1143" s="6"/>
     </row>
     <row r="1144" spans="3:7">
       <c r="C1144" s="4"/>
       <c r="D1144" s="22"/>
-      <c r="E1144" s="82"/>
+      <c r="E1144" s="83"/>
       <c r="F1144" s="6"/>
     </row>
     <row r="1145" spans="3:7">
       <c r="C1145" s="4"/>
       <c r="D1145" s="22"/>
-      <c r="E1145" s="82"/>
+      <c r="E1145" s="83"/>
       <c r="F1145" s="6"/>
     </row>
     <row r="1146" spans="3:7">
       <c r="C1146" s="4"/>
       <c r="D1146" s="22"/>
-      <c r="E1146" s="82"/>
+      <c r="E1146" s="83"/>
       <c r="F1146" s="6"/>
     </row>
     <row r="1147" spans="3:7">
       <c r="C1147" s="4"/>
       <c r="D1147" s="22"/>
-      <c r="E1147" s="82"/>
+      <c r="E1147" s="83"/>
       <c r="F1147" s="6"/>
     </row>
     <row r="1148" spans="3:7">
-      <c r="E1148" s="82"/>
+      <c r="E1148" s="83"/>
       <c r="F1148" s="6"/>
     </row>
     <row r="1149" spans="3:7">
       <c r="C1149" s="2"/>
       <c r="D1149" s="20"/>
-      <c r="E1149" s="82"/>
+      <c r="E1149" s="83"/>
       <c r="F1149" s="6"/>
       <c r="G1149" s="13"/>
     </row>
     <row r="1150" spans="3:7">
       <c r="C1150" s="3"/>
       <c r="D1150" s="23"/>
-      <c r="E1150" s="82"/>
+      <c r="E1150" s="83"/>
       <c r="F1150" s="6"/>
     </row>
     <row r="1151" spans="3:7">
-      <c r="E1151" s="82"/>
+      <c r="E1151" s="83"/>
       <c r="F1151" s="6"/>
       <c r="G1151" s="10"/>
     </row>
     <row r="1152" spans="3:7">
       <c r="C1152" s="2"/>
       <c r="D1152" s="20"/>
-      <c r="E1152" s="82"/>
+      <c r="E1152" s="83"/>
       <c r="F1152" s="6"/>
     </row>
     <row r="1153" spans="3:7">
-      <c r="E1153" s="82"/>
+      <c r="E1153" s="83"/>
       <c r="F1153" s="6"/>
     </row>
     <row r="1154" spans="3:7">
       <c r="C1154" s="4"/>
       <c r="D1154" s="22"/>
-      <c r="E1154" s="82"/>
+      <c r="E1154" s="83"/>
       <c r="F1154" s="6"/>
     </row>
     <row r="1155" spans="3:7">
-      <c r="E1155" s="82"/>
+      <c r="E1155" s="83"/>
       <c r="F1155" s="6"/>
     </row>
     <row r="1156" spans="3:7">
       <c r="C1156" s="4"/>
       <c r="D1156" s="22"/>
-      <c r="E1156" s="82"/>
+      <c r="E1156" s="83"/>
       <c r="F1156" s="6"/>
     </row>
     <row r="1157" spans="3:7">
-      <c r="E1157" s="82"/>
+      <c r="E1157" s="83"/>
       <c r="F1157" s="6"/>
     </row>
     <row r="1158" spans="3:7">
       <c r="C1158" s="4"/>
       <c r="D1158" s="22"/>
-      <c r="E1158" s="82"/>
+      <c r="E1158" s="83"/>
       <c r="F1158" s="6"/>
     </row>
     <row r="1159" spans="3:7">
-      <c r="E1159" s="82"/>
+      <c r="E1159" s="83"/>
       <c r="F1159" s="6"/>
     </row>
     <row r="1160" spans="3:7">
       <c r="C1160" s="4"/>
       <c r="D1160" s="22"/>
-      <c r="E1160" s="82"/>
+      <c r="E1160" s="83"/>
       <c r="F1160" s="6"/>
     </row>
     <row r="1161" spans="3:7">
@@ -33168,1770 +34224,1770 @@
     <row r="1166" spans="3:7">
       <c r="C1166" s="2"/>
       <c r="D1166" s="20"/>
-      <c r="E1166" s="82"/>
+      <c r="E1166" s="83"/>
       <c r="F1166" s="6"/>
       <c r="G1166" s="13"/>
     </row>
     <row r="1167" spans="3:7">
       <c r="C1167" s="3"/>
       <c r="D1167" s="23"/>
-      <c r="E1167" s="82"/>
+      <c r="E1167" s="83"/>
       <c r="F1167" s="6"/>
     </row>
     <row r="1168" spans="3:7">
-      <c r="E1168" s="82"/>
+      <c r="E1168" s="83"/>
       <c r="F1168" s="6"/>
       <c r="G1168" s="10"/>
     </row>
     <row r="1169" spans="3:7">
       <c r="C1169" s="2"/>
       <c r="D1169" s="20"/>
-      <c r="E1169" s="82"/>
+      <c r="E1169" s="83"/>
       <c r="F1169" s="6"/>
       <c r="G1169" s="13"/>
     </row>
     <row r="1170" spans="3:7">
       <c r="C1170" s="3"/>
       <c r="D1170" s="23"/>
-      <c r="E1170" s="82"/>
+      <c r="E1170" s="83"/>
       <c r="F1170" s="6"/>
     </row>
     <row r="1171" spans="3:7">
-      <c r="E1171" s="82"/>
+      <c r="E1171" s="83"/>
       <c r="F1171" s="6"/>
       <c r="G1171" s="10"/>
     </row>
     <row r="1172" spans="3:7">
       <c r="C1172" s="2"/>
       <c r="D1172" s="20"/>
-      <c r="E1172" s="82"/>
+      <c r="E1172" s="83"/>
       <c r="F1172" s="6"/>
     </row>
     <row r="1173" spans="3:7">
       <c r="C1173" s="3"/>
       <c r="D1173" s="23"/>
-      <c r="E1173" s="82"/>
+      <c r="E1173" s="83"/>
       <c r="F1173" s="6"/>
     </row>
     <row r="1174" spans="3:7">
       <c r="C1174" s="2"/>
       <c r="D1174" s="20"/>
-      <c r="E1174" s="82"/>
+      <c r="E1174" s="83"/>
       <c r="F1174" s="6"/>
       <c r="G1174" s="14"/>
     </row>
     <row r="1175" spans="3:7">
       <c r="C1175" s="3"/>
       <c r="D1175" s="23"/>
-      <c r="E1175" s="82"/>
+      <c r="E1175" s="83"/>
       <c r="F1175" s="6"/>
     </row>
     <row r="1176" spans="3:7">
-      <c r="E1176" s="82"/>
+      <c r="E1176" s="83"/>
       <c r="F1176" s="6"/>
       <c r="G1176" s="10"/>
     </row>
     <row r="1177" spans="3:7">
       <c r="C1177" s="2"/>
       <c r="D1177" s="20"/>
-      <c r="E1177" s="82"/>
+      <c r="E1177" s="83"/>
       <c r="F1177" s="6"/>
     </row>
     <row r="1178" spans="3:7">
       <c r="C1178" s="4"/>
       <c r="D1178" s="22"/>
-      <c r="E1178" s="82"/>
+      <c r="E1178" s="83"/>
       <c r="F1178" s="6"/>
     </row>
     <row r="1179" spans="3:7">
       <c r="C1179" s="4"/>
       <c r="D1179" s="22"/>
-      <c r="E1179" s="82"/>
+      <c r="E1179" s="83"/>
       <c r="F1179" s="6"/>
     </row>
     <row r="1180" spans="3:7">
       <c r="C1180" s="4"/>
       <c r="D1180" s="22"/>
-      <c r="E1180" s="82"/>
+      <c r="E1180" s="83"/>
       <c r="F1180" s="6"/>
     </row>
     <row r="1181" spans="3:7">
       <c r="C1181" s="4"/>
       <c r="D1181" s="22"/>
-      <c r="E1181" s="82"/>
+      <c r="E1181" s="83"/>
       <c r="F1181" s="6"/>
     </row>
     <row r="1182" spans="3:7">
       <c r="C1182" s="4"/>
       <c r="D1182" s="22"/>
-      <c r="E1182" s="82"/>
+      <c r="E1182" s="83"/>
       <c r="F1182" s="6"/>
     </row>
     <row r="1183" spans="3:7">
       <c r="C1183" s="2"/>
       <c r="D1183" s="20"/>
-      <c r="E1183" s="82"/>
+      <c r="E1183" s="83"/>
       <c r="F1183" s="6"/>
       <c r="G1183" s="14"/>
     </row>
     <row r="1184" spans="3:7">
       <c r="C1184" s="3"/>
       <c r="D1184" s="23"/>
-      <c r="E1184" s="82"/>
+      <c r="E1184" s="83"/>
       <c r="F1184" s="6"/>
     </row>
     <row r="1185" spans="3:7">
       <c r="C1185" s="3"/>
       <c r="D1185" s="23"/>
-      <c r="E1185" s="82"/>
+      <c r="E1185" s="83"/>
       <c r="F1185" s="6"/>
       <c r="G1185" s="10"/>
     </row>
     <row r="1186" spans="3:7">
       <c r="C1186" s="2"/>
       <c r="D1186" s="20"/>
-      <c r="E1186" s="82"/>
+      <c r="E1186" s="83"/>
       <c r="F1186" s="6"/>
       <c r="G1186" s="13"/>
     </row>
     <row r="1187" spans="3:7">
       <c r="C1187" s="2"/>
       <c r="D1187" s="20"/>
-      <c r="E1187" s="82"/>
+      <c r="E1187" s="83"/>
       <c r="F1187" s="6"/>
     </row>
     <row r="1188" spans="3:7">
       <c r="C1188" s="3"/>
       <c r="D1188" s="23"/>
-      <c r="E1188" s="82"/>
+      <c r="E1188" s="83"/>
       <c r="F1188" s="6"/>
       <c r="G1188" s="10"/>
     </row>
     <row r="1189" spans="3:7">
-      <c r="E1189" s="82"/>
+      <c r="E1189" s="83"/>
       <c r="F1189" s="6"/>
     </row>
     <row r="1190" spans="3:7">
       <c r="C1190" s="2"/>
       <c r="D1190" s="20"/>
-      <c r="E1190" s="82"/>
+      <c r="E1190" s="83"/>
       <c r="F1190" s="6"/>
     </row>
     <row r="1191" spans="3:7">
       <c r="C1191" s="2"/>
       <c r="D1191" s="20"/>
-      <c r="E1191" s="82"/>
+      <c r="E1191" s="83"/>
       <c r="F1191" s="6"/>
     </row>
     <row r="1192" spans="3:7">
       <c r="C1192" s="4"/>
       <c r="D1192" s="22"/>
-      <c r="E1192" s="82"/>
+      <c r="E1192" s="83"/>
       <c r="F1192" s="6"/>
     </row>
     <row r="1193" spans="3:7">
       <c r="C1193" s="4"/>
       <c r="D1193" s="22"/>
-      <c r="E1193" s="82"/>
+      <c r="E1193" s="83"/>
       <c r="F1193" s="6"/>
     </row>
     <row r="1194" spans="3:7">
-      <c r="E1194" s="82"/>
+      <c r="E1194" s="83"/>
       <c r="F1194" s="6"/>
     </row>
     <row r="1195" spans="3:7">
       <c r="C1195" s="2"/>
       <c r="D1195" s="20"/>
-      <c r="E1195" s="82"/>
+      <c r="E1195" s="83"/>
       <c r="F1195" s="6"/>
     </row>
     <row r="1196" spans="3:7">
       <c r="C1196" s="4"/>
       <c r="D1196" s="22"/>
-      <c r="E1196" s="82"/>
+      <c r="E1196" s="83"/>
       <c r="F1196" s="6"/>
     </row>
     <row r="1197" spans="3:7">
       <c r="C1197" s="4"/>
       <c r="D1197" s="22"/>
-      <c r="E1197" s="82"/>
+      <c r="E1197" s="83"/>
       <c r="F1197" s="6"/>
     </row>
     <row r="1198" spans="3:7">
-      <c r="E1198" s="82"/>
+      <c r="E1198" s="83"/>
       <c r="F1198" s="6"/>
     </row>
     <row r="1199" spans="3:7">
       <c r="C1199" s="2"/>
       <c r="D1199" s="20"/>
-      <c r="E1199" s="82"/>
+      <c r="E1199" s="83"/>
       <c r="F1199" s="6"/>
     </row>
     <row r="1200" spans="3:7">
-      <c r="E1200" s="82"/>
+      <c r="E1200" s="83"/>
       <c r="F1200" s="6"/>
     </row>
     <row r="1201" spans="3:6">
       <c r="C1201" s="2"/>
       <c r="D1201" s="20"/>
-      <c r="E1201" s="82"/>
+      <c r="E1201" s="83"/>
       <c r="F1201" s="6"/>
     </row>
     <row r="1202" spans="3:6">
-      <c r="E1202" s="82"/>
+      <c r="E1202" s="83"/>
       <c r="F1202" s="6"/>
     </row>
     <row r="1203" spans="3:6">
       <c r="C1203" s="4"/>
       <c r="D1203" s="22"/>
-      <c r="E1203" s="82"/>
+      <c r="E1203" s="83"/>
       <c r="F1203" s="6"/>
     </row>
     <row r="1204" spans="3:6">
-      <c r="E1204" s="82"/>
+      <c r="E1204" s="83"/>
       <c r="F1204" s="6"/>
     </row>
     <row r="1205" spans="3:6">
       <c r="C1205" s="2"/>
       <c r="D1205" s="20"/>
-      <c r="E1205" s="82"/>
+      <c r="E1205" s="83"/>
       <c r="F1205" s="6"/>
     </row>
     <row r="1206" spans="3:6">
       <c r="C1206" s="4"/>
       <c r="D1206" s="22"/>
-      <c r="E1206" s="82"/>
+      <c r="E1206" s="83"/>
       <c r="F1206" s="6"/>
     </row>
     <row r="1207" spans="3:6">
-      <c r="E1207" s="82"/>
+      <c r="E1207" s="83"/>
       <c r="F1207" s="6"/>
     </row>
     <row r="1208" spans="3:6">
       <c r="C1208" s="2"/>
       <c r="D1208" s="20"/>
-      <c r="E1208" s="82"/>
+      <c r="E1208" s="83"/>
       <c r="F1208" s="6"/>
     </row>
     <row r="1209" spans="3:6">
       <c r="C1209" s="4"/>
       <c r="D1209" s="22"/>
-      <c r="E1209" s="82"/>
+      <c r="E1209" s="83"/>
       <c r="F1209" s="6"/>
     </row>
     <row r="1210" spans="3:6">
-      <c r="E1210" s="82"/>
+      <c r="E1210" s="83"/>
       <c r="F1210" s="6"/>
     </row>
     <row r="1211" spans="3:6">
       <c r="C1211" s="2"/>
       <c r="D1211" s="20"/>
-      <c r="E1211" s="82"/>
+      <c r="E1211" s="83"/>
       <c r="F1211" s="6"/>
     </row>
     <row r="1212" spans="3:6">
       <c r="C1212" s="4"/>
       <c r="D1212" s="22"/>
-      <c r="E1212" s="82"/>
+      <c r="E1212" s="83"/>
       <c r="F1212" s="6"/>
     </row>
     <row r="1213" spans="3:6">
-      <c r="E1213" s="82"/>
+      <c r="E1213" s="83"/>
       <c r="F1213" s="6"/>
     </row>
     <row r="1214" spans="3:6">
       <c r="C1214" s="2"/>
       <c r="D1214" s="20"/>
-      <c r="E1214" s="82"/>
+      <c r="E1214" s="83"/>
       <c r="F1214" s="6"/>
     </row>
     <row r="1215" spans="3:6">
       <c r="C1215" s="4"/>
       <c r="D1215" s="22"/>
-      <c r="E1215" s="82"/>
+      <c r="E1215" s="83"/>
       <c r="F1215" s="6"/>
     </row>
     <row r="1216" spans="3:6">
-      <c r="E1216" s="82"/>
+      <c r="E1216" s="83"/>
       <c r="F1216" s="6"/>
     </row>
     <row r="1217" spans="3:7">
       <c r="C1217" s="2"/>
       <c r="D1217" s="20"/>
-      <c r="E1217" s="82"/>
+      <c r="E1217" s="83"/>
       <c r="F1217" s="6"/>
     </row>
     <row r="1218" spans="3:7">
       <c r="C1218" s="4"/>
       <c r="D1218" s="22"/>
-      <c r="E1218" s="82"/>
+      <c r="E1218" s="83"/>
       <c r="F1218" s="6"/>
     </row>
     <row r="1219" spans="3:7">
-      <c r="E1219" s="82"/>
+      <c r="E1219" s="83"/>
       <c r="F1219" s="6"/>
     </row>
     <row r="1220" spans="3:7">
       <c r="C1220" s="2"/>
       <c r="D1220" s="20"/>
-      <c r="E1220" s="82"/>
+      <c r="E1220" s="83"/>
       <c r="F1220" s="6"/>
     </row>
     <row r="1221" spans="3:7">
       <c r="C1221" s="4"/>
       <c r="D1221" s="22"/>
-      <c r="E1221" s="82"/>
+      <c r="E1221" s="83"/>
       <c r="F1221" s="6"/>
     </row>
     <row r="1222" spans="3:7">
-      <c r="E1222" s="82"/>
+      <c r="E1222" s="83"/>
       <c r="F1222" s="6"/>
     </row>
     <row r="1223" spans="3:7">
       <c r="C1223" s="2"/>
       <c r="D1223" s="20"/>
-      <c r="E1223" s="82"/>
+      <c r="E1223" s="83"/>
       <c r="F1223" s="6"/>
     </row>
     <row r="1224" spans="3:7">
       <c r="C1224" s="4"/>
       <c r="D1224" s="22"/>
-      <c r="E1224" s="82"/>
+      <c r="E1224" s="83"/>
       <c r="F1224" s="6"/>
     </row>
     <row r="1225" spans="3:7">
-      <c r="E1225" s="82"/>
+      <c r="E1225" s="83"/>
       <c r="F1225" s="6"/>
     </row>
     <row r="1226" spans="3:7">
       <c r="C1226" s="2"/>
       <c r="D1226" s="20"/>
-      <c r="E1226" s="82"/>
+      <c r="E1226" s="83"/>
       <c r="F1226" s="6"/>
     </row>
     <row r="1227" spans="3:7">
       <c r="C1227" s="4"/>
       <c r="D1227" s="22"/>
-      <c r="E1227" s="82"/>
+      <c r="E1227" s="83"/>
       <c r="F1227" s="6"/>
     </row>
     <row r="1228" spans="3:7">
       <c r="C1228" s="2"/>
       <c r="D1228" s="20"/>
-      <c r="E1228" s="82"/>
+      <c r="E1228" s="83"/>
       <c r="F1228" s="6"/>
       <c r="G1228" s="13"/>
     </row>
     <row r="1229" spans="3:7">
-      <c r="E1229" s="82"/>
+      <c r="E1229" s="83"/>
       <c r="F1229" s="6"/>
     </row>
     <row r="1230" spans="3:7">
       <c r="C1230" s="4"/>
       <c r="D1230" s="22"/>
-      <c r="E1230" s="82"/>
+      <c r="E1230" s="83"/>
       <c r="F1230" s="6"/>
       <c r="G1230" s="10"/>
     </row>
     <row r="1231" spans="3:7">
       <c r="C1231" s="2"/>
       <c r="D1231" s="20"/>
-      <c r="E1231" s="82"/>
+      <c r="E1231" s="83"/>
       <c r="F1231" s="6"/>
       <c r="G1231" s="13"/>
     </row>
     <row r="1232" spans="3:7">
-      <c r="E1232" s="82"/>
+      <c r="E1232" s="83"/>
       <c r="F1232" s="6"/>
     </row>
     <row r="1233" spans="3:7">
       <c r="C1233" s="4"/>
       <c r="D1233" s="22"/>
-      <c r="E1233" s="82"/>
+      <c r="E1233" s="83"/>
       <c r="F1233" s="6"/>
       <c r="G1233" s="10"/>
     </row>
     <row r="1234" spans="3:7">
       <c r="C1234" s="2"/>
       <c r="D1234" s="20"/>
-      <c r="E1234" s="82"/>
+      <c r="E1234" s="83"/>
       <c r="F1234" s="6"/>
       <c r="G1234" s="13"/>
     </row>
     <row r="1235" spans="3:7">
       <c r="C1235" s="3"/>
       <c r="D1235" s="23"/>
-      <c r="E1235" s="82"/>
+      <c r="E1235" s="83"/>
       <c r="F1235" s="6"/>
     </row>
     <row r="1236" spans="3:7">
-      <c r="E1236" s="82"/>
+      <c r="E1236" s="83"/>
       <c r="F1236" s="6"/>
       <c r="G1236" s="10"/>
     </row>
     <row r="1237" spans="3:7">
       <c r="C1237" s="2"/>
       <c r="D1237" s="20"/>
-      <c r="E1237" s="82"/>
+      <c r="E1237" s="83"/>
       <c r="F1237" s="6"/>
       <c r="G1237" s="13"/>
     </row>
     <row r="1238" spans="3:7">
       <c r="C1238" s="3"/>
       <c r="D1238" s="23"/>
-      <c r="E1238" s="82"/>
+      <c r="E1238" s="83"/>
       <c r="F1238" s="6"/>
     </row>
     <row r="1239" spans="3:7">
-      <c r="E1239" s="82"/>
+      <c r="E1239" s="83"/>
       <c r="F1239" s="6"/>
       <c r="G1239" s="10"/>
     </row>
     <row r="1240" spans="3:7">
       <c r="C1240" s="2"/>
       <c r="D1240" s="20"/>
-      <c r="E1240" s="82"/>
+      <c r="E1240" s="83"/>
       <c r="F1240" s="6"/>
       <c r="G1240" s="13"/>
     </row>
     <row r="1241" spans="3:7">
       <c r="C1241" s="3"/>
       <c r="D1241" s="23"/>
-      <c r="E1241" s="82"/>
+      <c r="E1241" s="83"/>
       <c r="F1241" s="6"/>
     </row>
     <row r="1242" spans="3:7">
-      <c r="E1242" s="82"/>
+      <c r="E1242" s="83"/>
       <c r="F1242" s="6"/>
       <c r="G1242" s="10"/>
     </row>
     <row r="1243" spans="3:7">
       <c r="C1243" s="2"/>
       <c r="D1243" s="20"/>
-      <c r="E1243" s="82"/>
+      <c r="E1243" s="83"/>
       <c r="F1243" s="6"/>
       <c r="G1243" s="13"/>
     </row>
     <row r="1244" spans="3:7">
       <c r="C1244" s="2"/>
       <c r="D1244" s="20"/>
-      <c r="E1244" s="82"/>
+      <c r="E1244" s="83"/>
       <c r="F1244" s="6"/>
     </row>
     <row r="1245" spans="3:7">
-      <c r="E1245" s="82"/>
+      <c r="E1245" s="83"/>
       <c r="F1245" s="6"/>
       <c r="G1245" s="10"/>
     </row>
     <row r="1246" spans="3:7">
       <c r="C1246" s="4"/>
       <c r="D1246" s="22"/>
-      <c r="E1246" s="82"/>
+      <c r="E1246" s="83"/>
       <c r="F1246" s="6"/>
     </row>
     <row r="1247" spans="3:7">
-      <c r="E1247" s="82"/>
+      <c r="E1247" s="83"/>
       <c r="F1247" s="6"/>
     </row>
     <row r="1248" spans="3:7">
       <c r="C1248" s="4"/>
       <c r="D1248" s="22"/>
-      <c r="E1248" s="82"/>
+      <c r="E1248" s="83"/>
       <c r="F1248" s="6"/>
     </row>
     <row r="1249" spans="3:7">
-      <c r="E1249" s="82"/>
+      <c r="E1249" s="83"/>
       <c r="F1249" s="6"/>
     </row>
     <row r="1250" spans="3:7">
       <c r="C1250" s="4"/>
       <c r="D1250" s="22"/>
-      <c r="E1250" s="82"/>
+      <c r="E1250" s="83"/>
       <c r="F1250" s="6"/>
     </row>
     <row r="1251" spans="3:7">
-      <c r="E1251" s="82"/>
+      <c r="E1251" s="83"/>
       <c r="F1251" s="6"/>
     </row>
     <row r="1252" spans="3:7">
       <c r="C1252" s="4"/>
       <c r="D1252" s="22"/>
-      <c r="E1252" s="82"/>
+      <c r="E1252" s="83"/>
       <c r="F1252" s="6"/>
     </row>
     <row r="1253" spans="3:7">
       <c r="C1253" s="2"/>
       <c r="D1253" s="20"/>
-      <c r="E1253" s="82"/>
+      <c r="E1253" s="83"/>
       <c r="F1253" s="6"/>
     </row>
     <row r="1254" spans="3:7">
       <c r="C1254" s="2"/>
       <c r="D1254" s="20"/>
-      <c r="E1254" s="82"/>
+      <c r="E1254" s="83"/>
       <c r="F1254" s="6"/>
       <c r="G1254" s="13"/>
     </row>
     <row r="1255" spans="3:7">
       <c r="C1255" s="3"/>
       <c r="D1255" s="23"/>
-      <c r="E1255" s="82"/>
+      <c r="E1255" s="83"/>
       <c r="F1255" s="6"/>
     </row>
     <row r="1256" spans="3:7">
-      <c r="E1256" s="82"/>
+      <c r="E1256" s="83"/>
       <c r="F1256" s="6"/>
       <c r="G1256" s="10"/>
     </row>
     <row r="1257" spans="3:7">
       <c r="C1257" s="2"/>
       <c r="D1257" s="20"/>
-      <c r="E1257" s="82"/>
+      <c r="E1257" s="83"/>
       <c r="F1257" s="6"/>
       <c r="G1257" s="13"/>
     </row>
     <row r="1258" spans="3:7">
       <c r="C1258" s="2"/>
       <c r="D1258" s="20"/>
-      <c r="E1258" s="82"/>
+      <c r="E1258" s="83"/>
       <c r="F1258" s="6"/>
     </row>
     <row r="1259" spans="3:7">
       <c r="C1259" s="3"/>
       <c r="D1259" s="23"/>
-      <c r="E1259" s="82"/>
+      <c r="E1259" s="83"/>
       <c r="F1259" s="6"/>
       <c r="G1259" s="10"/>
     </row>
     <row r="1260" spans="3:7">
-      <c r="E1260" s="82"/>
+      <c r="E1260" s="83"/>
       <c r="F1260" s="6"/>
     </row>
     <row r="1261" spans="3:7">
       <c r="C1261" s="2"/>
       <c r="D1261" s="20"/>
-      <c r="E1261" s="82"/>
+      <c r="E1261" s="83"/>
       <c r="F1261" s="6"/>
     </row>
     <row r="1262" spans="3:7">
       <c r="C1262" s="3"/>
       <c r="D1262" s="23"/>
-      <c r="E1262" s="82"/>
+      <c r="E1262" s="83"/>
       <c r="F1262" s="6"/>
     </row>
     <row r="1263" spans="3:7">
-      <c r="E1263" s="82"/>
+      <c r="E1263" s="83"/>
       <c r="F1263" s="6"/>
     </row>
     <row r="1264" spans="3:7">
       <c r="C1264" s="2"/>
       <c r="D1264" s="20"/>
-      <c r="E1264" s="82"/>
+      <c r="E1264" s="83"/>
       <c r="F1264" s="6"/>
     </row>
     <row r="1265" spans="3:7">
       <c r="C1265" s="3"/>
       <c r="D1265" s="23"/>
-      <c r="E1265" s="82"/>
+      <c r="E1265" s="83"/>
       <c r="F1265" s="6"/>
     </row>
     <row r="1266" spans="3:7">
       <c r="C1266" s="2"/>
       <c r="D1266" s="20"/>
-      <c r="E1266" s="82"/>
+      <c r="E1266" s="83"/>
       <c r="F1266" s="6"/>
       <c r="G1266" s="13"/>
     </row>
     <row r="1267" spans="3:7">
       <c r="C1267" s="3"/>
       <c r="D1267" s="23"/>
-      <c r="E1267" s="82"/>
+      <c r="E1267" s="83"/>
       <c r="F1267" s="6"/>
     </row>
     <row r="1268" spans="3:7">
-      <c r="E1268" s="82"/>
+      <c r="E1268" s="83"/>
       <c r="F1268" s="6"/>
       <c r="G1268" s="10"/>
     </row>
     <row r="1269" spans="3:7">
       <c r="C1269" s="2"/>
       <c r="D1269" s="20"/>
-      <c r="E1269" s="82"/>
+      <c r="E1269" s="83"/>
       <c r="F1269" s="6"/>
       <c r="G1269" s="13"/>
     </row>
     <row r="1270" spans="3:7">
-      <c r="E1270" s="82"/>
+      <c r="E1270" s="83"/>
       <c r="F1270" s="6"/>
     </row>
     <row r="1271" spans="3:7">
       <c r="C1271" s="4"/>
       <c r="D1271" s="22"/>
-      <c r="E1271" s="82"/>
+      <c r="E1271" s="83"/>
       <c r="F1271" s="6"/>
       <c r="G1271" s="10"/>
     </row>
     <row r="1272" spans="3:7">
-      <c r="E1272" s="82"/>
+      <c r="E1272" s="83"/>
       <c r="F1272" s="6"/>
     </row>
     <row r="1273" spans="3:7">
       <c r="C1273" s="2"/>
       <c r="D1273" s="20"/>
-      <c r="E1273" s="82"/>
+      <c r="E1273" s="83"/>
       <c r="F1273" s="6"/>
     </row>
     <row r="1274" spans="3:7">
-      <c r="E1274" s="82"/>
+      <c r="E1274" s="83"/>
       <c r="F1274" s="6"/>
     </row>
     <row r="1275" spans="3:7">
       <c r="C1275" s="4"/>
       <c r="D1275" s="22"/>
-      <c r="E1275" s="82"/>
+      <c r="E1275" s="83"/>
       <c r="F1275" s="6"/>
     </row>
     <row r="1276" spans="3:7">
-      <c r="E1276" s="82"/>
+      <c r="E1276" s="83"/>
       <c r="F1276" s="6"/>
     </row>
     <row r="1277" spans="3:7">
       <c r="C1277" s="4"/>
       <c r="D1277" s="22"/>
-      <c r="E1277" s="82"/>
+      <c r="E1277" s="83"/>
       <c r="F1277" s="6"/>
     </row>
     <row r="1278" spans="3:7">
-      <c r="E1278" s="82"/>
+      <c r="E1278" s="83"/>
       <c r="F1278" s="6"/>
     </row>
     <row r="1279" spans="3:7">
       <c r="C1279" s="4"/>
       <c r="D1279" s="22"/>
-      <c r="E1279" s="82"/>
+      <c r="E1279" s="83"/>
       <c r="F1279" s="6"/>
     </row>
     <row r="1280" spans="3:7">
-      <c r="E1280" s="82"/>
+      <c r="E1280" s="83"/>
       <c r="F1280" s="6"/>
     </row>
     <row r="1281" spans="3:7">
       <c r="C1281" s="4"/>
       <c r="D1281" s="22"/>
-      <c r="E1281" s="82"/>
+      <c r="E1281" s="83"/>
       <c r="F1281" s="6"/>
     </row>
     <row r="1282" spans="3:7">
-      <c r="E1282" s="82"/>
+      <c r="E1282" s="83"/>
       <c r="F1282" s="6"/>
     </row>
     <row r="1283" spans="3:7">
       <c r="C1283" s="4"/>
       <c r="D1283" s="22"/>
-      <c r="E1283" s="82"/>
+      <c r="E1283" s="83"/>
       <c r="F1283" s="6"/>
     </row>
     <row r="1284" spans="3:7">
       <c r="C1284" s="2"/>
       <c r="D1284" s="20"/>
-      <c r="E1284" s="82"/>
+      <c r="E1284" s="83"/>
       <c r="F1284" s="6"/>
       <c r="G1284" s="13"/>
     </row>
     <row r="1285" spans="3:7">
-      <c r="E1285" s="82"/>
+      <c r="E1285" s="83"/>
       <c r="F1285" s="6"/>
     </row>
     <row r="1286" spans="3:7">
       <c r="C1286" s="3"/>
       <c r="D1286" s="23"/>
-      <c r="E1286" s="82"/>
+      <c r="E1286" s="83"/>
       <c r="F1286" s="6"/>
       <c r="G1286" s="10"/>
     </row>
     <row r="1287" spans="3:7">
-      <c r="E1287" s="82"/>
+      <c r="E1287" s="83"/>
       <c r="F1287" s="6"/>
     </row>
     <row r="1288" spans="3:7">
       <c r="C1288" s="2"/>
       <c r="D1288" s="20"/>
-      <c r="E1288" s="82"/>
+      <c r="E1288" s="83"/>
       <c r="F1288" s="6"/>
     </row>
     <row r="1289" spans="3:7">
-      <c r="E1289" s="82"/>
+      <c r="E1289" s="83"/>
       <c r="F1289" s="6"/>
     </row>
     <row r="1290" spans="3:7">
       <c r="C1290" s="3"/>
       <c r="D1290" s="23"/>
-      <c r="E1290" s="82"/>
+      <c r="E1290" s="83"/>
       <c r="F1290" s="6"/>
     </row>
     <row r="1291" spans="3:7">
-      <c r="E1291" s="82"/>
+      <c r="E1291" s="83"/>
       <c r="F1291" s="6"/>
     </row>
     <row r="1292" spans="3:7">
       <c r="C1292" s="2"/>
       <c r="D1292" s="20"/>
-      <c r="E1292" s="82"/>
+      <c r="E1292" s="83"/>
       <c r="F1292" s="6"/>
     </row>
     <row r="1293" spans="3:7">
-      <c r="E1293" s="82"/>
+      <c r="E1293" s="83"/>
       <c r="F1293" s="6"/>
     </row>
     <row r="1294" spans="3:7">
       <c r="C1294" s="3"/>
       <c r="D1294" s="23"/>
-      <c r="E1294" s="82"/>
+      <c r="E1294" s="83"/>
       <c r="F1294" s="6"/>
     </row>
     <row r="1295" spans="3:7">
       <c r="C1295" s="2"/>
       <c r="D1295" s="20"/>
-      <c r="E1295" s="82"/>
+      <c r="E1295" s="83"/>
       <c r="F1295" s="6"/>
       <c r="G1295" s="13"/>
     </row>
     <row r="1296" spans="3:7">
-      <c r="E1296" s="82"/>
+      <c r="E1296" s="83"/>
       <c r="F1296" s="6"/>
     </row>
     <row r="1297" spans="3:7">
       <c r="C1297" s="4"/>
       <c r="D1297" s="22"/>
-      <c r="E1297" s="82"/>
+      <c r="E1297" s="83"/>
       <c r="F1297" s="6"/>
       <c r="G1297" s="10"/>
     </row>
     <row r="1298" spans="3:7">
       <c r="C1298" s="2"/>
       <c r="D1298" s="20"/>
-      <c r="E1298" s="82"/>
+      <c r="E1298" s="83"/>
       <c r="F1298" s="6"/>
       <c r="G1298" s="13"/>
     </row>
     <row r="1299" spans="3:7">
       <c r="C1299" s="2"/>
       <c r="D1299" s="20"/>
-      <c r="E1299" s="82"/>
+      <c r="E1299" s="83"/>
       <c r="F1299" s="6"/>
     </row>
     <row r="1300" spans="3:7">
-      <c r="E1300" s="82"/>
+      <c r="E1300" s="83"/>
       <c r="F1300" s="6"/>
       <c r="G1300" s="10"/>
     </row>
     <row r="1301" spans="3:7">
       <c r="C1301" s="2"/>
       <c r="D1301" s="20"/>
-      <c r="E1301" s="82"/>
+      <c r="E1301" s="83"/>
       <c r="F1301" s="6"/>
     </row>
     <row r="1302" spans="3:7">
       <c r="C1302" s="3"/>
       <c r="D1302" s="23"/>
-      <c r="E1302" s="82"/>
+      <c r="E1302" s="83"/>
       <c r="F1302" s="6"/>
     </row>
     <row r="1303" spans="3:7">
-      <c r="E1303" s="82"/>
+      <c r="E1303" s="83"/>
       <c r="F1303" s="6"/>
     </row>
     <row r="1304" spans="3:7">
       <c r="C1304" s="2"/>
       <c r="D1304" s="20"/>
-      <c r="E1304" s="82"/>
+      <c r="E1304" s="83"/>
       <c r="F1304" s="6"/>
     </row>
     <row r="1305" spans="3:7">
       <c r="C1305" s="3"/>
       <c r="D1305" s="23"/>
-      <c r="E1305" s="82"/>
+      <c r="E1305" s="83"/>
       <c r="F1305" s="6"/>
     </row>
     <row r="1306" spans="3:7">
-      <c r="E1306" s="82"/>
+      <c r="E1306" s="83"/>
       <c r="F1306" s="6"/>
     </row>
     <row r="1307" spans="3:7">
       <c r="C1307" s="2"/>
       <c r="D1307" s="20"/>
-      <c r="E1307" s="82"/>
+      <c r="E1307" s="83"/>
       <c r="F1307" s="6"/>
     </row>
     <row r="1308" spans="3:7">
       <c r="C1308" s="3"/>
       <c r="D1308" s="23"/>
-      <c r="E1308" s="82"/>
+      <c r="E1308" s="83"/>
       <c r="F1308" s="6"/>
     </row>
     <row r="1309" spans="3:7">
-      <c r="E1309" s="82"/>
+      <c r="E1309" s="83"/>
       <c r="F1309" s="6"/>
     </row>
     <row r="1310" spans="3:7">
       <c r="C1310" s="2"/>
       <c r="D1310" s="20"/>
-      <c r="E1310" s="82"/>
+      <c r="E1310" s="83"/>
       <c r="F1310" s="6"/>
     </row>
     <row r="1311" spans="3:7">
       <c r="C1311" s="3"/>
       <c r="D1311" s="23"/>
-      <c r="E1311" s="82"/>
+      <c r="E1311" s="83"/>
       <c r="F1311" s="6"/>
     </row>
     <row r="1312" spans="3:7">
-      <c r="E1312" s="82"/>
+      <c r="E1312" s="83"/>
       <c r="F1312" s="6"/>
     </row>
     <row r="1313" spans="3:6">
       <c r="C1313" s="2"/>
       <c r="D1313" s="20"/>
-      <c r="E1313" s="82"/>
+      <c r="E1313" s="83"/>
       <c r="F1313" s="6"/>
     </row>
     <row r="1314" spans="3:6">
       <c r="C1314" s="3"/>
       <c r="D1314" s="23"/>
-      <c r="E1314" s="82"/>
+      <c r="E1314" s="83"/>
       <c r="F1314" s="6"/>
     </row>
     <row r="1315" spans="3:6">
-      <c r="E1315" s="82"/>
+      <c r="E1315" s="83"/>
       <c r="F1315" s="6"/>
     </row>
     <row r="1316" spans="3:6">
       <c r="C1316" s="2"/>
       <c r="D1316" s="20"/>
-      <c r="E1316" s="82"/>
+      <c r="E1316" s="83"/>
       <c r="F1316" s="6"/>
     </row>
     <row r="1317" spans="3:6">
       <c r="C1317" s="4"/>
       <c r="D1317" s="22"/>
-      <c r="E1317" s="82"/>
+      <c r="E1317" s="83"/>
       <c r="F1317" s="6"/>
     </row>
     <row r="1318" spans="3:6">
       <c r="C1318" s="4"/>
       <c r="D1318" s="22"/>
-      <c r="E1318" s="82"/>
+      <c r="E1318" s="83"/>
       <c r="F1318" s="6"/>
     </row>
     <row r="1319" spans="3:6">
       <c r="C1319" s="4"/>
       <c r="D1319" s="22"/>
-      <c r="E1319" s="82"/>
+      <c r="E1319" s="83"/>
       <c r="F1319" s="6"/>
     </row>
     <row r="1320" spans="3:6">
-      <c r="E1320" s="82"/>
+      <c r="E1320" s="83"/>
       <c r="F1320" s="6"/>
     </row>
     <row r="1321" spans="3:6">
       <c r="C1321" s="2"/>
       <c r="D1321" s="20"/>
-      <c r="E1321" s="82"/>
+      <c r="E1321" s="83"/>
       <c r="F1321" s="6"/>
     </row>
     <row r="1322" spans="3:6">
       <c r="C1322" s="4"/>
       <c r="D1322" s="22"/>
-      <c r="E1322" s="82"/>
+      <c r="E1322" s="83"/>
       <c r="F1322" s="6"/>
     </row>
     <row r="1323" spans="3:6">
       <c r="C1323" s="4"/>
       <c r="D1323" s="22"/>
-      <c r="E1323" s="82"/>
+      <c r="E1323" s="83"/>
       <c r="F1323" s="6"/>
     </row>
     <row r="1324" spans="3:6">
       <c r="C1324" s="4"/>
       <c r="D1324" s="22"/>
-      <c r="E1324" s="82"/>
+      <c r="E1324" s="83"/>
       <c r="F1324" s="6"/>
     </row>
     <row r="1325" spans="3:6">
-      <c r="E1325" s="82"/>
+      <c r="E1325" s="83"/>
       <c r="F1325" s="6"/>
     </row>
     <row r="1326" spans="3:6">
       <c r="C1326" s="4"/>
       <c r="D1326" s="22"/>
-      <c r="E1326" s="82"/>
+      <c r="E1326" s="83"/>
       <c r="F1326" s="6"/>
     </row>
     <row r="1327" spans="3:6">
       <c r="C1327" s="4"/>
       <c r="D1327" s="22"/>
-      <c r="E1327" s="82"/>
+      <c r="E1327" s="83"/>
       <c r="F1327" s="6"/>
     </row>
     <row r="1328" spans="3:6">
-      <c r="E1328" s="82"/>
+      <c r="E1328" s="83"/>
       <c r="F1328" s="6"/>
     </row>
     <row r="1329" spans="3:7">
       <c r="C1329" s="2"/>
       <c r="D1329" s="20"/>
-      <c r="E1329" s="82"/>
+      <c r="E1329" s="83"/>
       <c r="F1329" s="6"/>
       <c r="G1329" s="13"/>
     </row>
     <row r="1330" spans="3:7">
       <c r="C1330" s="2"/>
       <c r="D1330" s="20"/>
-      <c r="E1330" s="82"/>
+      <c r="E1330" s="83"/>
       <c r="F1330" s="6"/>
     </row>
     <row r="1331" spans="3:7">
-      <c r="E1331" s="82"/>
+      <c r="E1331" s="83"/>
       <c r="F1331" s="6"/>
       <c r="G1331" s="10"/>
     </row>
     <row r="1332" spans="3:7">
       <c r="C1332" s="4"/>
       <c r="D1332" s="22"/>
-      <c r="E1332" s="82"/>
+      <c r="E1332" s="83"/>
       <c r="F1332" s="6"/>
     </row>
     <row r="1333" spans="3:7">
       <c r="C1333" s="4"/>
       <c r="D1333" s="22"/>
-      <c r="E1333" s="82"/>
+      <c r="E1333" s="83"/>
       <c r="F1333" s="6"/>
     </row>
     <row r="1334" spans="3:7">
       <c r="C1334" s="4"/>
       <c r="D1334" s="22"/>
-      <c r="E1334" s="82"/>
+      <c r="E1334" s="83"/>
       <c r="F1334" s="6"/>
     </row>
     <row r="1335" spans="3:7">
       <c r="C1335" s="4"/>
       <c r="D1335" s="22"/>
-      <c r="E1335" s="82"/>
+      <c r="E1335" s="83"/>
       <c r="F1335" s="6"/>
     </row>
     <row r="1336" spans="3:7">
       <c r="C1336" s="4"/>
       <c r="D1336" s="22"/>
-      <c r="E1336" s="82"/>
+      <c r="E1336" s="83"/>
       <c r="F1336" s="6"/>
     </row>
     <row r="1337" spans="3:7">
       <c r="C1337" s="4"/>
       <c r="D1337" s="22"/>
-      <c r="E1337" s="82"/>
+      <c r="E1337" s="83"/>
       <c r="F1337" s="6"/>
     </row>
     <row r="1338" spans="3:7">
       <c r="C1338" s="4"/>
       <c r="D1338" s="22"/>
-      <c r="E1338" s="82"/>
+      <c r="E1338" s="83"/>
       <c r="F1338" s="6"/>
     </row>
     <row r="1339" spans="3:7">
       <c r="C1339" s="4"/>
       <c r="D1339" s="22"/>
-      <c r="E1339" s="82"/>
+      <c r="E1339" s="83"/>
       <c r="F1339" s="6"/>
     </row>
     <row r="1340" spans="3:7">
       <c r="C1340" s="4"/>
       <c r="D1340" s="22"/>
-      <c r="E1340" s="82"/>
+      <c r="E1340" s="83"/>
       <c r="F1340" s="6"/>
     </row>
     <row r="1341" spans="3:7">
       <c r="C1341" s="4"/>
       <c r="D1341" s="22"/>
-      <c r="E1341" s="82"/>
+      <c r="E1341" s="83"/>
       <c r="F1341" s="6"/>
     </row>
     <row r="1342" spans="3:7">
       <c r="C1342" s="4"/>
       <c r="D1342" s="22"/>
-      <c r="E1342" s="82"/>
+      <c r="E1342" s="83"/>
       <c r="F1342" s="6"/>
     </row>
     <row r="1343" spans="3:7">
       <c r="C1343" s="4"/>
       <c r="D1343" s="22"/>
-      <c r="E1343" s="82"/>
+      <c r="E1343" s="83"/>
       <c r="F1343" s="6"/>
     </row>
     <row r="1344" spans="3:7">
       <c r="C1344" s="4"/>
       <c r="D1344" s="22"/>
-      <c r="E1344" s="82"/>
+      <c r="E1344" s="83"/>
       <c r="F1344" s="6"/>
     </row>
     <row r="1345" spans="3:7">
       <c r="C1345" s="4"/>
       <c r="D1345" s="22"/>
-      <c r="E1345" s="82"/>
+      <c r="E1345" s="83"/>
       <c r="F1345" s="6"/>
     </row>
     <row r="1346" spans="3:7">
       <c r="C1346" s="4"/>
       <c r="D1346" s="22"/>
-      <c r="E1346" s="82"/>
+      <c r="E1346" s="83"/>
       <c r="F1346" s="6"/>
     </row>
     <row r="1347" spans="3:7">
       <c r="C1347" s="4"/>
       <c r="D1347" s="22"/>
-      <c r="E1347" s="82"/>
+      <c r="E1347" s="83"/>
       <c r="F1347" s="6"/>
     </row>
     <row r="1348" spans="3:7">
       <c r="C1348" s="4"/>
       <c r="D1348" s="22"/>
-      <c r="E1348" s="82"/>
+      <c r="E1348" s="83"/>
       <c r="F1348" s="6"/>
     </row>
     <row r="1349" spans="3:7">
-      <c r="E1349" s="82"/>
+      <c r="E1349" s="83"/>
       <c r="F1349" s="6"/>
     </row>
     <row r="1350" spans="3:7">
       <c r="C1350" s="2"/>
       <c r="D1350" s="20"/>
-      <c r="E1350" s="82"/>
+      <c r="E1350" s="83"/>
       <c r="F1350" s="6"/>
     </row>
     <row r="1351" spans="3:7">
-      <c r="E1351" s="82"/>
+      <c r="E1351" s="83"/>
       <c r="F1351" s="6"/>
     </row>
     <row r="1352" spans="3:7">
       <c r="C1352" s="4"/>
       <c r="D1352" s="22"/>
-      <c r="E1352" s="82"/>
+      <c r="E1352" s="83"/>
       <c r="F1352" s="6"/>
     </row>
     <row r="1353" spans="3:7">
       <c r="C1353" s="4"/>
       <c r="D1353" s="22"/>
-      <c r="E1353" s="82"/>
+      <c r="E1353" s="83"/>
       <c r="F1353" s="6"/>
     </row>
     <row r="1354" spans="3:7">
       <c r="C1354" s="4"/>
       <c r="D1354" s="22"/>
-      <c r="E1354" s="82"/>
+      <c r="E1354" s="83"/>
       <c r="F1354" s="6"/>
     </row>
     <row r="1355" spans="3:7">
-      <c r="E1355" s="82"/>
+      <c r="E1355" s="83"/>
       <c r="F1355" s="6"/>
     </row>
     <row r="1356" spans="3:7">
       <c r="C1356" s="2"/>
       <c r="D1356" s="20"/>
-      <c r="E1356" s="82"/>
+      <c r="E1356" s="83"/>
       <c r="F1356" s="6"/>
       <c r="G1356" s="13"/>
     </row>
     <row r="1357" spans="3:7">
-      <c r="E1357" s="82"/>
+      <c r="E1357" s="83"/>
       <c r="F1357" s="6"/>
     </row>
     <row r="1358" spans="3:7">
       <c r="C1358" s="4"/>
       <c r="D1358" s="22"/>
-      <c r="E1358" s="82"/>
+      <c r="E1358" s="83"/>
       <c r="F1358" s="6"/>
       <c r="G1358" s="10"/>
     </row>
     <row r="1359" spans="3:7">
       <c r="C1359" s="4"/>
       <c r="D1359" s="22"/>
-      <c r="E1359" s="82"/>
+      <c r="E1359" s="83"/>
       <c r="F1359" s="6"/>
     </row>
     <row r="1360" spans="3:7">
       <c r="C1360" s="4"/>
       <c r="D1360" s="22"/>
-      <c r="E1360" s="82"/>
+      <c r="E1360" s="83"/>
       <c r="F1360" s="6"/>
     </row>
     <row r="1361" spans="3:7">
       <c r="C1361" s="4"/>
       <c r="D1361" s="22"/>
-      <c r="E1361" s="82"/>
+      <c r="E1361" s="83"/>
       <c r="F1361" s="6"/>
     </row>
     <row r="1362" spans="3:7">
       <c r="C1362" s="4"/>
       <c r="D1362" s="22"/>
-      <c r="E1362" s="82"/>
+      <c r="E1362" s="83"/>
       <c r="F1362" s="6"/>
     </row>
     <row r="1363" spans="3:7">
-      <c r="E1363" s="82"/>
+      <c r="E1363" s="83"/>
       <c r="F1363" s="6"/>
     </row>
     <row r="1364" spans="3:7">
       <c r="C1364" s="2"/>
       <c r="D1364" s="20"/>
-      <c r="E1364" s="82"/>
+      <c r="E1364" s="83"/>
       <c r="F1364" s="6"/>
       <c r="G1364" s="13"/>
     </row>
     <row r="1365" spans="3:7">
       <c r="C1365" s="2"/>
       <c r="D1365" s="20"/>
-      <c r="E1365" s="82"/>
+      <c r="E1365" s="83"/>
       <c r="F1365" s="6"/>
     </row>
     <row r="1366" spans="3:7">
-      <c r="E1366" s="82"/>
+      <c r="E1366" s="83"/>
       <c r="F1366" s="6"/>
       <c r="G1366" s="10"/>
     </row>
     <row r="1367" spans="3:7">
       <c r="C1367" s="2"/>
       <c r="D1367" s="20"/>
-      <c r="E1367" s="82"/>
+      <c r="E1367" s="83"/>
       <c r="F1367" s="6"/>
     </row>
     <row r="1368" spans="3:7">
       <c r="C1368" s="4"/>
       <c r="D1368" s="22"/>
-      <c r="E1368" s="82"/>
+      <c r="E1368" s="83"/>
       <c r="F1368" s="6"/>
     </row>
     <row r="1369" spans="3:7">
-      <c r="E1369" s="82"/>
+      <c r="E1369" s="83"/>
       <c r="F1369" s="6"/>
     </row>
     <row r="1370" spans="3:7">
       <c r="C1370" s="2"/>
       <c r="D1370" s="20"/>
-      <c r="E1370" s="82"/>
+      <c r="E1370" s="83"/>
       <c r="F1370" s="6"/>
     </row>
     <row r="1371" spans="3:7">
       <c r="C1371" s="4"/>
       <c r="D1371" s="22"/>
-      <c r="E1371" s="82"/>
+      <c r="E1371" s="83"/>
       <c r="F1371" s="6"/>
     </row>
     <row r="1372" spans="3:7">
       <c r="C1372" s="2"/>
       <c r="D1372" s="20"/>
-      <c r="E1372" s="82"/>
+      <c r="E1372" s="83"/>
       <c r="F1372" s="6"/>
       <c r="G1372" s="14"/>
     </row>
     <row r="1373" spans="3:7">
-      <c r="E1373" s="82"/>
+      <c r="E1373" s="83"/>
       <c r="F1373" s="6"/>
     </row>
     <row r="1374" spans="3:7">
       <c r="C1374" s="2"/>
       <c r="D1374" s="20"/>
-      <c r="E1374" s="82"/>
+      <c r="E1374" s="83"/>
       <c r="F1374" s="6"/>
       <c r="G1374" s="10"/>
     </row>
     <row r="1375" spans="3:7">
-      <c r="E1375" s="82"/>
+      <c r="E1375" s="83"/>
       <c r="F1375" s="6"/>
     </row>
     <row r="1376" spans="3:7">
       <c r="C1376" s="2"/>
       <c r="D1376" s="20"/>
-      <c r="E1376" s="82"/>
+      <c r="E1376" s="83"/>
       <c r="F1376" s="6"/>
     </row>
     <row r="1377" spans="3:6">
       <c r="C1377" s="4"/>
       <c r="D1377" s="22"/>
-      <c r="E1377" s="82"/>
+      <c r="E1377" s="83"/>
       <c r="F1377" s="6"/>
     </row>
     <row r="1378" spans="3:6">
       <c r="C1378" s="4"/>
       <c r="D1378" s="22"/>
-      <c r="E1378" s="82"/>
+      <c r="E1378" s="83"/>
       <c r="F1378" s="6"/>
     </row>
     <row r="1379" spans="3:6">
       <c r="C1379" s="4"/>
       <c r="D1379" s="22"/>
-      <c r="E1379" s="82"/>
+      <c r="E1379" s="83"/>
       <c r="F1379" s="6"/>
     </row>
     <row r="1380" spans="3:6">
-      <c r="E1380" s="82"/>
+      <c r="E1380" s="83"/>
       <c r="F1380" s="6"/>
     </row>
     <row r="1381" spans="3:6">
       <c r="C1381" s="4"/>
       <c r="D1381" s="22"/>
-      <c r="E1381" s="82"/>
+      <c r="E1381" s="83"/>
       <c r="F1381" s="6"/>
     </row>
     <row r="1382" spans="3:6">
       <c r="C1382" s="4"/>
       <c r="D1382" s="22"/>
-      <c r="E1382" s="82"/>
+      <c r="E1382" s="83"/>
       <c r="F1382" s="6"/>
     </row>
     <row r="1383" spans="3:6">
       <c r="C1383" s="2"/>
       <c r="D1383" s="20"/>
-      <c r="E1383" s="82"/>
+      <c r="E1383" s="83"/>
       <c r="F1383" s="6"/>
     </row>
     <row r="1384" spans="3:6">
       <c r="C1384" s="4"/>
       <c r="D1384" s="22"/>
-      <c r="E1384" s="82"/>
+      <c r="E1384" s="83"/>
       <c r="F1384" s="6"/>
     </row>
     <row r="1385" spans="3:6">
       <c r="C1385" s="4"/>
       <c r="D1385" s="22"/>
-      <c r="E1385" s="82"/>
+      <c r="E1385" s="83"/>
       <c r="F1385" s="6"/>
     </row>
     <row r="1386" spans="3:6">
       <c r="C1386" s="4"/>
       <c r="D1386" s="22"/>
-      <c r="E1386" s="82"/>
+      <c r="E1386" s="83"/>
       <c r="F1386" s="6"/>
     </row>
     <row r="1387" spans="3:6">
-      <c r="E1387" s="82"/>
+      <c r="E1387" s="83"/>
       <c r="F1387" s="6"/>
     </row>
     <row r="1388" spans="3:6">
       <c r="C1388" s="4"/>
       <c r="D1388" s="22"/>
-      <c r="E1388" s="82"/>
+      <c r="E1388" s="83"/>
       <c r="F1388" s="6"/>
     </row>
     <row r="1389" spans="3:6">
       <c r="C1389" s="4"/>
       <c r="D1389" s="22"/>
-      <c r="E1389" s="82"/>
+      <c r="E1389" s="83"/>
       <c r="F1389" s="6"/>
     </row>
     <row r="1390" spans="3:6">
       <c r="C1390" s="2"/>
       <c r="D1390" s="20"/>
-      <c r="E1390" s="82"/>
+      <c r="E1390" s="83"/>
       <c r="F1390" s="6"/>
     </row>
     <row r="1391" spans="3:6">
       <c r="C1391" s="4"/>
       <c r="D1391" s="22"/>
-      <c r="E1391" s="82"/>
+      <c r="E1391" s="83"/>
       <c r="F1391" s="6"/>
     </row>
     <row r="1392" spans="3:6">
       <c r="C1392" s="4"/>
       <c r="D1392" s="22"/>
-      <c r="E1392" s="82"/>
+      <c r="E1392" s="83"/>
       <c r="F1392" s="6"/>
     </row>
     <row r="1393" spans="3:7">
       <c r="C1393" s="4"/>
       <c r="D1393" s="22"/>
-      <c r="E1393" s="82"/>
+      <c r="E1393" s="83"/>
       <c r="F1393" s="6"/>
     </row>
     <row r="1394" spans="3:7">
-      <c r="E1394" s="82"/>
+      <c r="E1394" s="83"/>
       <c r="F1394" s="6"/>
     </row>
     <row r="1395" spans="3:7">
       <c r="C1395" s="4"/>
       <c r="D1395" s="22"/>
-      <c r="E1395" s="82"/>
+      <c r="E1395" s="83"/>
       <c r="F1395" s="6"/>
     </row>
     <row r="1396" spans="3:7">
       <c r="C1396" s="4"/>
       <c r="D1396" s="22"/>
-      <c r="E1396" s="82"/>
+      <c r="E1396" s="83"/>
       <c r="F1396" s="6"/>
     </row>
     <row r="1397" spans="3:7">
       <c r="C1397" s="2"/>
       <c r="D1397" s="20"/>
-      <c r="E1397" s="82"/>
+      <c r="E1397" s="83"/>
       <c r="F1397" s="6"/>
     </row>
     <row r="1398" spans="3:7">
       <c r="C1398" s="2"/>
       <c r="D1398" s="20"/>
-      <c r="E1398" s="82"/>
+      <c r="E1398" s="83"/>
       <c r="F1398" s="6"/>
       <c r="G1398" s="13"/>
     </row>
     <row r="1399" spans="3:7">
       <c r="C1399" s="3"/>
       <c r="D1399" s="23"/>
-      <c r="E1399" s="82"/>
+      <c r="E1399" s="83"/>
       <c r="F1399" s="6"/>
     </row>
     <row r="1400" spans="3:7">
-      <c r="E1400" s="82"/>
+      <c r="E1400" s="83"/>
       <c r="F1400" s="6"/>
       <c r="G1400" s="10"/>
     </row>
     <row r="1401" spans="3:7">
       <c r="C1401" s="2"/>
       <c r="D1401" s="20"/>
-      <c r="E1401" s="82"/>
+      <c r="E1401" s="83"/>
       <c r="F1401" s="6"/>
       <c r="G1401" s="13"/>
     </row>
     <row r="1402" spans="3:7">
       <c r="C1402" s="3"/>
       <c r="D1402" s="23"/>
-      <c r="E1402" s="82"/>
+      <c r="E1402" s="83"/>
       <c r="F1402" s="6"/>
     </row>
     <row r="1403" spans="3:7">
-      <c r="E1403" s="82"/>
+      <c r="E1403" s="83"/>
       <c r="F1403" s="6"/>
       <c r="G1403" s="10"/>
     </row>
     <row r="1404" spans="3:7">
       <c r="C1404" s="2"/>
       <c r="D1404" s="20"/>
-      <c r="E1404" s="82"/>
+      <c r="E1404" s="83"/>
       <c r="F1404" s="6"/>
       <c r="G1404" s="13"/>
     </row>
     <row r="1405" spans="3:7">
       <c r="C1405" s="3"/>
       <c r="D1405" s="23"/>
-      <c r="E1405" s="82"/>
+      <c r="E1405" s="83"/>
       <c r="F1405" s="6"/>
     </row>
     <row r="1406" spans="3:7">
-      <c r="E1406" s="82"/>
+      <c r="E1406" s="83"/>
       <c r="F1406" s="6"/>
       <c r="G1406" s="10"/>
     </row>
     <row r="1407" spans="3:7">
       <c r="C1407" s="2"/>
       <c r="D1407" s="20"/>
-      <c r="E1407" s="82"/>
+      <c r="E1407" s="83"/>
       <c r="F1407" s="6"/>
       <c r="G1407" s="13"/>
     </row>
     <row r="1408" spans="3:7">
       <c r="C1408" s="4"/>
       <c r="D1408" s="22"/>
-      <c r="E1408" s="82"/>
+      <c r="E1408" s="83"/>
       <c r="F1408" s="6"/>
     </row>
     <row r="1409" spans="3:7">
-      <c r="E1409" s="82"/>
+      <c r="E1409" s="83"/>
       <c r="F1409" s="6"/>
       <c r="G1409" s="10"/>
     </row>
     <row r="1410" spans="3:7">
       <c r="C1410" s="4"/>
       <c r="D1410" s="22"/>
-      <c r="E1410" s="82"/>
+      <c r="E1410" s="83"/>
       <c r="F1410" s="6"/>
     </row>
     <row r="1411" spans="3:7">
-      <c r="E1411" s="82"/>
+      <c r="E1411" s="83"/>
       <c r="F1411" s="6"/>
     </row>
     <row r="1412" spans="3:7">
       <c r="C1412" s="4"/>
       <c r="D1412" s="22"/>
-      <c r="E1412" s="82"/>
+      <c r="E1412" s="83"/>
       <c r="F1412" s="6"/>
     </row>
     <row r="1413" spans="3:7">
       <c r="C1413" s="2"/>
       <c r="D1413" s="20"/>
-      <c r="E1413" s="82"/>
+      <c r="E1413" s="83"/>
       <c r="F1413" s="6"/>
       <c r="G1413" s="13"/>
     </row>
     <row r="1414" spans="3:7">
       <c r="C1414" s="3"/>
       <c r="D1414" s="23"/>
-      <c r="E1414" s="82"/>
+      <c r="E1414" s="83"/>
       <c r="F1414" s="6"/>
     </row>
     <row r="1415" spans="3:7">
-      <c r="E1415" s="82"/>
+      <c r="E1415" s="83"/>
       <c r="F1415" s="6"/>
       <c r="G1415" s="10"/>
     </row>
     <row r="1416" spans="3:7">
       <c r="C1416" s="2"/>
       <c r="D1416" s="20"/>
-      <c r="E1416" s="82"/>
+      <c r="E1416" s="83"/>
       <c r="F1416" s="6"/>
       <c r="G1416" s="14"/>
     </row>
     <row r="1417" spans="3:7">
       <c r="C1417" s="3"/>
       <c r="D1417" s="23"/>
-      <c r="E1417" s="82"/>
+      <c r="E1417" s="83"/>
       <c r="F1417" s="6"/>
     </row>
     <row r="1418" spans="3:7">
-      <c r="E1418" s="82"/>
+      <c r="E1418" s="83"/>
       <c r="F1418" s="6"/>
       <c r="G1418" s="10"/>
     </row>
     <row r="1419" spans="3:7">
       <c r="C1419" s="2"/>
       <c r="D1419" s="20"/>
-      <c r="E1419" s="82"/>
+      <c r="E1419" s="83"/>
       <c r="F1419" s="6"/>
       <c r="G1419" s="13"/>
     </row>
     <row r="1420" spans="3:7">
       <c r="C1420" s="3"/>
       <c r="D1420" s="23"/>
-      <c r="E1420" s="82"/>
+      <c r="E1420" s="83"/>
       <c r="F1420" s="6"/>
     </row>
     <row r="1421" spans="3:7">
-      <c r="E1421" s="82"/>
+      <c r="E1421" s="83"/>
       <c r="F1421" s="6"/>
       <c r="G1421" s="10"/>
     </row>
     <row r="1422" spans="3:7">
       <c r="C1422" s="2"/>
       <c r="D1422" s="20"/>
-      <c r="E1422" s="82"/>
+      <c r="E1422" s="83"/>
       <c r="F1422" s="6"/>
     </row>
     <row r="1423" spans="3:7">
-      <c r="E1423" s="82"/>
+      <c r="E1423" s="83"/>
       <c r="F1423" s="6"/>
     </row>
     <row r="1424" spans="3:7">
       <c r="C1424" s="4"/>
       <c r="D1424" s="22"/>
-      <c r="E1424" s="82"/>
+      <c r="E1424" s="83"/>
       <c r="F1424" s="6"/>
     </row>
     <row r="1425" spans="3:7">
       <c r="C1425" s="4"/>
       <c r="D1425" s="22"/>
-      <c r="E1425" s="82"/>
+      <c r="E1425" s="83"/>
       <c r="F1425" s="6"/>
     </row>
     <row r="1426" spans="3:7">
       <c r="C1426" s="4"/>
       <c r="D1426" s="22"/>
-      <c r="E1426" s="82"/>
+      <c r="E1426" s="83"/>
       <c r="F1426" s="6"/>
     </row>
     <row r="1427" spans="3:7">
-      <c r="E1427" s="82"/>
+      <c r="E1427" s="83"/>
       <c r="F1427" s="6"/>
     </row>
     <row r="1428" spans="3:7">
       <c r="C1428" s="4"/>
       <c r="D1428" s="22"/>
-      <c r="E1428" s="82"/>
+      <c r="E1428" s="83"/>
       <c r="F1428" s="6"/>
     </row>
     <row r="1429" spans="3:7">
       <c r="C1429" s="2"/>
       <c r="D1429" s="20"/>
-      <c r="E1429" s="82"/>
+      <c r="E1429" s="83"/>
       <c r="F1429" s="6"/>
       <c r="G1429" s="13"/>
     </row>
     <row r="1430" spans="3:7">
       <c r="C1430" s="3"/>
       <c r="D1430" s="23"/>
-      <c r="E1430" s="82"/>
+      <c r="E1430" s="83"/>
       <c r="F1430" s="6"/>
     </row>
     <row r="1431" spans="3:7">
-      <c r="E1431" s="82"/>
+      <c r="E1431" s="83"/>
       <c r="F1431" s="6"/>
       <c r="G1431" s="10"/>
     </row>
     <row r="1432" spans="3:7">
       <c r="C1432" s="2"/>
       <c r="D1432" s="20"/>
-      <c r="E1432" s="82"/>
+      <c r="E1432" s="83"/>
       <c r="F1432" s="6"/>
     </row>
     <row r="1433" spans="3:7">
-      <c r="E1433" s="82"/>
+      <c r="E1433" s="83"/>
       <c r="F1433" s="6"/>
     </row>
     <row r="1434" spans="3:7">
       <c r="C1434" s="4"/>
       <c r="D1434" s="22"/>
-      <c r="E1434" s="82"/>
+      <c r="E1434" s="83"/>
       <c r="F1434" s="6"/>
     </row>
     <row r="1435" spans="3:7">
       <c r="C1435" s="4"/>
       <c r="D1435" s="22"/>
-      <c r="E1435" s="82"/>
+      <c r="E1435" s="83"/>
       <c r="F1435" s="6"/>
     </row>
     <row r="1436" spans="3:7">
       <c r="C1436" s="4"/>
       <c r="D1436" s="22"/>
-      <c r="E1436" s="82"/>
+      <c r="E1436" s="83"/>
       <c r="F1436" s="6"/>
     </row>
     <row r="1437" spans="3:7">
-      <c r="E1437" s="82"/>
+      <c r="E1437" s="83"/>
       <c r="F1437" s="6"/>
     </row>
     <row r="1438" spans="3:7">
       <c r="C1438" s="4"/>
       <c r="D1438" s="22"/>
-      <c r="E1438" s="82"/>
+      <c r="E1438" s="83"/>
       <c r="F1438" s="6"/>
     </row>
     <row r="1439" spans="3:7">
       <c r="C1439" s="2"/>
       <c r="D1439" s="20"/>
-      <c r="E1439" s="82"/>
+      <c r="E1439" s="83"/>
       <c r="F1439" s="6"/>
       <c r="G1439" s="13"/>
     </row>
     <row r="1440" spans="3:7">
       <c r="C1440" s="3"/>
       <c r="D1440" s="23"/>
-      <c r="E1440" s="82"/>
+      <c r="E1440" s="83"/>
       <c r="F1440" s="6"/>
     </row>
     <row r="1441" spans="3:7">
-      <c r="E1441" s="82"/>
+      <c r="E1441" s="83"/>
       <c r="F1441" s="6"/>
       <c r="G1441" s="10"/>
     </row>
     <row r="1442" spans="3:7">
       <c r="C1442" s="2"/>
       <c r="D1442" s="20"/>
-      <c r="E1442" s="82"/>
+      <c r="E1442" s="83"/>
       <c r="F1442" s="6"/>
     </row>
     <row r="1443" spans="3:7">
-      <c r="E1443" s="82"/>
+      <c r="E1443" s="83"/>
       <c r="F1443" s="6"/>
     </row>
     <row r="1444" spans="3:7">
       <c r="C1444" s="4"/>
       <c r="D1444" s="22"/>
-      <c r="E1444" s="82"/>
+      <c r="E1444" s="83"/>
       <c r="F1444" s="6"/>
     </row>
     <row r="1445" spans="3:7">
       <c r="C1445" s="4"/>
       <c r="D1445" s="22"/>
-      <c r="E1445" s="82"/>
+      <c r="E1445" s="83"/>
       <c r="F1445" s="6"/>
     </row>
     <row r="1446" spans="3:7">
       <c r="C1446" s="4"/>
       <c r="D1446" s="22"/>
-      <c r="E1446" s="82"/>
+      <c r="E1446" s="83"/>
       <c r="F1446" s="6"/>
     </row>
     <row r="1447" spans="3:7">
-      <c r="E1447" s="82"/>
+      <c r="E1447" s="83"/>
       <c r="F1447" s="6"/>
     </row>
     <row r="1448" spans="3:7">
       <c r="C1448" s="4"/>
       <c r="D1448" s="22"/>
-      <c r="E1448" s="82"/>
+      <c r="E1448" s="83"/>
       <c r="F1448" s="6"/>
     </row>
     <row r="1449" spans="3:7">
       <c r="C1449" s="2"/>
       <c r="D1449" s="20"/>
-      <c r="E1449" s="82"/>
+      <c r="E1449" s="83"/>
       <c r="F1449" s="6"/>
       <c r="G1449" s="14"/>
     </row>
     <row r="1450" spans="3:7">
       <c r="C1450" s="4"/>
       <c r="D1450" s="22"/>
-      <c r="E1450" s="82"/>
+      <c r="E1450" s="83"/>
       <c r="F1450" s="6"/>
     </row>
     <row r="1451" spans="3:7">
       <c r="C1451" s="4"/>
       <c r="D1451" s="22"/>
-      <c r="E1451" s="82"/>
+      <c r="E1451" s="83"/>
       <c r="F1451" s="6"/>
       <c r="G1451" s="10"/>
     </row>
     <row r="1452" spans="3:7">
       <c r="C1452" s="4"/>
       <c r="D1452" s="22"/>
-      <c r="E1452" s="82"/>
+      <c r="E1452" s="83"/>
       <c r="F1452" s="6"/>
     </row>
     <row r="1453" spans="3:7">
       <c r="C1453" s="4"/>
       <c r="D1453" s="22"/>
-      <c r="E1453" s="82"/>
+      <c r="E1453" s="83"/>
       <c r="F1453" s="6"/>
     </row>
     <row r="1454" spans="3:7">
       <c r="C1454" s="4"/>
       <c r="D1454" s="22"/>
-      <c r="E1454" s="82"/>
+      <c r="E1454" s="83"/>
       <c r="F1454" s="6"/>
     </row>
     <row r="1455" spans="3:7">
-      <c r="E1455" s="82"/>
+      <c r="E1455" s="83"/>
       <c r="F1455" s="6"/>
     </row>
     <row r="1456" spans="3:7">
       <c r="C1456" s="2"/>
       <c r="D1456" s="20"/>
-      <c r="E1456" s="82"/>
+      <c r="E1456" s="83"/>
       <c r="F1456" s="6"/>
     </row>
     <row r="1457" spans="3:7">
-      <c r="E1457" s="82"/>
+      <c r="E1457" s="83"/>
       <c r="F1457" s="6"/>
     </row>
     <row r="1458" spans="3:7">
       <c r="C1458" s="4"/>
       <c r="D1458" s="22"/>
-      <c r="E1458" s="82"/>
+      <c r="E1458" s="83"/>
       <c r="F1458" s="6"/>
     </row>
     <row r="1459" spans="3:7">
       <c r="C1459" s="4"/>
       <c r="D1459" s="22"/>
-      <c r="E1459" s="82"/>
+      <c r="E1459" s="83"/>
       <c r="F1459" s="6"/>
     </row>
     <row r="1460" spans="3:7">
       <c r="C1460" s="4"/>
       <c r="D1460" s="22"/>
-      <c r="E1460" s="82"/>
+      <c r="E1460" s="83"/>
       <c r="F1460" s="6"/>
     </row>
     <row r="1461" spans="3:7">
-      <c r="E1461" s="82"/>
+      <c r="E1461" s="83"/>
       <c r="F1461" s="6"/>
     </row>
     <row r="1462" spans="3:7">
       <c r="C1462" s="4"/>
       <c r="D1462" s="22"/>
-      <c r="E1462" s="82"/>
+      <c r="E1462" s="83"/>
       <c r="F1462" s="6"/>
     </row>
     <row r="1463" spans="3:7">
       <c r="C1463" s="2"/>
       <c r="D1463" s="20"/>
-      <c r="E1463" s="82"/>
+      <c r="E1463" s="83"/>
       <c r="F1463" s="6"/>
       <c r="G1463" s="13"/>
     </row>
     <row r="1464" spans="3:7">
-      <c r="E1464" s="82"/>
+      <c r="E1464" s="83"/>
       <c r="F1464" s="6"/>
     </row>
     <row r="1465" spans="3:7">
       <c r="C1465" s="3"/>
       <c r="D1465" s="23"/>
-      <c r="E1465" s="82"/>
+      <c r="E1465" s="83"/>
       <c r="F1465" s="6"/>
       <c r="G1465" s="10"/>
     </row>
     <row r="1466" spans="3:7">
       <c r="C1466" s="2"/>
       <c r="D1466" s="20"/>
-      <c r="E1466" s="82"/>
+      <c r="E1466" s="83"/>
       <c r="F1466" s="6"/>
       <c r="G1466" s="13"/>
     </row>
     <row r="1467" spans="3:7">
-      <c r="E1467" s="82"/>
+      <c r="E1467" s="83"/>
       <c r="F1467" s="6"/>
     </row>
     <row r="1468" spans="3:7">
       <c r="C1468" s="3"/>
       <c r="D1468" s="23"/>
-      <c r="E1468" s="82"/>
+      <c r="E1468" s="83"/>
       <c r="F1468" s="6"/>
       <c r="G1468" s="10"/>
     </row>
     <row r="1469" spans="3:7">
       <c r="C1469" s="2"/>
       <c r="D1469" s="20"/>
-      <c r="E1469" s="82"/>
+      <c r="E1469" s="83"/>
       <c r="F1469" s="6"/>
       <c r="G1469" s="13"/>
     </row>
     <row r="1470" spans="3:7">
-      <c r="E1470" s="82"/>
+      <c r="E1470" s="83"/>
       <c r="F1470" s="6"/>
     </row>
     <row r="1471" spans="3:7">
       <c r="C1471" s="3"/>
       <c r="D1471" s="23"/>
-      <c r="E1471" s="82"/>
+      <c r="E1471" s="83"/>
       <c r="F1471" s="6"/>
       <c r="G1471" s="10"/>
     </row>
     <row r="1472" spans="3:7">
       <c r="C1472" s="2"/>
       <c r="D1472" s="20"/>
-      <c r="E1472" s="82"/>
+      <c r="E1472" s="83"/>
       <c r="F1472" s="6"/>
       <c r="G1472" s="13"/>
     </row>
     <row r="1473" spans="3:7">
-      <c r="E1473" s="82"/>
+      <c r="E1473" s="83"/>
       <c r="F1473" s="6"/>
     </row>
     <row r="1474" spans="3:7">
       <c r="C1474" s="4"/>
       <c r="D1474" s="22"/>
-      <c r="E1474" s="82"/>
+      <c r="E1474" s="83"/>
       <c r="F1474" s="6"/>
       <c r="G1474" s="10"/>
     </row>
     <row r="1475" spans="3:7">
       <c r="C1475" s="2"/>
       <c r="D1475" s="20"/>
-      <c r="E1475" s="82"/>
+      <c r="E1475" s="83"/>
       <c r="F1475" s="6"/>
       <c r="G1475" s="13"/>
     </row>
     <row r="1476" spans="3:7">
       <c r="C1476" s="4"/>
       <c r="D1476" s="22"/>
-      <c r="E1476" s="82"/>
+      <c r="E1476" s="83"/>
       <c r="F1476" s="6"/>
     </row>
     <row r="1477" spans="3:7">
-      <c r="E1477" s="82"/>
+      <c r="E1477" s="83"/>
       <c r="F1477" s="6"/>
       <c r="G1477" s="10"/>
     </row>
@@ -34970,88 +36026,169 @@
     <row r="1486" spans="3:7">
       <c r="C1486" s="2"/>
       <c r="D1486" s="20"/>
-      <c r="E1486" s="82"/>
+      <c r="E1486" s="83"/>
       <c r="F1486" s="6"/>
       <c r="G1486" s="13"/>
     </row>
     <row r="1487" spans="3:7">
-      <c r="E1487" s="82"/>
+      <c r="E1487" s="83"/>
       <c r="F1487" s="6"/>
     </row>
     <row r="1488" spans="3:7">
       <c r="C1488" s="4"/>
       <c r="D1488" s="22"/>
-      <c r="E1488" s="82"/>
+      <c r="E1488" s="83"/>
       <c r="F1488" s="6"/>
       <c r="G1488" s="10"/>
     </row>
     <row r="1489" spans="3:7">
       <c r="C1489" s="4"/>
       <c r="D1489" s="22"/>
-      <c r="E1489" s="82"/>
+      <c r="E1489" s="83"/>
       <c r="F1489" s="6"/>
     </row>
     <row r="1490" spans="3:7">
-      <c r="E1490" s="82"/>
+      <c r="E1490" s="83"/>
       <c r="F1490" s="6"/>
     </row>
     <row r="1491" spans="3:7">
       <c r="C1491" s="2"/>
       <c r="D1491" s="20"/>
-      <c r="E1491" s="82"/>
+      <c r="E1491" s="83"/>
       <c r="F1491" s="6"/>
     </row>
     <row r="1492" spans="3:7">
       <c r="C1492" s="2"/>
       <c r="D1492" s="20"/>
-      <c r="E1492" s="82"/>
+      <c r="E1492" s="83"/>
       <c r="F1492" s="6"/>
       <c r="G1492" s="13"/>
     </row>
     <row r="1493" spans="3:7">
-      <c r="E1493" s="82"/>
+      <c r="E1493" s="83"/>
       <c r="F1493" s="6"/>
     </row>
     <row r="1494" spans="3:7">
       <c r="C1494" s="4"/>
       <c r="D1494" s="22"/>
-      <c r="E1494" s="82"/>
+      <c r="E1494" s="83"/>
       <c r="F1494" s="6"/>
       <c r="G1494" s="10"/>
     </row>
     <row r="1495" spans="3:7">
       <c r="C1495" s="3"/>
       <c r="D1495" s="23"/>
-      <c r="E1495" s="82"/>
+      <c r="E1495" s="83"/>
       <c r="F1495" s="6"/>
     </row>
     <row r="1496" spans="3:7">
-      <c r="E1496" s="82"/>
+      <c r="E1496" s="83"/>
       <c r="F1496" s="6"/>
       <c r="G1496" s="14"/>
     </row>
     <row r="1497" spans="3:7">
       <c r="C1497" s="4"/>
       <c r="D1497" s="22"/>
-      <c r="E1497" s="82"/>
+      <c r="E1497" s="83"/>
       <c r="F1497" s="6"/>
     </row>
     <row r="1498" spans="3:7">
-      <c r="E1498" s="82"/>
+      <c r="E1498" s="83"/>
       <c r="F1498" s="6"/>
       <c r="G1498" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E289:E297"/>
-    <mergeCell ref="E273:E288"/>
-    <mergeCell ref="E347:E364"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="E337:E341"/>
-    <mergeCell ref="E322:E326"/>
-    <mergeCell ref="E301:E321"/>
-    <mergeCell ref="E298:E300"/>
+  <mergeCells count="107">
+    <mergeCell ref="E1492:E1498"/>
+    <mergeCell ref="E1486:E1491"/>
+    <mergeCell ref="E1475:E1477"/>
+    <mergeCell ref="E1472:E1474"/>
+    <mergeCell ref="E1469:E1471"/>
+    <mergeCell ref="E1466:E1468"/>
+    <mergeCell ref="E1413:E1415"/>
+    <mergeCell ref="E1407:E1412"/>
+    <mergeCell ref="E1404:E1406"/>
+    <mergeCell ref="E1401:E1403"/>
+    <mergeCell ref="E1398:E1400"/>
+    <mergeCell ref="E1372:E1397"/>
+    <mergeCell ref="E1463:E1465"/>
+    <mergeCell ref="E1449:E1462"/>
+    <mergeCell ref="E1439:E1448"/>
+    <mergeCell ref="E1429:E1438"/>
+    <mergeCell ref="E1419:E1428"/>
+    <mergeCell ref="E1416:E1418"/>
+    <mergeCell ref="E1269:E1283"/>
+    <mergeCell ref="E1266:E1268"/>
+    <mergeCell ref="E1257:E1265"/>
+    <mergeCell ref="E1254:E1256"/>
+    <mergeCell ref="E1243:E1253"/>
+    <mergeCell ref="E1240:E1242"/>
+    <mergeCell ref="E1364:E1371"/>
+    <mergeCell ref="E1356:E1363"/>
+    <mergeCell ref="E1329:E1355"/>
+    <mergeCell ref="E1298:E1328"/>
+    <mergeCell ref="E1295:E1297"/>
+    <mergeCell ref="E1284:E1294"/>
+    <mergeCell ref="E1174:E1182"/>
+    <mergeCell ref="E1169:E1173"/>
+    <mergeCell ref="E1166:E1168"/>
+    <mergeCell ref="E1149:E1160"/>
+    <mergeCell ref="E1125:E1148"/>
+    <mergeCell ref="E1120:E1124"/>
+    <mergeCell ref="E1237:E1239"/>
+    <mergeCell ref="E1234:E1236"/>
+    <mergeCell ref="E1231:E1233"/>
+    <mergeCell ref="E1228:E1230"/>
+    <mergeCell ref="E1186:E1227"/>
+    <mergeCell ref="E1183:E1185"/>
+    <mergeCell ref="E1056:E1065"/>
+    <mergeCell ref="E1053:E1055"/>
+    <mergeCell ref="E1041:E1052"/>
+    <mergeCell ref="E1033:E1040"/>
+    <mergeCell ref="E1008:E1021"/>
+    <mergeCell ref="E985:E1007"/>
+    <mergeCell ref="E1117:E1119"/>
+    <mergeCell ref="E1112:E1116"/>
+    <mergeCell ref="E1107:E1111"/>
+    <mergeCell ref="E1095:E1099"/>
+    <mergeCell ref="E1074:E1078"/>
+    <mergeCell ref="E1066:E1073"/>
+    <mergeCell ref="E908:E924"/>
+    <mergeCell ref="E898:E907"/>
+    <mergeCell ref="E870:E897"/>
+    <mergeCell ref="E849:E869"/>
+    <mergeCell ref="E739:E804"/>
+    <mergeCell ref="E715:E719"/>
+    <mergeCell ref="E968:E984"/>
+    <mergeCell ref="E961:E967"/>
+    <mergeCell ref="E958:E960"/>
+    <mergeCell ref="E943:E957"/>
+    <mergeCell ref="E928:E942"/>
+    <mergeCell ref="E925:E927"/>
+    <mergeCell ref="E668:E674"/>
+    <mergeCell ref="E661:E667"/>
+    <mergeCell ref="E654:E660"/>
+    <mergeCell ref="E647:E653"/>
+    <mergeCell ref="E644:E646"/>
+    <mergeCell ref="E637:E643"/>
+    <mergeCell ref="E710:E714"/>
+    <mergeCell ref="E703:E709"/>
+    <mergeCell ref="E696:E702"/>
+    <mergeCell ref="E689:E695"/>
+    <mergeCell ref="E682:E688"/>
+    <mergeCell ref="E675:E681"/>
+    <mergeCell ref="E573:E589"/>
+    <mergeCell ref="E533:E572"/>
+    <mergeCell ref="E501:E510"/>
+    <mergeCell ref="E495:E500"/>
+    <mergeCell ref="E488:E494"/>
+    <mergeCell ref="E484:E487"/>
+    <mergeCell ref="E630:E636"/>
+    <mergeCell ref="E617:E619"/>
+    <mergeCell ref="E610:E616"/>
+    <mergeCell ref="E603:E609"/>
+    <mergeCell ref="E593:E595"/>
+    <mergeCell ref="E590:E592"/>
     <mergeCell ref="E424:E426"/>
     <mergeCell ref="E400:E423"/>
     <mergeCell ref="E395:E399"/>
@@ -35064,96 +36201,11 @@
     <mergeCell ref="E434:E445"/>
     <mergeCell ref="E431:E433"/>
     <mergeCell ref="E427:E430"/>
-    <mergeCell ref="E573:E589"/>
-    <mergeCell ref="E533:E572"/>
-    <mergeCell ref="E501:E510"/>
-    <mergeCell ref="E495:E500"/>
-    <mergeCell ref="E488:E494"/>
-    <mergeCell ref="E484:E487"/>
-    <mergeCell ref="E630:E636"/>
-    <mergeCell ref="E617:E619"/>
-    <mergeCell ref="E610:E616"/>
-    <mergeCell ref="E603:E609"/>
-    <mergeCell ref="E593:E595"/>
-    <mergeCell ref="E590:E592"/>
-    <mergeCell ref="E668:E674"/>
-    <mergeCell ref="E661:E667"/>
-    <mergeCell ref="E654:E660"/>
-    <mergeCell ref="E647:E653"/>
-    <mergeCell ref="E644:E646"/>
-    <mergeCell ref="E637:E643"/>
-    <mergeCell ref="E710:E714"/>
-    <mergeCell ref="E703:E709"/>
-    <mergeCell ref="E696:E702"/>
-    <mergeCell ref="E689:E695"/>
-    <mergeCell ref="E682:E688"/>
-    <mergeCell ref="E675:E681"/>
-    <mergeCell ref="E908:E924"/>
-    <mergeCell ref="E898:E907"/>
-    <mergeCell ref="E870:E897"/>
-    <mergeCell ref="E849:E869"/>
-    <mergeCell ref="E739:E804"/>
-    <mergeCell ref="E715:E719"/>
-    <mergeCell ref="E968:E984"/>
-    <mergeCell ref="E961:E967"/>
-    <mergeCell ref="E958:E960"/>
-    <mergeCell ref="E943:E957"/>
-    <mergeCell ref="E928:E942"/>
-    <mergeCell ref="E925:E927"/>
-    <mergeCell ref="E1056:E1065"/>
-    <mergeCell ref="E1053:E1055"/>
-    <mergeCell ref="E1041:E1052"/>
-    <mergeCell ref="E1033:E1040"/>
-    <mergeCell ref="E1008:E1021"/>
-    <mergeCell ref="E985:E1007"/>
-    <mergeCell ref="E1117:E1119"/>
-    <mergeCell ref="E1112:E1116"/>
-    <mergeCell ref="E1107:E1111"/>
-    <mergeCell ref="E1095:E1099"/>
-    <mergeCell ref="E1074:E1078"/>
-    <mergeCell ref="E1066:E1073"/>
-    <mergeCell ref="E1174:E1182"/>
-    <mergeCell ref="E1169:E1173"/>
-    <mergeCell ref="E1166:E1168"/>
-    <mergeCell ref="E1149:E1160"/>
-    <mergeCell ref="E1125:E1148"/>
-    <mergeCell ref="E1120:E1124"/>
-    <mergeCell ref="E1237:E1239"/>
-    <mergeCell ref="E1234:E1236"/>
-    <mergeCell ref="E1231:E1233"/>
-    <mergeCell ref="E1228:E1230"/>
-    <mergeCell ref="E1186:E1227"/>
-    <mergeCell ref="E1183:E1185"/>
-    <mergeCell ref="E1269:E1283"/>
-    <mergeCell ref="E1266:E1268"/>
-    <mergeCell ref="E1257:E1265"/>
-    <mergeCell ref="E1254:E1256"/>
-    <mergeCell ref="E1243:E1253"/>
-    <mergeCell ref="E1240:E1242"/>
-    <mergeCell ref="E1364:E1371"/>
-    <mergeCell ref="E1356:E1363"/>
-    <mergeCell ref="E1329:E1355"/>
-    <mergeCell ref="E1298:E1328"/>
-    <mergeCell ref="E1295:E1297"/>
-    <mergeCell ref="E1284:E1294"/>
-    <mergeCell ref="E1401:E1403"/>
-    <mergeCell ref="E1398:E1400"/>
-    <mergeCell ref="E1372:E1397"/>
-    <mergeCell ref="E1463:E1465"/>
-    <mergeCell ref="E1449:E1462"/>
-    <mergeCell ref="E1439:E1448"/>
-    <mergeCell ref="E1429:E1438"/>
-    <mergeCell ref="E1419:E1428"/>
-    <mergeCell ref="E1416:E1418"/>
-    <mergeCell ref="E1492:E1498"/>
-    <mergeCell ref="E1486:E1491"/>
-    <mergeCell ref="E1475:E1477"/>
-    <mergeCell ref="E1472:E1474"/>
-    <mergeCell ref="E1469:E1471"/>
-    <mergeCell ref="E1466:E1468"/>
-    <mergeCell ref="E1413:E1415"/>
-    <mergeCell ref="E1407:E1412"/>
-    <mergeCell ref="E1404:E1406"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E347:E364"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="E337:E341"/>
+    <mergeCell ref="E322:E326"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -36735,10 +37787,81 @@
     <hyperlink ref="T278" r:id="rId1577" xr:uid="{CCBB52C5-F484-A946-8805-21A1E35BAD07}"/>
     <hyperlink ref="Z278" r:id="rId1578" xr:uid="{CCBE5F2A-A3FF-0A41-8246-B1F676952ABE}"/>
     <hyperlink ref="AB278" r:id="rId1579" xr:uid="{B6B37849-21BD-6244-A16A-84545DBAE121}"/>
+    <hyperlink ref="G279" r:id="rId1580" xr:uid="{1E7203BD-E4A5-B54B-96CF-A641C7B404BA}"/>
+    <hyperlink ref="H279" r:id="rId1581" xr:uid="{4F2E51FF-3C54-0D4F-B4FF-3DCFD3D431D4}"/>
+    <hyperlink ref="I279" r:id="rId1582" xr:uid="{13B2652C-EF09-3C47-9989-6004A381567F}"/>
+    <hyperlink ref="T279" r:id="rId1583" xr:uid="{A4705AAB-8BC5-5246-8DE2-10E8B0DF5D4B}"/>
+    <hyperlink ref="Z279" r:id="rId1584" xr:uid="{899CDDC0-8FCB-154E-A798-25BF18634215}"/>
+    <hyperlink ref="AB279" r:id="rId1585" xr:uid="{FC0F79B4-B821-794E-B7D8-E00683AAADEC}"/>
+    <hyperlink ref="G280" r:id="rId1586" xr:uid="{C0C00A40-0D6C-214B-85E9-06914DB998FE}"/>
+    <hyperlink ref="H280" r:id="rId1587" xr:uid="{DDF122B2-A94A-DC41-9F5A-4BB724B75534}"/>
+    <hyperlink ref="I280" r:id="rId1588" xr:uid="{3091F9E0-3A2A-6D49-BEF4-5702912D91EE}"/>
+    <hyperlink ref="T280" r:id="rId1589" xr:uid="{D23C7143-5653-614E-A630-F6A3328FE594}"/>
+    <hyperlink ref="Z280" r:id="rId1590" xr:uid="{1F417DC2-BE24-4B4C-A6F5-4D7E21020D28}"/>
+    <hyperlink ref="AB280" r:id="rId1591" xr:uid="{B182BE1F-A178-1F41-9EAB-022F46D0C8D9}"/>
+    <hyperlink ref="G281" r:id="rId1592" xr:uid="{DB77E94B-7614-6042-A363-82EE711FF878}"/>
+    <hyperlink ref="H281" r:id="rId1593" xr:uid="{E52B98FF-C897-854F-A937-16312CDD16B5}"/>
+    <hyperlink ref="I281" r:id="rId1594" xr:uid="{5EB25C52-F0BB-6A4A-B776-067D69B6549F}"/>
+    <hyperlink ref="Q281" r:id="rId1595" xr:uid="{AAC1E6D2-8EC9-D54A-A2CE-5C806022D881}"/>
+    <hyperlink ref="W281" r:id="rId1596" xr:uid="{D55167AA-1032-6A48-90D3-C54294FC2CB8}"/>
+    <hyperlink ref="O281" r:id="rId1597" xr:uid="{9DD40776-A952-BE43-B65A-9F27EC93AAC5}"/>
+    <hyperlink ref="S281" r:id="rId1598" xr:uid="{959BA1D2-9CD0-F244-9E02-71F331400516}"/>
+    <hyperlink ref="T281" r:id="rId1599" xr:uid="{02CE3733-581C-0845-AB72-89290DC85C72}"/>
+    <hyperlink ref="Z281" r:id="rId1600" xr:uid="{F8857493-6992-464A-B2B5-07CCBFCFB8AD}"/>
+    <hyperlink ref="AB281" r:id="rId1601" xr:uid="{BCE451B7-3DEE-604F-838F-EAD7C219D2AB}"/>
+    <hyperlink ref="G282" r:id="rId1602" xr:uid="{4243AF88-37CA-9B4B-9F71-6BE337689A3F}"/>
+    <hyperlink ref="H282" r:id="rId1603" xr:uid="{1EC50D67-EAA2-A44F-9AC2-4888C8284457}"/>
+    <hyperlink ref="I282" r:id="rId1604" xr:uid="{C4666DD0-6FA8-A847-AE18-184A3E767A5D}"/>
+    <hyperlink ref="T282" r:id="rId1605" xr:uid="{8AA59735-FA10-ED42-B7CB-3DB9EDAAF588}"/>
+    <hyperlink ref="Z282" r:id="rId1606" xr:uid="{5BC185EF-EBE7-E24D-BB33-6A90267417E6}"/>
+    <hyperlink ref="AB282" r:id="rId1607" xr:uid="{063FD03E-9633-3247-B1D7-9192D67B8270}"/>
+    <hyperlink ref="G283" r:id="rId1608" xr:uid="{1ABF3F0B-2834-F34E-8F82-A4BB147BFCB2}"/>
+    <hyperlink ref="H283" r:id="rId1609" xr:uid="{949E6302-722C-4447-8A03-8A02CEA1432E}"/>
+    <hyperlink ref="I283" r:id="rId1610" xr:uid="{FB3F5EC5-DA20-B34D-BFC4-0E8E6BD5F197}"/>
+    <hyperlink ref="T283" r:id="rId1611" xr:uid="{18A65734-0DED-E747-9FF4-5D503FD8E2E6}"/>
+    <hyperlink ref="Z283" r:id="rId1612" xr:uid="{D5C3BADB-E1E0-804C-BD10-3DDBC9C02EFE}"/>
+    <hyperlink ref="AB283" r:id="rId1613" xr:uid="{67F2AE8A-C621-C54D-B0C9-CE3C6FA5022D}"/>
+    <hyperlink ref="G284" r:id="rId1614" xr:uid="{62233FBD-215B-FB46-A563-FD2CB749D124}"/>
+    <hyperlink ref="H284" r:id="rId1615" xr:uid="{B9E7897B-4481-6143-BA4D-946723675C29}"/>
+    <hyperlink ref="I284" r:id="rId1616" xr:uid="{3935ED02-9DA2-4947-85E0-CAD3A184F81A}"/>
+    <hyperlink ref="T284" r:id="rId1617" xr:uid="{42ECA9BA-043E-0948-9601-ECA265EB4502}"/>
+    <hyperlink ref="AB284" r:id="rId1618" xr:uid="{857D3516-CE4B-064C-9DFB-9F53DB1AC3F9}"/>
+    <hyperlink ref="G285" r:id="rId1619" xr:uid="{DEA8069D-220D-3C44-B549-CF835EFAB4A4}"/>
+    <hyperlink ref="H285" r:id="rId1620" xr:uid="{A11880B7-26B1-F446-B70D-24BA9BDDB333}"/>
+    <hyperlink ref="I285" r:id="rId1621" xr:uid="{FCE04D99-541A-F445-BB1C-4368B1E8EBB9}"/>
+    <hyperlink ref="AB285" r:id="rId1622" xr:uid="{9081E1F1-2D8D-CE4D-AE23-D445279240E4}"/>
+    <hyperlink ref="G286" r:id="rId1623" xr:uid="{790CE929-7495-6843-B057-A9A7E43E12B5}"/>
+    <hyperlink ref="H286" r:id="rId1624" xr:uid="{4ADCC45C-D6EA-2F4F-AB35-667FE14623B0}"/>
+    <hyperlink ref="I286" r:id="rId1625" xr:uid="{6DBDEA79-94D3-4544-9C9B-A798BF0E1305}"/>
+    <hyperlink ref="Z286" r:id="rId1626" xr:uid="{E9FE7513-A028-684B-A820-6DBFEA7B9CF4}"/>
+    <hyperlink ref="AB286" r:id="rId1627" xr:uid="{6EBDB787-34EF-7349-A884-1EAD558E7912}"/>
+    <hyperlink ref="G287" r:id="rId1628" xr:uid="{EA9AF3BC-6E26-9B48-8727-95A3B4A3EA03}"/>
+    <hyperlink ref="H287" r:id="rId1629" xr:uid="{78617DEA-006C-5943-AC93-885C07E22FC6}"/>
+    <hyperlink ref="I287" r:id="rId1630" xr:uid="{569D2DBB-30B6-D745-9F3B-7CEC3EF0C8E4}"/>
+    <hyperlink ref="Z287" r:id="rId1631" xr:uid="{E902760B-A203-E94A-BE5E-3F5B4AA3B0B2}"/>
+    <hyperlink ref="AB287" r:id="rId1632" xr:uid="{D4457D2D-22CF-E840-A3A3-2BE161BB1951}"/>
+    <hyperlink ref="G288" r:id="rId1633" xr:uid="{CE8C689A-B158-114E-8FAE-6D9EA9E1C3F6}"/>
+    <hyperlink ref="H288" r:id="rId1634" xr:uid="{796A757E-CA81-9044-BA02-AAD40CF25025}"/>
+    <hyperlink ref="I288" r:id="rId1635" xr:uid="{C0AA0648-33D5-644E-BC27-C2EFE495751D}"/>
+    <hyperlink ref="Z288" r:id="rId1636" xr:uid="{4D5A963E-DB3F-3E4B-9E1B-AAB969A705F6}"/>
+    <hyperlink ref="AB288" r:id="rId1637" xr:uid="{82E0C2F3-16A6-FF45-B0D3-76B7466ED46D}"/>
+    <hyperlink ref="G289" r:id="rId1638" xr:uid="{1AFC00CF-A05F-DC41-A507-423231595453}"/>
+    <hyperlink ref="H289" r:id="rId1639" xr:uid="{FDF3CE23-0A54-1341-88CD-CAE75BB4C68E}"/>
+    <hyperlink ref="I289" r:id="rId1640" xr:uid="{C2C4484E-64C3-9543-B691-A51B03ABBA17}"/>
+    <hyperlink ref="Z289" r:id="rId1641" xr:uid="{40A92768-3F22-8D4D-97C1-B080E076D405}"/>
+    <hyperlink ref="AB289" r:id="rId1642" xr:uid="{19E7F6C8-7BA6-5242-8C52-88D3F5D0D2E2}"/>
+    <hyperlink ref="G290" r:id="rId1643" xr:uid="{657ECFA7-6C81-2C42-B795-38A799052D8C}"/>
+    <hyperlink ref="H290" r:id="rId1644" xr:uid="{60E234F6-EEBA-844A-A636-2C0A6329C3F7}"/>
+    <hyperlink ref="I290" r:id="rId1645" xr:uid="{8BB804A3-CCE6-CE41-92CB-943E81A072E2}"/>
+    <hyperlink ref="Q290" r:id="rId1646" xr:uid="{173A29CB-E38F-9145-9F01-B4B792F5F639}"/>
+    <hyperlink ref="W290" r:id="rId1647" xr:uid="{A63AEBCC-0662-8449-AFB8-1D19B8C06BF8}"/>
+    <hyperlink ref="T290" r:id="rId1648" xr:uid="{8CEDD753-E2F4-1B43-A6CB-7F8750BF5367}"/>
+    <hyperlink ref="Z290" r:id="rId1649" xr:uid="{F49D88CE-3529-F448-BDEC-B47B8DDB9141}"/>
+    <hyperlink ref="AB290" r:id="rId1650" xr:uid="{761971A5-45B3-E444-9AE9-535985C7161B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1580"/>
+  <legacyDrawing r:id="rId1651"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/oasis-standards.xlsx
+++ b/oasis-standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdrees/merge_cisco_back_in/sdrees_at_oasis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E7AE4-A4FE-CA4F-8535-F3C6F5F10C6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E562E-2896-6843-831F-D12815E649A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4823" uniqueCount="2747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="2751">
   <si>
     <t>AS4 Profile of ebMS 3.0 v1.0</t>
   </si>
@@ -9212,6 +9212,18 @@
   <si>
     <t>Juan Carlos Cruellas, Centre d'aplicacions avanades d'Internet, &lt;cruellas@ac.upc.ede&gt;
 Stefan Drees, Individual Member, &lt;stefan@drees.name&gt;</t>
+  </si>
+  <si>
+    <t>OData services are described by an Entity Model (EDM). The Common Schema Definition Language (CSDL) defines specific representations of the entity data model exposed by an OData service, using XML, JSON, and other formats. This document (OData CSDL JSON Representation) specifically defines the JSON representation of CSDL</t>
+  </si>
+  <si>
+    <t>This specification adds basic grouping and aggregation functionality (e.g. sum, min, and max) to the Open Data Protocol (OData) without changing any of the base principles of OData.</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/odata/odata-data-aggregation-ext/v4.0/cs02/abnf/odata-aggregation-testcases.xml</t>
+  </si>
+  <si>
+    <t>http://docs.oasis-open.org/odata/odata-data-aggregation-ext/v4.0/cs02/vocabularies/Org.OData.Aggregation.V1.xml</t>
   </si>
 </sst>
 </file>
@@ -9933,10 +9945,10 @@
   <dimension ref="A1:AF1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F289" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F296" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A291" sqref="A291"/>
+      <selection pane="bottomRight" activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29423,179 +29435,668 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="291" spans="1:31" s="7" customFormat="1">
-      <c r="B291" s="26"/>
-      <c r="C291" s="28"/>
-      <c r="D291" s="39"/>
-      <c r="E291" s="11"/>
-      <c r="F291" s="11"/>
-      <c r="G291" s="10"/>
-      <c r="H291" s="8"/>
-      <c r="I291" s="8"/>
+    <row r="291" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A291" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C291" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D291" s="39" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E291" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F291" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G291" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H291" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I291" s="10" t="s">
+        <v>1141</v>
+      </c>
       <c r="J291" s="8"/>
-      <c r="K291" s="8"/>
-      <c r="L291" s="8"/>
-      <c r="M291" s="8"/>
-      <c r="N291" s="8"/>
+      <c r="K291" s="70">
+        <v>43130</v>
+      </c>
+      <c r="L291" s="8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M291" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N291" s="8" t="s">
+        <v>1149</v>
+      </c>
       <c r="O291" s="8"/>
       <c r="P291" s="8"/>
       <c r="Q291" s="8"/>
       <c r="R291" s="8"/>
       <c r="S291" s="8"/>
-      <c r="T291" s="8"/>
+      <c r="T291" s="10" t="s">
+        <v>1151</v>
+      </c>
       <c r="U291" s="8"/>
       <c r="V291" s="8"/>
-      <c r="W291" s="8"/>
+      <c r="W291" s="10" t="s">
+        <v>1150</v>
+      </c>
       <c r="X291" s="8"/>
-    </row>
-    <row r="292" spans="1:31" s="7" customFormat="1">
-      <c r="B292" s="26"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="39"/>
-      <c r="E292" s="11"/>
-      <c r="F292" s="11"/>
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
-      <c r="I292" s="8"/>
+      <c r="Y291" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z291" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA291" s="79">
+        <v>43130</v>
+      </c>
+      <c r="AB291" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD291" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AE291" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31" s="7" customFormat="1" ht="204">
+      <c r="A292" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B292" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C292" s="28" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D292" s="39" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E292" s="28" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G292" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H292" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I292" s="10" t="s">
+        <v>1144</v>
+      </c>
       <c r="J292" s="8"/>
-      <c r="K292" s="8"/>
-      <c r="L292" s="8"/>
-      <c r="M292" s="8"/>
-      <c r="N292" s="8"/>
+      <c r="K292" s="70">
+        <v>43130</v>
+      </c>
+      <c r="L292" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M292" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N292" s="8" t="s">
+        <v>1149</v>
+      </c>
       <c r="O292" s="8"/>
       <c r="P292" s="8"/>
       <c r="Q292" s="8"/>
       <c r="R292" s="8"/>
       <c r="S292" s="8"/>
-      <c r="T292" s="8"/>
+      <c r="T292" s="10" t="s">
+        <v>1151</v>
+      </c>
       <c r="U292" s="8"/>
       <c r="V292" s="8"/>
-      <c r="W292" s="8"/>
+      <c r="W292" s="10" t="s">
+        <v>1150</v>
+      </c>
       <c r="X292" s="8"/>
-    </row>
-    <row r="293" spans="1:31" s="7" customFormat="1">
-      <c r="B293" s="26"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="39"/>
+      <c r="Y292" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z292" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA292" s="79">
+        <v>43130</v>
+      </c>
+      <c r="AB292" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD292" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AE292" s="8" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A293" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B293" s="62" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C293" s="28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D293" s="39" t="s">
+        <v>1160</v>
+      </c>
       <c r="E293" s="11"/>
-      <c r="F293" s="11"/>
-      <c r="G293" s="8"/>
-      <c r="H293" s="8"/>
-      <c r="I293" s="8"/>
-      <c r="J293" s="8"/>
-      <c r="K293" s="8"/>
-      <c r="L293" s="8"/>
-      <c r="M293" s="8"/>
-      <c r="N293" s="8"/>
+      <c r="F293" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G293" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H293" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I293" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K293" s="70">
+        <v>41595</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N293" s="8" t="s">
+        <v>1167</v>
+      </c>
       <c r="O293" s="8"/>
       <c r="P293" s="8"/>
-      <c r="Q293" s="8"/>
+      <c r="Q293" s="10" t="s">
+        <v>1168</v>
+      </c>
       <c r="R293" s="8"/>
       <c r="S293" s="8"/>
-      <c r="T293" s="8"/>
+      <c r="T293" s="10" t="s">
+        <v>1169</v>
+      </c>
       <c r="U293" s="8"/>
       <c r="V293" s="8"/>
       <c r="W293" s="8"/>
       <c r="X293" s="8"/>
-    </row>
-    <row r="294" spans="1:31" s="7" customFormat="1">
-      <c r="B294" s="26"/>
-      <c r="D294" s="19"/>
+      <c r="Y293" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z293" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA293" s="79">
+        <v>41595</v>
+      </c>
+      <c r="AB293" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AD293" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AE293" s="7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A294" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B294" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D294" s="19" t="s">
+        <v>1136</v>
+      </c>
       <c r="E294" s="11"/>
-      <c r="F294" s="11"/>
-      <c r="G294" s="8"/>
-      <c r="H294" s="8"/>
-      <c r="I294" s="8"/>
+      <c r="F294" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G294" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H294" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I294" s="10" t="s">
+        <v>1176</v>
+      </c>
       <c r="J294" s="8"/>
-      <c r="K294" s="8"/>
-      <c r="L294" s="8"/>
-      <c r="M294" s="8"/>
-      <c r="N294" s="8"/>
+      <c r="K294" s="70">
+        <v>43130</v>
+      </c>
+      <c r="L294" s="8" t="s">
+        <v>2747</v>
+      </c>
+      <c r="M294" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N294" s="8" t="s">
+        <v>1149</v>
+      </c>
       <c r="O294" s="8"/>
       <c r="P294" s="8"/>
       <c r="Q294" s="8"/>
       <c r="R294" s="8"/>
       <c r="S294" s="8"/>
-      <c r="T294" s="8"/>
+      <c r="T294" s="10" t="s">
+        <v>1179</v>
+      </c>
       <c r="U294" s="8"/>
       <c r="V294" s="8"/>
-      <c r="W294" s="8"/>
+      <c r="W294" s="10" t="s">
+        <v>1178</v>
+      </c>
       <c r="X294" s="8"/>
-    </row>
-    <row r="295" spans="1:31" s="7" customFormat="1">
-      <c r="B295" s="26"/>
-      <c r="C295" s="28"/>
-      <c r="D295" s="39"/>
+      <c r="Y294" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z294" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA294" s="79">
+        <v>43130</v>
+      </c>
+      <c r="AB294" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD294" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AE294" s="8" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31" s="7" customFormat="1" ht="170">
+      <c r="A295" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B295" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C295" s="28" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D295" s="39" t="s">
+        <v>1136</v>
+      </c>
       <c r="E295" s="11"/>
-      <c r="F295" s="11"/>
-      <c r="G295" s="8"/>
-      <c r="H295" s="8"/>
-      <c r="I295" s="8"/>
-      <c r="J295" s="8"/>
-      <c r="K295" s="8"/>
-      <c r="L295" s="8"/>
-      <c r="M295" s="8"/>
-      <c r="N295" s="8"/>
+      <c r="F295" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G295" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H295" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I295" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K295" s="70">
+        <v>43130</v>
+      </c>
+      <c r="L295" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M295" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N295" s="8" t="s">
+        <v>1149</v>
+      </c>
       <c r="O295" s="8"/>
       <c r="P295" s="8"/>
-      <c r="Q295" s="8"/>
+      <c r="Q295" s="10" t="s">
+        <v>1188</v>
+      </c>
       <c r="R295" s="8"/>
       <c r="S295" s="8"/>
-      <c r="T295" s="8"/>
+      <c r="T295" s="10" t="s">
+        <v>1189</v>
+      </c>
       <c r="U295" s="8"/>
       <c r="V295" s="8"/>
       <c r="W295" s="8"/>
       <c r="X295" s="8"/>
-    </row>
-    <row r="296" spans="1:31">
-      <c r="C296" s="4"/>
-      <c r="D296" s="22"/>
-      <c r="E296" s="82"/>
-      <c r="F296" s="6"/>
-    </row>
-    <row r="297" spans="1:31">
-      <c r="C297" s="4"/>
-      <c r="D297" s="22"/>
-      <c r="E297" s="82"/>
-      <c r="F297" s="6"/>
-    </row>
-    <row r="298" spans="1:31">
-      <c r="C298" s="2"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="82"/>
-      <c r="F298" s="6"/>
+      <c r="Y295" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z295" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA295" s="79">
+        <v>43130</v>
+      </c>
+      <c r="AB295" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD295" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AE295" s="8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31" s="7" customFormat="1" ht="221">
+      <c r="A296" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B296" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C296" s="28" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D296" s="39" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G296" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H296" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I296" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J296" s="8"/>
+      <c r="K296" s="70">
+        <v>42312</v>
+      </c>
+      <c r="L296" s="8" t="s">
+        <v>2748</v>
+      </c>
+      <c r="M296" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="N296" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O296" s="10" t="s">
+        <v>2749</v>
+      </c>
+      <c r="P296" s="8"/>
+      <c r="Q296" s="8"/>
+      <c r="R296" s="8"/>
+      <c r="S296" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="T296" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="U296" s="8"/>
+      <c r="V296" s="8"/>
+      <c r="W296" s="10" t="s">
+        <v>2750</v>
+      </c>
+      <c r="X296" s="8"/>
+      <c r="Y296" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z296" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA296" s="79">
+        <v>42312</v>
+      </c>
+      <c r="AB296" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AD296" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AE296" s="7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31" s="7" customFormat="1" ht="187">
+      <c r="A297" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B297" s="62" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C297" s="28" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D297" s="39" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G297" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H297" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I297" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J297" s="8"/>
+      <c r="K297" s="70">
+        <v>43130</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M297" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N297" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O297" s="8"/>
+      <c r="P297" s="8"/>
+      <c r="Q297" s="8"/>
+      <c r="R297" s="8"/>
+      <c r="S297" s="8"/>
+      <c r="T297" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="U297" s="8"/>
+      <c r="V297" s="8"/>
+      <c r="W297" s="8"/>
+      <c r="X297" s="8"/>
+      <c r="Y297" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Z297" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AA297" s="79">
+        <v>43130</v>
+      </c>
+      <c r="AB297" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AD297" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AE297" s="8" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31" s="7" customFormat="1">
+      <c r="B298" s="26"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
       <c r="G298" s="13"/>
-    </row>
-    <row r="299" spans="1:31">
-      <c r="C299" s="3"/>
-      <c r="D299" s="23"/>
-      <c r="E299" s="82"/>
-      <c r="F299" s="6"/>
-    </row>
-    <row r="300" spans="1:31">
-      <c r="E300" s="82"/>
-      <c r="F300" s="6"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+      <c r="J298" s="8"/>
+      <c r="K298" s="8"/>
+      <c r="L298" s="8"/>
+      <c r="M298" s="8"/>
+      <c r="N298" s="8"/>
+      <c r="O298" s="8"/>
+      <c r="P298" s="8"/>
+      <c r="Q298" s="8"/>
+      <c r="R298" s="8"/>
+      <c r="S298" s="8"/>
+      <c r="T298" s="8"/>
+      <c r="U298" s="8"/>
+      <c r="V298" s="8"/>
+      <c r="W298" s="8"/>
+      <c r="X298" s="8"/>
+    </row>
+    <row r="299" spans="1:31" s="7" customFormat="1">
+      <c r="B299" s="26"/>
+      <c r="C299" s="54"/>
+      <c r="D299" s="55"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
+      <c r="J299" s="8"/>
+      <c r="K299" s="8"/>
+      <c r="L299" s="8"/>
+      <c r="M299" s="8"/>
+      <c r="N299" s="8"/>
+      <c r="O299" s="8"/>
+      <c r="P299" s="8"/>
+      <c r="Q299" s="8"/>
+      <c r="R299" s="8"/>
+      <c r="S299" s="8"/>
+      <c r="T299" s="8"/>
+      <c r="U299" s="8"/>
+      <c r="V299" s="8"/>
+      <c r="W299" s="8"/>
+      <c r="X299" s="8"/>
+    </row>
+    <row r="300" spans="1:31" s="7" customFormat="1">
+      <c r="B300" s="26"/>
+      <c r="D300" s="19"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
       <c r="G300" s="10"/>
-    </row>
-    <row r="301" spans="1:31">
-      <c r="C301" s="2"/>
-      <c r="D301" s="20"/>
-      <c r="E301" s="82"/>
-      <c r="F301" s="6"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+      <c r="J300" s="8"/>
+      <c r="K300" s="8"/>
+      <c r="L300" s="8"/>
+      <c r="M300" s="8"/>
+      <c r="N300" s="8"/>
+      <c r="O300" s="8"/>
+      <c r="P300" s="8"/>
+      <c r="Q300" s="8"/>
+      <c r="R300" s="8"/>
+      <c r="S300" s="8"/>
+      <c r="T300" s="8"/>
+      <c r="U300" s="8"/>
+      <c r="V300" s="8"/>
+      <c r="W300" s="8"/>
+      <c r="X300" s="8"/>
+    </row>
+    <row r="301" spans="1:31" s="7" customFormat="1">
+      <c r="B301" s="26"/>
+      <c r="C301" s="28"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
       <c r="G301" s="13"/>
-    </row>
-    <row r="302" spans="1:31">
-      <c r="C302" s="2"/>
-      <c r="D302" s="20"/>
-      <c r="E302" s="82"/>
-      <c r="F302" s="6"/>
-    </row>
-    <row r="303" spans="1:31">
-      <c r="C303" s="3"/>
-      <c r="D303" s="23"/>
-      <c r="E303" s="82"/>
-      <c r="F303" s="6"/>
+      <c r="H301" s="8"/>
+      <c r="I301" s="8"/>
+      <c r="J301" s="8"/>
+      <c r="K301" s="8"/>
+      <c r="L301" s="8"/>
+      <c r="M301" s="8"/>
+      <c r="N301" s="8"/>
+      <c r="O301" s="8"/>
+      <c r="P301" s="8"/>
+      <c r="Q301" s="8"/>
+      <c r="R301" s="8"/>
+      <c r="S301" s="8"/>
+      <c r="T301" s="8"/>
+      <c r="U301" s="8"/>
+      <c r="V301" s="8"/>
+      <c r="W301" s="8"/>
+      <c r="X301" s="8"/>
+    </row>
+    <row r="302" spans="1:31" s="7" customFormat="1">
+      <c r="B302" s="26"/>
+      <c r="C302" s="28"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="8"/>
+      <c r="J302" s="8"/>
+      <c r="K302" s="8"/>
+      <c r="L302" s="8"/>
+      <c r="M302" s="8"/>
+      <c r="N302" s="8"/>
+      <c r="O302" s="8"/>
+      <c r="P302" s="8"/>
+      <c r="Q302" s="8"/>
+      <c r="R302" s="8"/>
+      <c r="S302" s="8"/>
+      <c r="T302" s="8"/>
+      <c r="U302" s="8"/>
+      <c r="V302" s="8"/>
+      <c r="W302" s="8"/>
+      <c r="X302" s="8"/>
+    </row>
+    <row r="303" spans="1:31" s="7" customFormat="1">
+      <c r="B303" s="26"/>
+      <c r="C303" s="54"/>
+      <c r="D303" s="55"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
       <c r="G303" s="10"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+      <c r="J303" s="8"/>
+      <c r="K303" s="8"/>
+      <c r="L303" s="8"/>
+      <c r="M303" s="8"/>
+      <c r="N303" s="8"/>
+      <c r="O303" s="8"/>
+      <c r="P303" s="8"/>
+      <c r="Q303" s="8"/>
+      <c r="R303" s="8"/>
+      <c r="S303" s="8"/>
+      <c r="T303" s="8"/>
+      <c r="U303" s="8"/>
+      <c r="V303" s="8"/>
+      <c r="W303" s="8"/>
+      <c r="X303" s="8"/>
     </row>
     <row r="304" spans="1:31">
       <c r="C304" s="2"/>
@@ -36099,24 +36600,83 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="E1492:E1498"/>
-    <mergeCell ref="E1486:E1491"/>
-    <mergeCell ref="E1475:E1477"/>
-    <mergeCell ref="E1472:E1474"/>
-    <mergeCell ref="E1469:E1471"/>
-    <mergeCell ref="E1466:E1468"/>
-    <mergeCell ref="E1413:E1415"/>
-    <mergeCell ref="E1407:E1412"/>
-    <mergeCell ref="E1404:E1406"/>
-    <mergeCell ref="E1401:E1403"/>
-    <mergeCell ref="E1398:E1400"/>
-    <mergeCell ref="E1372:E1397"/>
-    <mergeCell ref="E1463:E1465"/>
-    <mergeCell ref="E1449:E1462"/>
-    <mergeCell ref="E1439:E1448"/>
-    <mergeCell ref="E1429:E1438"/>
-    <mergeCell ref="E1419:E1428"/>
-    <mergeCell ref="E1416:E1418"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E347:E364"/>
+    <mergeCell ref="E342:E346"/>
+    <mergeCell ref="E337:E341"/>
+    <mergeCell ref="E322:E326"/>
+    <mergeCell ref="E424:E426"/>
+    <mergeCell ref="E400:E423"/>
+    <mergeCell ref="E395:E399"/>
+    <mergeCell ref="E389:E394"/>
+    <mergeCell ref="E384:E388"/>
+    <mergeCell ref="E365:E383"/>
+    <mergeCell ref="E472:E483"/>
+    <mergeCell ref="E463:E471"/>
+    <mergeCell ref="E446:E462"/>
+    <mergeCell ref="E434:E445"/>
+    <mergeCell ref="E431:E433"/>
+    <mergeCell ref="E427:E430"/>
+    <mergeCell ref="E573:E589"/>
+    <mergeCell ref="E533:E572"/>
+    <mergeCell ref="E501:E510"/>
+    <mergeCell ref="E495:E500"/>
+    <mergeCell ref="E488:E494"/>
+    <mergeCell ref="E484:E487"/>
+    <mergeCell ref="E630:E636"/>
+    <mergeCell ref="E617:E619"/>
+    <mergeCell ref="E610:E616"/>
+    <mergeCell ref="E603:E609"/>
+    <mergeCell ref="E593:E595"/>
+    <mergeCell ref="E590:E592"/>
+    <mergeCell ref="E668:E674"/>
+    <mergeCell ref="E661:E667"/>
+    <mergeCell ref="E654:E660"/>
+    <mergeCell ref="E647:E653"/>
+    <mergeCell ref="E644:E646"/>
+    <mergeCell ref="E637:E643"/>
+    <mergeCell ref="E710:E714"/>
+    <mergeCell ref="E703:E709"/>
+    <mergeCell ref="E696:E702"/>
+    <mergeCell ref="E689:E695"/>
+    <mergeCell ref="E682:E688"/>
+    <mergeCell ref="E675:E681"/>
+    <mergeCell ref="E908:E924"/>
+    <mergeCell ref="E898:E907"/>
+    <mergeCell ref="E870:E897"/>
+    <mergeCell ref="E849:E869"/>
+    <mergeCell ref="E739:E804"/>
+    <mergeCell ref="E715:E719"/>
+    <mergeCell ref="E968:E984"/>
+    <mergeCell ref="E961:E967"/>
+    <mergeCell ref="E958:E960"/>
+    <mergeCell ref="E943:E957"/>
+    <mergeCell ref="E928:E942"/>
+    <mergeCell ref="E925:E927"/>
+    <mergeCell ref="E1056:E1065"/>
+    <mergeCell ref="E1053:E1055"/>
+    <mergeCell ref="E1041:E1052"/>
+    <mergeCell ref="E1033:E1040"/>
+    <mergeCell ref="E1008:E1021"/>
+    <mergeCell ref="E985:E1007"/>
+    <mergeCell ref="E1117:E1119"/>
+    <mergeCell ref="E1112:E1116"/>
+    <mergeCell ref="E1107:E1111"/>
+    <mergeCell ref="E1095:E1099"/>
+    <mergeCell ref="E1074:E1078"/>
+    <mergeCell ref="E1066:E1073"/>
+    <mergeCell ref="E1174:E1182"/>
+    <mergeCell ref="E1169:E1173"/>
+    <mergeCell ref="E1166:E1168"/>
+    <mergeCell ref="E1149:E1160"/>
+    <mergeCell ref="E1125:E1148"/>
+    <mergeCell ref="E1120:E1124"/>
+    <mergeCell ref="E1237:E1239"/>
+    <mergeCell ref="E1234:E1236"/>
+    <mergeCell ref="E1231:E1233"/>
+    <mergeCell ref="E1228:E1230"/>
+    <mergeCell ref="E1186:E1227"/>
+    <mergeCell ref="E1183:E1185"/>
     <mergeCell ref="E1269:E1283"/>
     <mergeCell ref="E1266:E1268"/>
     <mergeCell ref="E1257:E1265"/>
@@ -36129,83 +36689,24 @@
     <mergeCell ref="E1298:E1328"/>
     <mergeCell ref="E1295:E1297"/>
     <mergeCell ref="E1284:E1294"/>
-    <mergeCell ref="E1174:E1182"/>
-    <mergeCell ref="E1169:E1173"/>
-    <mergeCell ref="E1166:E1168"/>
-    <mergeCell ref="E1149:E1160"/>
-    <mergeCell ref="E1125:E1148"/>
-    <mergeCell ref="E1120:E1124"/>
-    <mergeCell ref="E1237:E1239"/>
-    <mergeCell ref="E1234:E1236"/>
-    <mergeCell ref="E1231:E1233"/>
-    <mergeCell ref="E1228:E1230"/>
-    <mergeCell ref="E1186:E1227"/>
-    <mergeCell ref="E1183:E1185"/>
-    <mergeCell ref="E1056:E1065"/>
-    <mergeCell ref="E1053:E1055"/>
-    <mergeCell ref="E1041:E1052"/>
-    <mergeCell ref="E1033:E1040"/>
-    <mergeCell ref="E1008:E1021"/>
-    <mergeCell ref="E985:E1007"/>
-    <mergeCell ref="E1117:E1119"/>
-    <mergeCell ref="E1112:E1116"/>
-    <mergeCell ref="E1107:E1111"/>
-    <mergeCell ref="E1095:E1099"/>
-    <mergeCell ref="E1074:E1078"/>
-    <mergeCell ref="E1066:E1073"/>
-    <mergeCell ref="E908:E924"/>
-    <mergeCell ref="E898:E907"/>
-    <mergeCell ref="E870:E897"/>
-    <mergeCell ref="E849:E869"/>
-    <mergeCell ref="E739:E804"/>
-    <mergeCell ref="E715:E719"/>
-    <mergeCell ref="E968:E984"/>
-    <mergeCell ref="E961:E967"/>
-    <mergeCell ref="E958:E960"/>
-    <mergeCell ref="E943:E957"/>
-    <mergeCell ref="E928:E942"/>
-    <mergeCell ref="E925:E927"/>
-    <mergeCell ref="E668:E674"/>
-    <mergeCell ref="E661:E667"/>
-    <mergeCell ref="E654:E660"/>
-    <mergeCell ref="E647:E653"/>
-    <mergeCell ref="E644:E646"/>
-    <mergeCell ref="E637:E643"/>
-    <mergeCell ref="E710:E714"/>
-    <mergeCell ref="E703:E709"/>
-    <mergeCell ref="E696:E702"/>
-    <mergeCell ref="E689:E695"/>
-    <mergeCell ref="E682:E688"/>
-    <mergeCell ref="E675:E681"/>
-    <mergeCell ref="E573:E589"/>
-    <mergeCell ref="E533:E572"/>
-    <mergeCell ref="E501:E510"/>
-    <mergeCell ref="E495:E500"/>
-    <mergeCell ref="E488:E494"/>
-    <mergeCell ref="E484:E487"/>
-    <mergeCell ref="E630:E636"/>
-    <mergeCell ref="E617:E619"/>
-    <mergeCell ref="E610:E616"/>
-    <mergeCell ref="E603:E609"/>
-    <mergeCell ref="E593:E595"/>
-    <mergeCell ref="E590:E592"/>
-    <mergeCell ref="E424:E426"/>
-    <mergeCell ref="E400:E423"/>
-    <mergeCell ref="E395:E399"/>
-    <mergeCell ref="E389:E394"/>
-    <mergeCell ref="E384:E388"/>
-    <mergeCell ref="E365:E383"/>
-    <mergeCell ref="E472:E483"/>
-    <mergeCell ref="E463:E471"/>
-    <mergeCell ref="E446:E462"/>
-    <mergeCell ref="E434:E445"/>
-    <mergeCell ref="E431:E433"/>
-    <mergeCell ref="E427:E430"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E347:E364"/>
-    <mergeCell ref="E342:E346"/>
-    <mergeCell ref="E337:E341"/>
-    <mergeCell ref="E322:E326"/>
+    <mergeCell ref="E1401:E1403"/>
+    <mergeCell ref="E1398:E1400"/>
+    <mergeCell ref="E1372:E1397"/>
+    <mergeCell ref="E1463:E1465"/>
+    <mergeCell ref="E1449:E1462"/>
+    <mergeCell ref="E1439:E1448"/>
+    <mergeCell ref="E1429:E1438"/>
+    <mergeCell ref="E1419:E1428"/>
+    <mergeCell ref="E1416:E1418"/>
+    <mergeCell ref="E1492:E1498"/>
+    <mergeCell ref="E1486:E1491"/>
+    <mergeCell ref="E1475:E1477"/>
+    <mergeCell ref="E1472:E1474"/>
+    <mergeCell ref="E1469:E1471"/>
+    <mergeCell ref="E1466:E1468"/>
+    <mergeCell ref="E1413:E1415"/>
+    <mergeCell ref="E1407:E1412"/>
+    <mergeCell ref="E1404:E1406"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -37858,10 +38359,60 @@
     <hyperlink ref="T290" r:id="rId1648" xr:uid="{8CEDD753-E2F4-1B43-A6CB-7F8750BF5367}"/>
     <hyperlink ref="Z290" r:id="rId1649" xr:uid="{F49D88CE-3529-F448-BDEC-B47B8DDB9141}"/>
     <hyperlink ref="AB290" r:id="rId1650" xr:uid="{761971A5-45B3-E444-9AE9-535985C7161B}"/>
+    <hyperlink ref="G291" r:id="rId1651" xr:uid="{B6BE1DC3-0919-C04E-9E63-EFF08CC90369}"/>
+    <hyperlink ref="H291" r:id="rId1652" xr:uid="{1727EE95-F110-EB47-9DDD-35D7EB50FD59}"/>
+    <hyperlink ref="I291" r:id="rId1653" xr:uid="{1528BE5C-4B0F-B940-ACF0-EA8EDF98BB6E}"/>
+    <hyperlink ref="W291" r:id="rId1654" xr:uid="{A0AFC796-6BF0-8747-9EC8-75F7703F5580}"/>
+    <hyperlink ref="W292" r:id="rId1655" xr:uid="{E9BFD73C-82D7-054B-9181-90B67C3649E3}"/>
+    <hyperlink ref="T291" r:id="rId1656" xr:uid="{F3FFD8F5-0D1F-4040-AB04-F4AC30546D46}"/>
+    <hyperlink ref="T292" r:id="rId1657" xr:uid="{62423BF4-400B-FA48-A8B0-6AFE8B4B4CF5}"/>
+    <hyperlink ref="Z291" r:id="rId1658" xr:uid="{6332A092-BF6B-8E4C-BFA2-2856A30C85C2}"/>
+    <hyperlink ref="Z292" r:id="rId1659" xr:uid="{FB9AAC4D-20D6-1844-A9B5-18BD39C92335}"/>
+    <hyperlink ref="AB291" r:id="rId1660" xr:uid="{6FF0FA41-3B42-1249-97AE-C32F340C2CD0}"/>
+    <hyperlink ref="AB292" r:id="rId1661" xr:uid="{F4F00635-B068-CC42-A63B-3DBAFD3DF2C8}"/>
+    <hyperlink ref="G292" r:id="rId1662" xr:uid="{60D9C6B0-1D9A-D142-916D-C8DDB2D84B20}"/>
+    <hyperlink ref="H292" r:id="rId1663" xr:uid="{256AB180-5FF0-0645-A741-C48A043B4610}"/>
+    <hyperlink ref="I292" r:id="rId1664" xr:uid="{08F5734C-9A0A-8247-9C99-42FB0ADF9ECD}"/>
+    <hyperlink ref="G293" r:id="rId1665" xr:uid="{FFD16D94-0738-8C44-ACAC-CA85B969F06E}"/>
+    <hyperlink ref="H293" r:id="rId1666" xr:uid="{08F07178-8DA2-FD45-AFE2-EE3A99084142}"/>
+    <hyperlink ref="I293" r:id="rId1667" xr:uid="{976EE8D6-005E-4342-93F9-C028195C99C2}"/>
+    <hyperlink ref="Q293" r:id="rId1668" xr:uid="{2DC86670-BA40-0648-A563-E480B4C9F874}"/>
+    <hyperlink ref="T293" r:id="rId1669" xr:uid="{535955B9-A4C6-0543-8843-E7723403818A}"/>
+    <hyperlink ref="Z293" r:id="rId1670" xr:uid="{8B5A47C3-6C0D-3443-BAEA-E53EB290458C}"/>
+    <hyperlink ref="AB293" r:id="rId1671" xr:uid="{190DF96D-AD15-EB49-9603-B4CD6A8EF3AE}"/>
+    <hyperlink ref="W294" r:id="rId1672" xr:uid="{2CC55F13-AD56-DC47-BBB5-240E5297D7A5}"/>
+    <hyperlink ref="T294" r:id="rId1673" xr:uid="{56DE7D7A-4B72-DE40-9864-19D0124BDD7A}"/>
+    <hyperlink ref="G294" r:id="rId1674" xr:uid="{6A33A8F0-150B-7244-82A2-EA35E1E30C3F}"/>
+    <hyperlink ref="H294" r:id="rId1675" xr:uid="{6C7B47AC-C8CF-BB40-A30D-F2B053AAF772}"/>
+    <hyperlink ref="I294" r:id="rId1676" xr:uid="{2B4154A2-CC18-8049-86ED-78A6C08E1C5E}"/>
+    <hyperlink ref="Z294" r:id="rId1677" xr:uid="{ECDC2ECA-53AC-DC47-9A26-F66925B8B903}"/>
+    <hyperlink ref="AB294" r:id="rId1678" xr:uid="{EEDF870F-BBF9-B245-8C30-92B1CF7241AA}"/>
+    <hyperlink ref="G295" r:id="rId1679" xr:uid="{CA3FD468-E458-4B49-9FA0-E2AE65B90894}"/>
+    <hyperlink ref="H295" r:id="rId1680" xr:uid="{EDC054D7-3B71-9C4C-A7B3-84C04C224E2B}"/>
+    <hyperlink ref="I295" r:id="rId1681" xr:uid="{975B583E-B18C-5D4B-9BCF-7C34FCFBC91D}"/>
+    <hyperlink ref="Q295" r:id="rId1682" xr:uid="{A8A23F68-67C0-DC41-893C-EDABF51AF2A4}"/>
+    <hyperlink ref="T295" r:id="rId1683" xr:uid="{74C93B9C-62B9-A94C-8F0C-8AE1840F475E}"/>
+    <hyperlink ref="Z295" r:id="rId1684" xr:uid="{AC80C398-00A8-0742-85C2-9035942166E0}"/>
+    <hyperlink ref="AB295" r:id="rId1685" xr:uid="{2118BE56-6961-D14C-9574-2F09483EE0AE}"/>
+    <hyperlink ref="G296" r:id="rId1686" xr:uid="{A4D8C230-5FF2-FC43-9044-E257426828F4}"/>
+    <hyperlink ref="H296" r:id="rId1687" xr:uid="{2598B842-CF85-7D46-B113-526A39CF9771}"/>
+    <hyperlink ref="I296" r:id="rId1688" xr:uid="{D1993CEB-2B4E-614F-A97A-E15EE7E6EF02}"/>
+    <hyperlink ref="S296" r:id="rId1689" xr:uid="{0CB72F06-B60A-3541-B8B9-2D2D2C7F6135}"/>
+    <hyperlink ref="O296" r:id="rId1690" xr:uid="{8BE6A86E-EE91-6641-A889-D380E43DA518}"/>
+    <hyperlink ref="W296" r:id="rId1691" xr:uid="{64D8A954-D699-D64B-A05D-0EA122FBB01B}"/>
+    <hyperlink ref="Z296" r:id="rId1692" xr:uid="{83F35938-A810-7844-8023-2E733F902B4B}"/>
+    <hyperlink ref="AB296" r:id="rId1693" xr:uid="{52380AE0-ADDB-3B40-AAF6-30DC96E7D85A}"/>
+    <hyperlink ref="G297" r:id="rId1694" xr:uid="{D86F9321-9A18-D94A-BCA8-95EE7F31EEA4}"/>
+    <hyperlink ref="H297" r:id="rId1695" xr:uid="{42D75B9C-D629-0D46-ADC6-553FC8094B77}"/>
+    <hyperlink ref="I297" r:id="rId1696" xr:uid="{9F8D69FE-7724-104A-B42F-902E5AB56AF7}"/>
+    <hyperlink ref="T297" r:id="rId1697" xr:uid="{40C12B40-8B29-924F-B8C8-0FD4BF1D1C32}"/>
+    <hyperlink ref="T296" r:id="rId1698" xr:uid="{4AE759BB-3A16-6F4E-B6B8-198AD629DBE9}"/>
+    <hyperlink ref="Z297" r:id="rId1699" xr:uid="{AEF8328A-3651-D14B-87B6-FAF69DD3D3D6}"/>
+    <hyperlink ref="AB297" r:id="rId1700" xr:uid="{6EAD167A-3EBB-B240-873D-A3CDBFB57DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1651"/>
+  <legacyDrawing r:id="rId1701"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
